--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_06_10_2022\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E2D18-3C72-4E73-B014-7545BA35F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49E9FA-C57E-4F8D-93F6-00A069CC54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8748" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="1451">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -4124,9 +4124,6 @@
     <t>Added Credentials</t>
   </si>
   <si>
-    <t>User already assigned to same account</t>
-  </si>
-  <si>
     <t>defaultAccount1</t>
   </si>
   <si>
@@ -4322,9 +4319,6 @@
     <t>Insufficient Funds</t>
   </si>
   <si>
-    <t xml:space="preserve">The minimum transaction amount is 1.00 CYN. </t>
-  </si>
-  <si>
     <t>19100</t>
   </si>
   <si>
@@ -4361,9 +4355,6 @@
     <t>notificationText</t>
   </si>
   <si>
-    <t>prajwal20@gmail.com</t>
-  </si>
-  <si>
     <t>rgba(0 166 162)</t>
   </si>
   <si>
@@ -4413,6 +4404,24 @@
   </si>
   <si>
     <t>cogentWallet321</t>
+  </si>
+  <si>
+    <t>122105278</t>
+  </si>
+  <si>
+    <t>merch4@gmail.com</t>
+  </si>
+  <si>
+    <t>Cogent</t>
+  </si>
+  <si>
+    <t>Entered phone number is not matching with the phone number given while registering.</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>4321</t>
   </si>
 </sst>
 </file>
@@ -4422,7 +4431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4629,6 +4638,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4715,7 +4730,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -4924,6 +4939,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5300,8 +5317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C3FE5-B281-4346-BDDC-E6F59F94662B}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5374,7 +5391,7 @@
         <v>484</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>799</v>
@@ -5395,7 +5412,7 @@
         <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -5418,7 +5435,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B2" t="s">
         <v>1300</v>
@@ -5427,7 +5444,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -5462,7 +5479,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="V2" s="112" t="s">
-        <v>1406</v>
+        <v>1449</v>
       </c>
       <c r="W2" t="s">
         <v>184</v>
@@ -5476,7 +5493,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B3" t="s">
         <v>1303</v>
@@ -5485,7 +5502,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -5506,7 +5523,7 @@
         <v>25</v>
       </c>
       <c r="V3" s="112" t="s">
-        <v>1406</v>
+        <v>1449</v>
       </c>
       <c r="Z3" t="s">
         <v>323</v>
@@ -5520,7 +5537,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B4" t="s">
         <v>310</v>
@@ -5529,7 +5546,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -5557,7 +5574,7 @@
       </c>
       <c r="M4" s="5"/>
       <c r="V4" s="112" t="s">
-        <v>1406</v>
+        <v>1449</v>
       </c>
       <c r="AA4" t="s">
         <v>324</v>
@@ -5565,7 +5582,7 @@
     </row>
     <row r="5" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B5" t="s">
         <v>327</v>
@@ -5574,7 +5591,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -5611,7 +5628,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="V5" s="112" t="s">
-        <v>1406</v>
+        <v>1449</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>185</v>
@@ -5619,7 +5636,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B6" t="s">
         <v>1307</v>
@@ -5628,7 +5645,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -5665,15 +5682,15 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="V6" s="112" t="s">
-        <v>1406</v>
+        <v>1450</v>
       </c>
       <c r="AA6" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B7" t="s">
         <v>1262</v>
@@ -5682,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -5709,7 +5726,7 @@
         <v>817</v>
       </c>
       <c r="P7" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="Q7" t="s">
         <v>430</v>
@@ -5828,7 +5845,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>571</v>
@@ -5860,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="98" t="s">
         <v>571</v>
@@ -6011,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>571</v>
@@ -6073,7 +6090,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>571</v>
@@ -6229,7 +6246,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -6264,7 +6281,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -6299,7 +6316,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -6334,7 +6351,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -6369,7 +6386,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -6422,7 +6439,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -6464,7 +6481,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -6506,7 +6523,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -6548,7 +6565,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -6590,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -6632,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -6682,7 +6699,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -6732,7 +6749,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -6782,7 +6799,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -6832,7 +6849,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -6882,7 +6899,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -6932,7 +6949,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -6982,7 +6999,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>571</v>
@@ -7032,7 +7049,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>571</v>
@@ -7074,7 +7091,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
@@ -7116,7 +7133,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>571</v>
@@ -7158,7 +7175,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>571</v>
@@ -7200,7 +7217,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>571</v>
@@ -7244,7 +7261,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>571</v>
@@ -7279,7 +7296,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>571</v>
@@ -7320,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>571</v>
@@ -7361,7 +7378,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>571</v>
@@ -7402,7 +7419,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>571</v>
@@ -7443,7 +7460,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>571</v>
@@ -7484,7 +7501,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>571</v>
@@ -7528,7 +7545,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>571</v>
@@ -7569,7 +7586,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>571</v>
@@ -7610,7 +7627,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>571</v>
@@ -7649,7 +7666,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>571</v>
@@ -7687,7 +7704,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>571</v>
@@ -7725,7 +7742,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>571</v>
@@ -7763,7 +7780,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>571</v>
@@ -7798,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>571</v>
@@ -7839,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>571</v>
@@ -8018,7 +8035,7 @@
         <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>535</v>
@@ -8053,7 +8070,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -8074,7 +8091,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="O2" s="33"/>
     </row>
@@ -8083,13 +8100,13 @@
         <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -8110,10 +8127,10 @@
         <v>25</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -8127,7 +8144,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -8159,7 +8176,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -8195,7 +8212,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -8227,7 +8244,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -8259,7 +8276,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -8291,7 +8308,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -8326,7 +8343,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -8362,7 +8379,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -8397,7 +8414,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -8453,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547949FE-1284-41CA-BCEC-F84FA9C871D7}">
   <dimension ref="A1:BN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8552,7 +8569,7 @@
         <v>1125</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>137</v>
@@ -8585,7 +8602,7 @@
         <v>144</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>799</v>
@@ -8594,7 +8611,7 @@
         <v>1283</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>150</v>
@@ -8627,16 +8644,16 @@
         <v>81</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1392</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>69</v>
@@ -8699,7 +8716,7 @@
         <v>1246</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
@@ -8713,7 +8730,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -8745,7 +8762,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -8807,7 +8824,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -8857,7 +8874,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -8915,7 +8932,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -8953,7 +8970,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -9034,7 +9051,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -9086,7 +9103,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -9143,7 +9160,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -9164,7 +9181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1038</v>
       </c>
@@ -9175,7 +9192,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -9203,11 +9220,11 @@
       <c r="N11" s="59"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
-      <c r="BN11" s="11" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BN11" s="108" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1040</v>
       </c>
@@ -9218,7 +9235,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -9246,11 +9263,11 @@
       <c r="N12" s="59"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
-      <c r="BN12" s="11" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BN12" s="108" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1041</v>
       </c>
@@ -9261,7 +9278,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -9289,8 +9306,11 @@
       <c r="N13" s="59"/>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BN13" s="108" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1042</v>
       </c>
@@ -9301,7 +9321,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -9329,8 +9349,11 @@
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BN14" s="108" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1043</v>
       </c>
@@ -9341,7 +9364,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -9369,6 +9392,9 @@
       <c r="N15" s="59"/>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
+      <c r="BN15" s="108" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="16" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9381,7 +9407,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -9408,10 +9434,10 @@
       <c r="M16" s="105" t="s">
         <v>1119</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="111" t="s">
         <v>1120</v>
       </c>
-      <c r="O16" s="59" t="s">
+      <c r="O16" s="111" t="s">
         <v>1126</v>
       </c>
       <c r="P16" s="59"/>
@@ -9436,7 +9462,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -9463,10 +9489,10 @@
       <c r="M17" s="105" t="s">
         <v>1119</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="111" t="s">
         <v>1121</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="108" t="s">
         <v>381</v>
       </c>
       <c r="P17" s="11"/>
@@ -9491,7 +9517,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -9518,11 +9544,11 @@
       <c r="M18" s="105" t="s">
         <v>1119</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="108" t="s">
         <v>1123</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>1127</v>
+      <c r="O18" s="108" t="s">
+        <v>1447</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="5" t="s">
@@ -9546,7 +9572,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>571</v>
@@ -9573,10 +9599,10 @@
       <c r="M19" s="105" t="s">
         <v>1119</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="108" t="s">
         <v>1122</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="108" t="s">
         <v>1128</v>
       </c>
       <c r="P19" s="11"/>
@@ -9601,7 +9627,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>571</v>
@@ -9624,10 +9650,10 @@
       <c r="K20" s="59"/>
       <c r="L20" s="105"/>
       <c r="M20" s="105"/>
-      <c r="N20" s="59" t="s">
+      <c r="N20" s="111" t="s">
         <v>1120</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="108" t="s">
         <v>1126</v>
       </c>
       <c r="P20" s="11"/>
@@ -9652,7 +9678,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
@@ -9675,10 +9701,10 @@
       <c r="K21" s="59"/>
       <c r="L21" s="105"/>
       <c r="M21" s="105"/>
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="111" t="s">
         <v>1121</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="108" t="s">
         <v>381</v>
       </c>
       <c r="P21" s="11"/>
@@ -9703,7 +9729,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>571</v>
@@ -9726,11 +9752,11 @@
       <c r="K22" s="59"/>
       <c r="L22" s="105"/>
       <c r="M22" s="105"/>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="108" t="s">
         <v>1123</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>1127</v>
+      <c r="O22" s="108" t="s">
+        <v>1447</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="5" t="s">
@@ -9754,7 +9780,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>571</v>
@@ -9777,10 +9803,10 @@
       <c r="K23" s="59"/>
       <c r="L23" s="105"/>
       <c r="M23" s="105"/>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="108" t="s">
         <v>1122</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="108" t="s">
         <v>1128</v>
       </c>
       <c r="P23" s="11"/>
@@ -9805,7 +9831,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>571</v>
@@ -9837,7 +9863,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>571</v>
@@ -9886,7 +9912,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>571</v>
@@ -9910,7 +9936,7 @@
         <v>22</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AO26">
@@ -9928,7 +9954,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>571</v>
@@ -9949,7 +9975,7 @@
         <v>25</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AN27" s="35" t="s">
@@ -9967,7 +9993,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>571</v>
@@ -9988,11 +10014,11 @@
         <v>25</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AN28" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AO28">
         <v>0.01</v>
@@ -10009,7 +10035,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>571</v>
@@ -10030,11 +10056,11 @@
         <v>25</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AN29" s="108" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AO29">
         <v>100</v>
@@ -10051,7 +10077,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>571</v>
@@ -10075,7 +10101,7 @@
         <v>1254</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="BG30" s="35"/>
@@ -10091,7 +10117,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>571</v>
@@ -10121,10 +10147,10 @@
         <v>122105278</v>
       </c>
       <c r="AR31" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="AS31" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="BG31" s="35"/>
     </row>
@@ -10139,7 +10165,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>571</v>
@@ -10176,7 +10202,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>571</v>
@@ -10211,7 +10237,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>571</v>
@@ -10249,7 +10275,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>571</v>
@@ -10270,7 +10296,7 @@
         <v>25</v>
       </c>
       <c r="AN35" s="108" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AO35">
         <v>100</v>
@@ -10287,7 +10313,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>571</v>
@@ -10309,7 +10335,7 @@
       </c>
       <c r="U36" s="25"/>
       <c r="AE36" s="5" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BG36" s="35"/>
     </row>
@@ -10324,7 +10350,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>571</v>
@@ -10367,10 +10393,10 @@
       </c>
       <c r="U37" s="25"/>
       <c r="AB37" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AC37" t="s">
         <v>1365</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1366</v>
       </c>
       <c r="AX37" t="s">
         <v>86</v>
@@ -10400,7 +10426,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>571</v>
@@ -10472,7 +10498,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>571</v>
@@ -10514,7 +10540,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>571</v>
@@ -10540,8 +10566,8 @@
       <c r="N40" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="O40" s="11" t="s">
-        <v>1127</v>
+      <c r="O40" t="s">
+        <v>1447</v>
       </c>
       <c r="P40" s="11"/>
     </row>
@@ -10556,7 +10582,7 @@
         <v>22</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>571</v>
@@ -10597,7 +10623,7 @@
         <v>22</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>571</v>
@@ -10624,7 +10650,7 @@
         <v>1123</v>
       </c>
       <c r="O42" t="s">
-        <v>1127</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
@@ -10638,7 +10664,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>571</v>
@@ -10680,7 +10706,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>571</v>
@@ -10721,7 +10747,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>571</v>
@@ -10765,7 +10791,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>571</v>
@@ -10809,7 +10835,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>571</v>
@@ -10844,7 +10870,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>571</v>
@@ -10882,7 +10908,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>571</v>
@@ -10920,7 +10946,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>571</v>
@@ -10964,7 +10990,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>571</v>
@@ -11011,7 +11037,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>571</v>
@@ -11062,7 +11088,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>571</v>
@@ -11104,7 +11130,7 @@
         <v>30</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>571</v>
@@ -11148,7 +11174,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>571</v>
@@ -11314,16 +11340,16 @@
         <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1392</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>1283</v>
@@ -11370,7 +11396,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -11400,7 +11426,7 @@
         <v>1229</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="U2" t="s">
         <v>184</v>
@@ -11420,7 +11446,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -11453,7 +11479,7 @@
         <v>311</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="U3" t="s">
         <v>184</v>
@@ -11473,7 +11499,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -11506,13 +11532,13 @@
         <v>435</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="U4" t="s">
         <v>184</v>
       </c>
       <c r="AB4" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -11526,7 +11552,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -11556,7 +11582,7 @@
         <v>1229</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="U5" t="s">
         <v>184</v>
@@ -11573,7 +11599,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -11609,10 +11635,10 @@
         <v>122105278</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S6" s="5"/>
     </row>
@@ -11627,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -11660,7 +11686,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="U7" t="s">
         <v>184</v>
@@ -11680,7 +11706,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -11710,7 +11736,7 @@
         <v>1229</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="Z8" s="33" t="s">
         <v>323</v>
@@ -11906,7 +11932,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -11927,7 +11953,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>488</v>
@@ -11945,7 +11971,7 @@
         <v>489</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>232</v>
@@ -12007,7 +12033,7 @@
         <v>488</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -12028,7 +12054,7 @@
         <v>490</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>232</v>
@@ -12122,7 +12148,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -12143,7 +12169,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>488</v>
@@ -12169,7 +12195,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -12190,7 +12216,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>488</v>
@@ -12225,7 +12251,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -12246,7 +12272,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L7" s="25" t="s">
         <v>488</v>
@@ -12275,7 +12301,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -12296,7 +12322,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>488</v>
@@ -12325,7 +12351,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -12346,7 +12372,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L9" s="25" t="s">
         <v>488</v>
@@ -12381,7 +12407,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -12402,7 +12428,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L10" s="25" t="s">
         <v>488</v>
@@ -12437,7 +12463,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -12458,7 +12484,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L11" s="25" t="s">
         <v>488</v>
@@ -12493,7 +12519,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -12514,7 +12540,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>488</v>
@@ -12543,7 +12569,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -12564,7 +12590,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L13" s="25" t="s">
         <v>488</v>
@@ -12593,7 +12619,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -12614,7 +12640,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L14" s="25" t="s">
         <v>488</v>
@@ -12640,7 +12666,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -12661,7 +12687,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>488</v>
@@ -12684,7 +12710,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -12705,7 +12731,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L16" s="25" t="s">
         <v>488</v>
@@ -12728,7 +12754,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -12749,7 +12775,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L17" s="25" t="s">
         <v>488</v>
@@ -12772,7 +12798,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -12793,7 +12819,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L18" s="25" t="s">
         <v>488</v>
@@ -12816,7 +12842,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>571</v>
@@ -12866,7 +12892,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>571</v>
@@ -12916,7 +12942,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
@@ -12963,7 +12989,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>571</v>
@@ -13013,7 +13039,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>571</v>
@@ -13063,7 +13089,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>571</v>
@@ -13113,7 +13139,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>571</v>
@@ -13163,7 +13189,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>571</v>
@@ -13213,7 +13239,7 @@
         <v>107</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>571</v>
@@ -13263,7 +13289,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>571</v>
@@ -13313,7 +13339,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>571</v>
@@ -13375,7 +13401,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>571</v>
@@ -13434,7 +13460,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>571</v>
@@ -13493,7 +13519,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>571</v>
@@ -13552,7 +13578,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>571</v>
@@ -13611,7 +13637,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>571</v>
@@ -13646,7 +13672,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>571</v>
@@ -13681,7 +13707,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>571</v>
@@ -13725,7 +13751,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>571</v>
@@ -13766,7 +13792,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>571</v>
@@ -13804,7 +13830,7 @@
         <v>22</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>571</v>
@@ -13839,7 +13865,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>571</v>
@@ -14063,7 +14089,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -14105,7 +14131,7 @@
         <v>294</v>
       </c>
       <c r="R2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>908</v>
@@ -14122,7 +14148,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -14178,7 +14204,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -14231,7 +14257,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -14255,7 +14281,7 @@
         <v>291</v>
       </c>
       <c r="R5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T5" t="s">
         <v>301</v>
@@ -14275,7 +14301,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -14302,7 +14328,7 @@
         <v>303</v>
       </c>
       <c r="R6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T6" t="s">
         <v>304</v>
@@ -14322,7 +14348,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -14349,7 +14375,7 @@
         <v>306</v>
       </c>
       <c r="R7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T7" t="s">
         <v>307</v>
@@ -14369,7 +14395,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -14399,7 +14425,7 @@
         <v>303</v>
       </c>
       <c r="R8" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T8" t="s">
         <v>304</v>
@@ -14419,7 +14445,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -14449,7 +14475,7 @@
         <v>308</v>
       </c>
       <c r="R9" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T9" t="s">
         <v>309</v>
@@ -14466,7 +14492,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -14499,7 +14525,7 @@
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T10" t="s">
         <v>35</v>
@@ -14519,7 +14545,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -14550,7 +14576,7 @@
       </c>
       <c r="N11" s="5"/>
       <c r="R11" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>312</v>
@@ -14570,7 +14596,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -14614,7 +14640,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -14661,7 +14687,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -14708,7 +14734,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -14758,7 +14784,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -14805,7 +14831,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -14858,7 +14884,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -14949,7 +14975,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" activeCellId="1" sqref="D16 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15048,7 +15074,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -15101,7 +15127,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>175</v>
@@ -15145,7 +15171,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -15198,7 +15224,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -15249,7 +15275,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -15298,7 +15324,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -15608,7 +15634,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -15643,7 +15669,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -15678,7 +15704,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -15771,7 +15797,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -15895,7 +15921,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -15908,7 +15934,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>232</v>
@@ -15923,7 +15949,7 @@
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="16" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>571</v>
@@ -15945,7 +15971,7 @@
         <v>252</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>335</v>
@@ -16210,7 +16236,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="16" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>292</v>
@@ -16448,7 +16474,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="K14" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>292</v>
@@ -16854,7 +16880,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>232</v>
@@ -16890,7 +16916,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>232</v>
@@ -16926,7 +16952,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>232</v>
@@ -16962,7 +16988,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>232</v>
@@ -16998,7 +17024,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>232</v>
@@ -17049,14 +17075,14 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>232</v>
       </c>
       <c r="G29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>232</v>
@@ -17071,7 +17097,7 @@
         <v>570</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>571</v>
@@ -17089,7 +17115,7 @@
         <v>252</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AA29" t="s">
         <v>1324</v>
@@ -17166,16 +17192,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B32" t="s">
         <v>1412</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1413</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>232</v>
@@ -17187,7 +17213,7 @@
         <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>571</v>
@@ -17287,8 +17313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58374333-3631-4DA5-880E-890CC1BDE13B}">
   <dimension ref="A1:BM76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17530,33 +17556,33 @@
         <v>580</v>
       </c>
       <c r="BI1" s="39" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BJ1" s="39" t="s">
         <v>1388</v>
       </c>
-      <c r="BJ1" s="39" t="s">
+      <c r="BK1" s="39" t="s">
         <v>1389</v>
       </c>
-      <c r="BK1" s="39" t="s">
+      <c r="BL1" s="39" t="s">
         <v>1390</v>
       </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BM1" s="39" t="s">
         <v>1391</v>
-      </c>
-      <c r="BM1" s="39" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B2" t="s">
         <v>1378</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1379</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>571</v>
@@ -17580,7 +17606,7 @@
         <v>232</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="42" t="s">
@@ -17614,7 +17640,7 @@
         <v>874</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Y2" s="40" t="s">
         <v>636</v>
@@ -17673,7 +17699,7 @@
         <v>695</v>
       </c>
       <c r="AX2" s="12" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="AY2" t="s">
         <v>867</v>
@@ -17708,17 +17734,17 @@
       <c r="BI2" t="s">
         <v>634</v>
       </c>
-      <c r="BJ2" s="25">
-        <v>122105278</v>
-      </c>
-      <c r="BK2" s="25">
-        <v>122105278</v>
+      <c r="BJ2" s="118" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BK2" s="118" t="s">
+        <v>1445</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="100.8" x14ac:dyDescent="0.3">
@@ -17732,7 +17758,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>571</v>
@@ -17842,7 +17868,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>571</v>
@@ -17948,7 +17974,7 @@
         <v>360</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>571</v>
@@ -18056,7 +18082,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>571</v>
@@ -18164,7 +18190,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>571</v>
@@ -18270,7 +18296,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>571</v>
@@ -18312,7 +18338,7 @@
         <v>634</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>874</v>
@@ -18378,7 +18404,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>571</v>
@@ -18484,7 +18510,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>571</v>
@@ -18592,7 +18618,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>571</v>
@@ -18698,7 +18724,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>571</v>
@@ -18806,7 +18832,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>571</v>
@@ -18912,7 +18938,7 @@
         <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>571</v>
@@ -19020,7 +19046,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>571</v>
@@ -19128,7 +19154,7 @@
         <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>571</v>
@@ -19234,7 +19260,7 @@
         <v>365</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>571</v>
@@ -19340,7 +19366,7 @@
         <v>368</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>571</v>
@@ -19448,7 +19474,7 @@
         <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>571</v>
@@ -19556,7 +19582,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>571</v>
@@ -19664,7 +19690,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>571</v>
@@ -19766,7 +19792,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>571</v>
@@ -19876,7 +19902,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>571</v>
@@ -19966,7 +19992,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>571</v>
@@ -20076,7 +20102,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>571</v>
@@ -20187,10 +20213,10 @@
         <v>700</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>571</v>
@@ -20306,7 +20332,7 @@
         <v>777</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>571</v>
@@ -20422,7 +20448,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>571</v>
@@ -20536,7 +20562,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>571</v>
@@ -20652,7 +20678,7 @@
         <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>571</v>
@@ -20768,7 +20794,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>571</v>
@@ -20884,7 +20910,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>571</v>
@@ -20998,7 +21024,7 @@
         <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>571</v>
@@ -21114,7 +21140,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>571</v>
@@ -21228,7 +21254,7 @@
         <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>571</v>
@@ -21342,7 +21368,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>571</v>
@@ -21456,7 +21482,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>571</v>
@@ -21570,7 +21596,7 @@
         <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>571</v>
@@ -21686,7 +21712,7 @@
         <v>365</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>571</v>
@@ -21802,7 +21828,7 @@
         <v>368</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>571</v>
@@ -21916,7 +21942,7 @@
         <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>571</v>
@@ -22030,7 +22056,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>571</v>
@@ -22144,7 +22170,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>571</v>
@@ -22258,7 +22284,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>571</v>
@@ -22372,7 +22398,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>571</v>
@@ -22478,7 +22504,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>571</v>
@@ -22559,7 +22585,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>571</v>
@@ -22640,7 +22666,7 @@
         <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>571</v>
@@ -22721,7 +22747,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>571</v>
@@ -22749,7 +22775,7 @@
         <v>25</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Y49" t="s">
         <v>724</v>
@@ -22802,7 +22828,7 @@
         <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>571</v>
@@ -22881,7 +22907,7 @@
         <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>571</v>
@@ -22962,7 +22988,7 @@
         <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>571</v>
@@ -23043,7 +23069,7 @@
         <v>120</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>571</v>
@@ -23124,7 +23150,7 @@
         <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>571</v>
@@ -23188,7 +23214,7 @@
         <v>743</v>
       </c>
       <c r="AZ54" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="BA54" s="5" t="s">
         <v>731</v>
@@ -23205,7 +23231,7 @@
         <v>103</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>571</v>
@@ -23283,7 +23309,7 @@
         <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>571</v>
@@ -23361,7 +23387,7 @@
         <v>365</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>571</v>
@@ -23439,7 +23465,7 @@
         <v>368</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>571</v>
@@ -23517,7 +23543,7 @@
         <v>116</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>571</v>
@@ -23596,7 +23622,7 @@
         <v>105</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>571</v>
@@ -23674,7 +23700,7 @@
         <v>373</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>571</v>
@@ -23752,7 +23778,7 @@
         <v>360</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>571</v>
@@ -23830,7 +23856,7 @@
         <v>777</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>571</v>
@@ -23909,7 +23935,7 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>571</v>
@@ -23981,7 +24007,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>571</v>
@@ -24081,7 +24107,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>571</v>
@@ -24135,7 +24161,7 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>571</v>
@@ -24180,7 +24206,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>571</v>
@@ -24222,7 +24248,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>571</v>
@@ -24264,7 +24290,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>571</v>
@@ -24306,7 +24332,7 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>571</v>
@@ -24392,7 +24418,7 @@
         <v>973</v>
       </c>
       <c r="B73" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>22</v>
@@ -24714,7 +24740,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -24758,7 +24784,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -24796,7 +24822,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -24831,7 +24857,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -24875,7 +24901,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -24913,7 +24939,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -24954,7 +24980,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -24992,7 +25018,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -25033,7 +25059,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -25054,7 +25080,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="117" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -25068,7 +25094,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>571</v>
@@ -25254,7 +25280,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -25289,7 +25315,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="V2" s="112" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="W2" t="s">
         <v>184</v>
@@ -25312,7 +25338,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -25333,7 +25359,7 @@
         <v>25</v>
       </c>
       <c r="V3" s="112" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Z3" t="s">
         <v>323</v>
@@ -25356,7 +25382,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -25384,7 +25410,7 @@
       </c>
       <c r="M4" s="5"/>
       <c r="V4" s="112" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AA4" t="s">
         <v>324</v>
@@ -25401,7 +25427,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -25438,7 +25464,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="V5" s="112" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>185</v>
@@ -25455,7 +25481,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -25492,10 +25518,10 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="V6" s="112" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="AA6" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
@@ -25509,7 +25535,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -25693,8 +25719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50470925-EDAD-44CC-A96C-FD71ACD42249}">
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25862,7 +25888,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -25930,7 +25956,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
@@ -25971,8 +25997,8 @@
       <c r="Q3" t="s">
         <v>384</v>
       </c>
-      <c r="T3" s="33" t="s">
-        <v>1417</v>
+      <c r="T3" s="119" t="s">
+        <v>1243</v>
       </c>
       <c r="X3" t="s">
         <v>386</v>
@@ -25992,7 +26018,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>571</v>
@@ -26051,7 +26077,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>571</v>
@@ -26090,7 +26116,7 @@
         <v>384</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="X5" t="s">
         <v>386</v>
@@ -26110,7 +26136,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>571</v>
@@ -26169,7 +26195,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>571</v>
@@ -26243,7 +26269,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>571</v>
@@ -26273,7 +26299,7 @@
         <v>386</v>
       </c>
       <c r="Y8" s="114" t="s">
-        <v>1362</v>
+        <v>828</v>
       </c>
       <c r="AA8" t="s">
         <v>991</v>
@@ -26317,7 +26343,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -26347,7 +26373,7 @@
         <v>386</v>
       </c>
       <c r="Y9" s="114" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="250.8" x14ac:dyDescent="0.25">
@@ -26361,7 +26387,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -26398,7 +26424,7 @@
         <v>408</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AF10" s="18" t="s">
         <v>410</v>
@@ -26430,7 +26456,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -26486,7 +26512,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -26545,7 +26571,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -26610,7 +26636,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -26666,7 +26692,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -26725,7 +26751,7 @@
         <v>110</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -26793,7 +26819,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -26868,7 +26894,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -26943,7 +26969,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>571</v>
@@ -27002,7 +27028,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>571</v>
@@ -27061,7 +27087,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
@@ -27120,7 +27146,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>571</v>
@@ -27179,7 +27205,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>571</v>
@@ -27262,7 +27288,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>571</v>
@@ -27345,7 +27371,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>571</v>
@@ -27428,7 +27454,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>571</v>
@@ -27508,7 +27534,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>571</v>
@@ -27588,7 +27614,7 @@
         <v>107</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>571</v>
@@ -27668,7 +27694,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>571</v>
@@ -27748,7 +27774,7 @@
         <v>113</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>571</v>
@@ -27828,7 +27854,7 @@
         <v>120</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>571</v>
@@ -27908,7 +27934,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>571</v>
@@ -27988,7 +28014,7 @@
         <v>103</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>571</v>
@@ -28068,7 +28094,7 @@
         <v>129</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>571</v>
@@ -28148,7 +28174,7 @@
         <v>365</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>571</v>
@@ -28238,8 +28264,8 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S21" sqref="S21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28345,7 +28371,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>571</v>
@@ -28413,7 +28439,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
@@ -28481,7 +28507,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
@@ -28578,7 +28604,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>571</v>
@@ -28616,7 +28642,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>571</v>
@@ -28648,7 +28674,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>571</v>
@@ -28680,7 +28706,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>571</v>
@@ -28712,7 +28738,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>571</v>
@@ -28744,7 +28770,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>571</v>
@@ -28807,7 +28833,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
@@ -28839,7 +28865,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>571</v>
@@ -28868,7 +28894,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>571</v>
@@ -28897,7 +28923,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>571</v>
@@ -28926,7 +28952,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>571</v>
@@ -28958,7 +28984,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
@@ -29229,7 +29255,7 @@
         <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -29443,7 +29469,7 @@
         <v>231</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="N9" t="s">
         <v>576</v>
@@ -29500,7 +29526,7 @@
         <v>28</v>
       </c>
       <c r="U10" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -29539,7 +29565,7 @@
         <v>28</v>
       </c>
       <c r="U11" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -29578,7 +29604,7 @@
         <v>28</v>
       </c>
       <c r="U12" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -29617,7 +29643,7 @@
         <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="39.6" x14ac:dyDescent="0.25">
@@ -29683,7 +29709,7 @@
         <v>231</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>292</v>
@@ -29692,7 +29718,7 @@
         <v>334</v>
       </c>
       <c r="U16" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
@@ -29855,7 +29881,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>571</v>
@@ -29893,7 +29919,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>571</v>
@@ -29963,7 +29989,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>571</v>
@@ -30004,7 +30030,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>571</v>
@@ -30048,7 +30074,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>571</v>
@@ -30093,7 +30119,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>571</v>
@@ -30137,7 +30163,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>571</v>
@@ -30184,7 +30210,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>571</v>
@@ -30228,7 +30254,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>571</v>
@@ -30272,7 +30298,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>571</v>
@@ -30319,7 +30345,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>571</v>
@@ -30364,7 +30390,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>571</v>
@@ -30405,7 +30431,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>571</v>
@@ -30446,7 +30472,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>571</v>
@@ -30490,7 +30516,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>571</v>
@@ -30534,7 +30560,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>571</v>
@@ -30581,7 +30607,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>571</v>
@@ -30625,7 +30651,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>571</v>
@@ -30669,7 +30695,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>571</v>
@@ -30713,7 +30739,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>571</v>
@@ -30760,7 +30786,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>571</v>
@@ -30804,7 +30830,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="110" t="s">
         <v>571</v>
@@ -30847,7 +30873,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="110" t="s">
         <v>571</v>
@@ -30891,7 +30917,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="110" t="s">
         <v>571</v>
@@ -30935,7 +30961,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="110" t="s">
         <v>571</v>
@@ -30976,7 +31002,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="110" t="s">
         <v>571</v>
@@ -31017,7 +31043,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="110" t="s">
         <v>571</v>
@@ -31058,7 +31084,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="110" t="s">
         <v>571</v>
@@ -31100,7 +31126,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="110" t="s">
         <v>571</v>
@@ -31141,7 +31167,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="110" t="s">
         <v>571</v>
@@ -31182,7 +31208,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="110" t="s">
         <v>571</v>
@@ -31223,7 +31249,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="110" t="s">
         <v>571</v>
@@ -31264,7 +31290,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="110" t="s">
         <v>571</v>
@@ -31305,7 +31331,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="110" t="s">
         <v>571</v>
@@ -31343,7 +31369,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E36" s="110" t="s">
         <v>571</v>
@@ -31370,7 +31396,7 @@
         <v>934</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -31426,7 +31452,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31611,7 +31637,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="98" t="s">
         <v>571</v>
@@ -31641,10 +31667,10 @@
       <c r="P4" s="100"/>
       <c r="Q4" s="100"/>
       <c r="T4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="U4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>1266</v>
@@ -31664,7 +31690,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="98" t="s">
         <v>571</v>
@@ -31705,7 +31731,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="98" t="s">
         <v>571</v>
@@ -31746,7 +31772,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E7" s="98" t="s">
         <v>571</v>
@@ -31782,7 +31808,7 @@
         <v>861</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="W7">
         <v>7739696581</v>
@@ -31799,7 +31825,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>571</v>
@@ -31831,7 +31857,7 @@
     </row>
     <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="102" t="s">
         <v>1002</v>
@@ -31840,7 +31866,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="98" t="s">
         <v>571</v>
@@ -31864,7 +31890,7 @@
         <v>911</v>
       </c>
       <c r="L9" s="100" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="M9" s="100"/>
       <c r="N9" s="100"/>
@@ -31874,7 +31900,7 @@
     </row>
     <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="101" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B10" s="102" t="s">
         <v>1003</v>
@@ -31883,7 +31909,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="98" t="s">
         <v>571</v>
@@ -31907,7 +31933,7 @@
         <v>911</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="M10" s="100"/>
       <c r="N10" s="100"/>
@@ -31917,7 +31943,7 @@
     </row>
     <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="101" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B11" s="102" t="s">
         <v>1004</v>
@@ -31926,7 +31952,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="98" t="s">
         <v>571</v>
@@ -31960,7 +31986,7 @@
     </row>
     <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="101" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B12" s="102" t="s">
         <v>1005</v>
@@ -31969,7 +31995,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="98" t="s">
         <v>571</v>
@@ -31993,7 +32019,7 @@
         <v>911</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="M12" s="100"/>
       <c r="N12" s="100"/>
@@ -32003,7 +32029,7 @@
     </row>
     <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="101" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B13" s="102" t="s">
         <v>1006</v>
@@ -32012,7 +32038,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="98" t="s">
         <v>571</v>
@@ -32036,7 +32062,7 @@
         <v>911</v>
       </c>
       <c r="L13" s="100" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="M13" s="100"/>
       <c r="N13" s="100"/>
@@ -32046,7 +32072,7 @@
     </row>
     <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="101" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B14" s="102" t="s">
         <v>1007</v>
@@ -32055,7 +32081,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="98" t="s">
         <v>571</v>
@@ -32098,7 +32124,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="98" t="s">
         <v>571</v>
@@ -32151,7 +32177,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="98" t="s">
         <v>571</v>
@@ -32204,7 +32230,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="98" t="s">
         <v>571</v>
@@ -32256,7 +32282,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="98" t="s">
         <v>571</v>
@@ -32310,7 +32336,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="98" t="s">
         <v>571</v>
@@ -32362,7 +32388,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="98" t="s">
         <v>571</v>
@@ -32418,7 +32444,7 @@
         <v>110</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="98" t="s">
         <v>571</v>
@@ -32470,7 +32496,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="98" t="s">
         <v>571</v>
@@ -32524,7 +32550,7 @@
         <v>120</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="98" t="s">
         <v>571</v>
@@ -32578,7 +32604,7 @@
         <v>123</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="98" t="s">
         <v>571</v>
@@ -32623,7 +32649,7 @@
         <v>129</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="98" t="s">
         <v>571</v>
@@ -32671,7 +32697,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>571</v>
@@ -32714,7 +32740,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>1349</v>
       </c>
@@ -32725,7 +32751,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="98" t="s">
         <v>571</v>
@@ -32746,8 +32772,8 @@
         <v>25</v>
       </c>
       <c r="L27" s="33"/>
-      <c r="P27" t="s">
-        <v>1351</v>
+      <c r="P27" s="12" t="s">
+        <v>1448</v>
       </c>
       <c r="Q27" s="33" t="s">
         <v>41</v>
@@ -32759,7 +32785,7 @@
         <v>991</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="W27">
         <v>7739696581</v>
@@ -32767,16 +32793,16 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="101" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B28" t="s">
         <v>1358</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1359</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="98" t="s">
         <v>571</v>
@@ -32805,16 +32831,16 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B29" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="98" t="s">
         <v>571</v>
@@ -32846,16 +32872,16 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B30" t="s">
         <v>1370</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1371</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="98" t="s">
         <v>571</v>
@@ -32879,7 +32905,7 @@
         <v>911</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="S30" t="s">
         <v>933</v>
@@ -32887,7 +32913,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B31" t="s">
         <v>1002</v>
@@ -32896,7 +32922,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="98" t="s">
         <v>571</v>
@@ -32920,7 +32946,7 @@
         <v>911</v>
       </c>
       <c r="L31" s="99" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
   </sheetData>
@@ -33083,7 +33109,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -33095,7 +33121,7 @@
         <v>252</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>232</v>
@@ -33217,7 +33243,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -33232,7 +33258,7 @@
         <v>252</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>469</v>
@@ -33255,7 +33281,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -33267,7 +33293,7 @@
         <v>252</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>471</v>
@@ -33284,7 +33310,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -33299,7 +33325,7 @@
         <v>252</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>232</v>
@@ -33323,7 +33349,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" t="s">
         <v>475</v>
@@ -33338,7 +33364,7 @@
         <v>252</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>232</v>
@@ -33361,7 +33387,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" t="s">
         <v>483</v>
@@ -33376,7 +33402,7 @@
         <v>252</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>232</v>
@@ -33402,7 +33428,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" t="s">
         <v>478</v>
@@ -33417,7 +33443,7 @@
         <v>252</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>232</v>
@@ -33443,7 +33469,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" t="s">
         <v>480</v>
@@ -33458,7 +33484,7 @@
         <v>252</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>232</v>
@@ -33484,7 +33510,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -33532,7 +33558,7 @@
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33629,7 +33655,7 @@
         <v>1282</v>
       </c>
       <c r="Q1" s="60" t="s">
-        <v>806</v>
+        <v>1439</v>
       </c>
       <c r="R1" s="62" t="s">
         <v>69</v>
@@ -33683,22 +33709,22 @@
         <v>799</v>
       </c>
       <c r="AI1" s="62" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AJ1" s="62" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AK1" s="62" t="s">
         <v>1388</v>
       </c>
-      <c r="AK1" s="62" t="s">
+      <c r="AL1" s="62" t="s">
         <v>1389</v>
       </c>
-      <c r="AL1" s="62" t="s">
+      <c r="AM1" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AN1" s="64" t="s">
         <v>1391</v>
-      </c>
-      <c r="AN1" s="64" t="s">
-        <v>1392</v>
       </c>
       <c r="AO1" s="64" t="s">
         <v>263</v>
@@ -33745,7 +33771,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="66" t="s">
         <v>571</v>
@@ -33829,7 +33855,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>571</v>
@@ -33911,7 +33937,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>571</v>
@@ -33993,7 +34019,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="66" t="s">
         <v>571</v>
@@ -34064,9 +34090,9 @@
       <c r="AG5" s="72"/>
       <c r="AJ5" s="73"/>
     </row>
-    <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>816</v>
@@ -34075,7 +34101,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>571</v>
@@ -34133,13 +34159,13 @@
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
       <c r="AG6" s="108" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AH6" t="s">
         <v>817</v>
       </c>
       <c r="AI6" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AQ6" s="109" t="s">
         <v>819</v>
@@ -34148,9 +34174,9 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>816</v>
@@ -34159,7 +34185,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>571</v>
@@ -34217,13 +34243,13 @@
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
       <c r="AG7" s="108" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AH7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="AI7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AQ7" s="109" t="s">
         <v>819</v>
@@ -34232,9 +34258,9 @@
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>816</v>
@@ -34243,7 +34269,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E8" s="66" t="s">
         <v>571</v>
@@ -34301,13 +34327,13 @@
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
       <c r="AG8" s="108" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AH8" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="AI8" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="AQ8" s="109" t="s">
         <v>819</v>
@@ -34316,9 +34342,9 @@
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>816</v>
@@ -34327,7 +34353,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="66" t="s">
         <v>571</v>
@@ -34385,13 +34411,13 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
       <c r="AG9" s="108" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="AH9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="AI9" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="AQ9" s="109" t="s">
         <v>819</v>
@@ -34411,7 +34437,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="66" t="s">
         <v>571</v>
@@ -34452,10 +34478,10 @@
         <v>122105278</v>
       </c>
       <c r="AM10" s="115" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="AN10" s="115" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="11" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
@@ -34469,7 +34495,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="66" t="s">
         <v>571</v>
@@ -34510,10 +34536,10 @@
         <v>122105278</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="12" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
@@ -34527,7 +34553,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="66" t="s">
         <v>571</v>
@@ -34568,10 +34594,10 @@
         <v>122105278</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="13" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
@@ -34585,7 +34611,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>571</v>
@@ -34626,13 +34652,13 @@
         <v>122105278</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>823</v>
       </c>
@@ -34643,7 +34669,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>571</v>
@@ -34684,10 +34710,10 @@
         <v>825</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>826</v>
       </c>
@@ -34698,7 +34724,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>571</v>
@@ -34755,7 +34781,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>571</v>
@@ -34837,7 +34863,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>571</v>
@@ -34866,7 +34892,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
       <c r="O17" s="41" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -34913,16 +34939,16 @@
     </row>
     <row r="18" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>571</v>
@@ -34953,24 +34979,24 @@
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="41" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>571</v>
@@ -35001,10 +35027,10 @@
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
       <c r="Q19" s="41" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
@@ -35018,7 +35044,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>571</v>
@@ -35106,7 +35132,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>571</v>
@@ -35194,7 +35220,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>571</v>
@@ -35282,7 +35308,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>571</v>
@@ -35367,7 +35393,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E24" s="66" t="s">
         <v>571</v>
@@ -35455,7 +35481,7 @@
         <v>373</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="66" t="s">
         <v>571</v>
@@ -35515,7 +35541,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E26" s="66" t="s">
         <v>571</v>
@@ -35597,7 +35623,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>571</v>
@@ -35682,7 +35708,7 @@
         <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="66" t="s">
         <v>571</v>
@@ -35767,7 +35793,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E29" s="66" t="s">
         <v>571</v>
@@ -35852,7 +35878,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E30" s="66" t="s">
         <v>571</v>
@@ -35937,7 +35963,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E31" s="66" t="s">
         <v>571</v>
@@ -36017,7 +36043,7 @@
         <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="66" t="s">
         <v>571</v>
@@ -36096,7 +36122,7 @@
         <v>365</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33" s="66" t="s">
         <v>571</v>
@@ -36181,7 +36207,7 @@
         <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E34" s="66" t="s">
         <v>571</v>
@@ -36266,7 +36292,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E35" s="66" t="s">
         <v>571</v>
@@ -36450,7 +36476,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>571</v>
@@ -36482,7 +36508,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="98" t="s">
         <v>571</v>
@@ -36514,7 +36540,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="98" t="s">
         <v>571</v>
@@ -36558,7 +36584,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5" s="98" t="s">
         <v>571</v>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49E9FA-C57E-4F8D-93F6-00A069CC54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DAC43-1DFB-4A38-A15C-EC797CF4A92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="1454">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -4331,18 +4331,9 @@
     <t>Manikanth (Business)</t>
   </si>
   <si>
-    <t>prajwal27@gmail.com</t>
-  </si>
-  <si>
     <t>7739686743</t>
   </si>
   <si>
-    <t>(773) 968-6743.</t>
-  </si>
-  <si>
-    <t> Generate A Printable QR Code</t>
-  </si>
-  <si>
     <t>Vishnu Pavan (Personal)</t>
   </si>
   <si>
@@ -4422,6 +4413,24 @@
   </si>
   <si>
     <t>4321</t>
+  </si>
+  <si>
+    <t>Generate A Printable QR Code</t>
+  </si>
+  <si>
+    <t>prajwal10@gmail.com.</t>
+  </si>
+  <si>
+    <t>prajwal126@gmail.com.</t>
+  </si>
+  <si>
+    <t>prajwal34@gmail.com</t>
+  </si>
+  <si>
+    <t>7739966664</t>
+  </si>
+  <si>
+    <t>(773) 996-6664.</t>
   </si>
 </sst>
 </file>
@@ -5317,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C3FE5-B281-4346-BDDC-E6F59F94662B}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5391,7 +5400,7 @@
         <v>484</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>799</v>
@@ -5412,7 +5421,7 @@
         <v>78</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -5435,7 +5444,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B2" t="s">
         <v>1300</v>
@@ -5468,7 +5477,7 @@
         <v>1301</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>437</v>
+        <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>232</v>
@@ -5479,7 +5488,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="V2" s="112" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="W2" t="s">
         <v>184</v>
@@ -5493,7 +5502,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B3" t="s">
         <v>1303</v>
@@ -5523,7 +5532,7 @@
         <v>25</v>
       </c>
       <c r="V3" s="112" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="Z3" t="s">
         <v>323</v>
@@ -5537,7 +5546,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B4" t="s">
         <v>310</v>
@@ -5574,7 +5583,7 @@
       </c>
       <c r="M4" s="5"/>
       <c r="V4" s="112" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="AA4" t="s">
         <v>324</v>
@@ -5582,7 +5591,7 @@
     </row>
     <row r="5" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B5" t="s">
         <v>327</v>
@@ -5628,7 +5637,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="V5" s="112" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>185</v>
@@ -5636,7 +5645,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B6" t="s">
         <v>1307</v>
@@ -5682,7 +5691,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="V6" s="112" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="AA6" s="33" t="s">
         <v>1415</v>
@@ -5690,7 +5699,7 @@
     </row>
     <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B7" t="s">
         <v>1262</v>
@@ -5726,7 +5735,7 @@
         <v>817</v>
       </c>
       <c r="P7" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="Q7" t="s">
         <v>430</v>
@@ -8130,7 +8139,7 @@
         <v>1419</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -8470,7 +8479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547949FE-1284-41CA-BCEC-F84FA9C871D7}">
   <dimension ref="A1:BN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
@@ -8602,7 +8611,7 @@
         <v>144</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>799</v>
@@ -8611,7 +8620,7 @@
         <v>1283</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>150</v>
@@ -8716,7 +8725,7 @@
         <v>1246</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
@@ -9221,7 +9230,7 @@
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="BN11" s="108" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
@@ -9264,7 +9273,7 @@
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="BN12" s="108" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
@@ -9307,7 +9316,7 @@
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
       <c r="BN13" s="108" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
@@ -9350,7 +9359,7 @@
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="BN14" s="108" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="15" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
@@ -9393,7 +9402,7 @@
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="BN15" s="108" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
@@ -9548,7 +9557,7 @@
         <v>1123</v>
       </c>
       <c r="O18" s="108" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="5" t="s">
@@ -9756,7 +9765,7 @@
         <v>1123</v>
       </c>
       <c r="O22" s="108" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="5" t="s">
@@ -10567,7 +10576,7 @@
         <v>1121</v>
       </c>
       <c r="O40" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="P40" s="11"/>
     </row>
@@ -10650,7 +10659,7 @@
         <v>1123</v>
       </c>
       <c r="O42" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
@@ -11769,8 +11778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46AD7FE-9435-44BD-8C0B-F250320CFCB5}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11971,7 +11980,7 @@
         <v>489</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>1410</v>
+        <v>1449</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>232</v>
@@ -12045,7 +12054,7 @@
         <v>489</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1296</v>
+        <v>1450</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>232</v>
@@ -15745,8 +15754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A69FCE-458E-4BEF-B052-6BBC1258C43C}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:P3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15921,7 +15930,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -15934,7 +15943,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>1421</v>
+        <v>1452</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>232</v>
@@ -15949,7 +15958,7 @@
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="16" t="s">
-        <v>1422</v>
+        <v>1453</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>571</v>
@@ -15971,7 +15980,7 @@
         <v>252</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>335</v>
@@ -16236,7 +16245,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="16" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>292</v>
@@ -17283,26 +17292,26 @@
     <hyperlink ref="T31" r:id="rId54" xr:uid="{A95F6B70-DF96-4800-86AC-BA104499C744}"/>
     <hyperlink ref="S15" r:id="rId55" xr:uid="{329D5A80-ABC1-4917-B34C-4E6E5C8A30A1}"/>
     <hyperlink ref="T15" r:id="rId56" xr:uid="{3504C0CF-28AD-4839-B55D-5783088AA3E9}"/>
-    <hyperlink ref="Z3" r:id="rId57" xr:uid="{522B2B68-F30B-49BA-A45B-040984FE80D9}"/>
-    <hyperlink ref="D14" r:id="rId58" xr:uid="{7845E361-B892-4DDE-A9D6-ABED08010B93}"/>
-    <hyperlink ref="D29" r:id="rId59" xr:uid="{75346E94-F316-4C84-BF93-A9E4A56C59D2}"/>
-    <hyperlink ref="S29" r:id="rId60" xr:uid="{82075648-4FB9-42B0-B3E1-AD39F7DBAD26}"/>
-    <hyperlink ref="T29" r:id="rId61" xr:uid="{3E10CFB6-044A-4446-BF59-8B64FA79F204}"/>
-    <hyperlink ref="Z29" r:id="rId62" xr:uid="{74862ED0-0D68-4AED-8070-5BFA551009C0}"/>
-    <hyperlink ref="D3" r:id="rId63" xr:uid="{7E898CD7-8787-48BC-93FF-EAF027CFF70D}"/>
-    <hyperlink ref="J24" r:id="rId64" xr:uid="{27A342CA-5BC3-4059-82E0-25ADAD4FD25F}"/>
-    <hyperlink ref="J25" r:id="rId65" xr:uid="{075FF848-9F30-4CF6-AC6B-3605F429C9A8}"/>
-    <hyperlink ref="J23" r:id="rId66" xr:uid="{CFD4DB57-C4A7-4210-827E-E5DB7D661976}"/>
-    <hyperlink ref="J26" r:id="rId67" xr:uid="{F582FBA7-C302-4E04-8123-A4ABAEABDDEF}"/>
-    <hyperlink ref="D22" r:id="rId68" xr:uid="{C2DD9395-719A-47A5-A8FE-91405C36256F}"/>
-    <hyperlink ref="J22" r:id="rId69" xr:uid="{521AF388-FF85-469A-9D9F-0C903ECD977D}"/>
-    <hyperlink ref="D32" r:id="rId70" xr:uid="{809253AF-F345-4ED6-81A5-07F10DD53444}"/>
-    <hyperlink ref="D23" r:id="rId71" xr:uid="{27C2FCA3-0A09-48BC-9962-EA45CAEB1F52}"/>
-    <hyperlink ref="D24" r:id="rId72" xr:uid="{5E7F912A-917E-41E1-8D4A-B4C9073A2D6D}"/>
-    <hyperlink ref="D25" r:id="rId73" xr:uid="{471059BA-23D1-4DD0-9BC0-568AD2FC079C}"/>
-    <hyperlink ref="D26" r:id="rId74" xr:uid="{EE61A3EB-6D04-49EA-AD08-F12A17190634}"/>
-    <hyperlink ref="D27" r:id="rId75" xr:uid="{53120FAB-5A4E-4BBF-8DA7-0729BCEC97C0}"/>
-    <hyperlink ref="J32" r:id="rId76" xr:uid="{691E4179-8829-4FE4-AF52-FBA2F7425BA3}"/>
+    <hyperlink ref="D14" r:id="rId57" xr:uid="{7845E361-B892-4DDE-A9D6-ABED08010B93}"/>
+    <hyperlink ref="D29" r:id="rId58" xr:uid="{75346E94-F316-4C84-BF93-A9E4A56C59D2}"/>
+    <hyperlink ref="S29" r:id="rId59" xr:uid="{82075648-4FB9-42B0-B3E1-AD39F7DBAD26}"/>
+    <hyperlink ref="T29" r:id="rId60" xr:uid="{3E10CFB6-044A-4446-BF59-8B64FA79F204}"/>
+    <hyperlink ref="Z29" r:id="rId61" xr:uid="{74862ED0-0D68-4AED-8070-5BFA551009C0}"/>
+    <hyperlink ref="D3" r:id="rId62" xr:uid="{7E898CD7-8787-48BC-93FF-EAF027CFF70D}"/>
+    <hyperlink ref="J24" r:id="rId63" xr:uid="{27A342CA-5BC3-4059-82E0-25ADAD4FD25F}"/>
+    <hyperlink ref="J25" r:id="rId64" xr:uid="{075FF848-9F30-4CF6-AC6B-3605F429C9A8}"/>
+    <hyperlink ref="J23" r:id="rId65" xr:uid="{CFD4DB57-C4A7-4210-827E-E5DB7D661976}"/>
+    <hyperlink ref="J26" r:id="rId66" xr:uid="{F582FBA7-C302-4E04-8123-A4ABAEABDDEF}"/>
+    <hyperlink ref="D22" r:id="rId67" xr:uid="{C2DD9395-719A-47A5-A8FE-91405C36256F}"/>
+    <hyperlink ref="J22" r:id="rId68" xr:uid="{521AF388-FF85-469A-9D9F-0C903ECD977D}"/>
+    <hyperlink ref="D32" r:id="rId69" xr:uid="{809253AF-F345-4ED6-81A5-07F10DD53444}"/>
+    <hyperlink ref="D23" r:id="rId70" xr:uid="{27C2FCA3-0A09-48BC-9962-EA45CAEB1F52}"/>
+    <hyperlink ref="D24" r:id="rId71" xr:uid="{5E7F912A-917E-41E1-8D4A-B4C9073A2D6D}"/>
+    <hyperlink ref="D25" r:id="rId72" xr:uid="{471059BA-23D1-4DD0-9BC0-568AD2FC079C}"/>
+    <hyperlink ref="D26" r:id="rId73" xr:uid="{EE61A3EB-6D04-49EA-AD08-F12A17190634}"/>
+    <hyperlink ref="D27" r:id="rId74" xr:uid="{53120FAB-5A4E-4BBF-8DA7-0729BCEC97C0}"/>
+    <hyperlink ref="J32" r:id="rId75" xr:uid="{691E4179-8829-4FE4-AF52-FBA2F7425BA3}"/>
+    <hyperlink ref="Z3" r:id="rId76" xr:uid="{17AEE65A-3F18-4EAD-B922-CFEED8919FFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId77"/>
@@ -17582,7 +17591,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>571</v>
@@ -17606,7 +17615,7 @@
         <v>232</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="42" t="s">
@@ -17735,10 +17744,10 @@
         <v>634</v>
       </c>
       <c r="BJ2" s="118" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="BK2" s="118" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="BL2" s="5" t="s">
         <v>1393</v>
@@ -24655,7 +24664,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25080,7 +25089,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="117" t="s">
-        <v>1423</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -29255,7 +29264,7 @@
         <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -29469,7 +29478,7 @@
         <v>231</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="N9" t="s">
         <v>576</v>
@@ -29526,7 +29535,7 @@
         <v>28</v>
       </c>
       <c r="U10" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -29565,7 +29574,7 @@
         <v>28</v>
       </c>
       <c r="U11" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -29604,7 +29613,7 @@
         <v>28</v>
       </c>
       <c r="U12" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -29643,7 +29652,7 @@
         <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="39.6" x14ac:dyDescent="0.25">
@@ -29709,7 +29718,7 @@
         <v>231</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>292</v>
@@ -29718,7 +29727,7 @@
         <v>334</v>
       </c>
       <c r="U16" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -32773,7 +32782,7 @@
       </c>
       <c r="L27" s="33"/>
       <c r="P27" s="12" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="Q27" s="33" t="s">
         <v>41</v>
@@ -33655,7 +33664,7 @@
         <v>1282</v>
       </c>
       <c r="Q1" s="60" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="R1" s="62" t="s">
         <v>69</v>
@@ -33709,7 +33718,7 @@
         <v>799</v>
       </c>
       <c r="AI1" s="62" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AJ1" s="62" t="s">
         <v>1387</v>
@@ -34092,7 +34101,7 @@
     </row>
     <row r="6" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>816</v>
@@ -34159,13 +34168,13 @@
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
       <c r="AG6" s="108" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AH6" t="s">
         <v>817</v>
       </c>
       <c r="AI6" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AQ6" s="109" t="s">
         <v>819</v>
@@ -34176,7 +34185,7 @@
     </row>
     <row r="7" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>816</v>
@@ -34243,13 +34252,13 @@
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
       <c r="AG7" s="108" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AH7" t="s">
         <v>1398</v>
       </c>
       <c r="AI7" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AQ7" s="109" t="s">
         <v>819</v>
@@ -34260,7 +34269,7 @@
     </row>
     <row r="8" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>816</v>
@@ -34327,13 +34336,13 @@
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
       <c r="AG8" s="108" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AH8" t="s">
         <v>1400</v>
       </c>
       <c r="AI8" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AQ8" s="109" t="s">
         <v>819</v>
@@ -34344,7 +34353,7 @@
     </row>
     <row r="9" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>816</v>
@@ -34411,13 +34420,13 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
       <c r="AG9" s="108" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AH9" t="s">
         <v>1399</v>
       </c>
       <c r="AI9" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AQ9" s="109" t="s">
         <v>819</v>
@@ -34939,10 +34948,10 @@
     </row>
     <row r="18" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>22</v>
@@ -34987,10 +34996,10 @@
     </row>
     <row r="19" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>30</v>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DAC43-1DFB-4A38-A15C-EC797CF4A92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78E67D-8E52-417D-84B3-016D71198981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8768" uniqueCount="1457">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -4427,10 +4427,19 @@
     <t>prajwal34@gmail.com</t>
   </si>
   <si>
-    <t>7739966664</t>
-  </si>
-  <si>
-    <t>(773) 996-6664.</t>
+    <t>prajwal35@gmail.com</t>
+  </si>
+  <si>
+    <t>7739996664</t>
+  </si>
+  <si>
+    <t>(773) 999-6664.</t>
+  </si>
+  <si>
+    <t>Merchant Login View</t>
+  </si>
+  <si>
+    <t>Login View</t>
   </si>
 </sst>
 </file>
@@ -15752,10 +15761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A69FCE-458E-4BEF-B052-6BBC1258C43C}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15783,10 +15792,10 @@
     <col min="28" max="28" width="21.6640625" customWidth="1"/>
     <col min="29" max="29" width="24.33203125" customWidth="1"/>
     <col min="30" max="30" width="23.88671875" customWidth="1"/>
-    <col min="31" max="31" width="17" customWidth="1"/>
+    <col min="31" max="31" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15877,8 +15886,11 @@
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>333</v>
       </c>
@@ -15919,7 +15931,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>564</v>
       </c>
@@ -15930,7 +15942,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>25</v>
@@ -15943,7 +15955,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>232</v>
@@ -15958,7 +15970,7 @@
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="16" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>571</v>
@@ -15985,8 +15997,11 @@
       <c r="AA3" s="15" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>563</v>
       </c>
@@ -16027,7 +16042,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>562</v>
       </c>
@@ -16077,7 +16092,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>562</v>
       </c>
@@ -16125,7 +16140,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>562</v>
       </c>
@@ -16174,7 +16189,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>562</v>
       </c>
@@ -16223,7 +16238,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>562</v>
       </c>
@@ -16272,7 +16287,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>562</v>
       </c>
@@ -16323,7 +16338,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>562</v>
       </c>
@@ -16369,7 +16384,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>562</v>
       </c>
@@ -16417,7 +16432,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>562</v>
       </c>
@@ -16465,7 +16480,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>562</v>
       </c>
@@ -16513,7 +16528,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>562</v>
       </c>
@@ -16561,7 +16576,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>562</v>
       </c>
@@ -28270,11 +28285,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28298,7 +28313,7 @@
     <col min="21" max="21" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28368,8 +28383,11 @@
       <c r="W1" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>566</v>
       </c>
@@ -28403,18 +28421,23 @@
       <c r="W2" s="5" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="X2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>1410</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>571</v>
       </c>
@@ -28424,33 +28447,34 @@
       <c r="G3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>567</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>571</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>232</v>
       </c>
@@ -28458,7 +28482,7 @@
         <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -28467,25 +28491,23 @@
         <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>571</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
         <v>232</v>
       </c>
@@ -28493,7 +28515,7 @@
         <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -28502,24 +28524,24 @@
         <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>571</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>232</v>
@@ -28528,7 +28550,7 @@
         <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -28537,30 +28559,33 @@
         <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>571</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>232</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>232</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -28568,87 +28593,81 @@
       <c r="P7" t="s">
         <v>28</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
         <v>40</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>41</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>571</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1410</v>
@@ -28657,10 +28676,13 @@
         <v>571</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -28668,19 +28690,22 @@
       <c r="K10" t="s">
         <v>24</v>
       </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
       <c r="Q10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>568</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1410</v>
@@ -28688,11 +28713,11 @@
       <c r="E11" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -28701,18 +28726,18 @@
         <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>568</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1410</v>
@@ -28721,10 +28746,10 @@
         <v>571</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -28733,82 +28758,85 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>568</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D14" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>565</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1295</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1266</v>
+        <v>1410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>571</v>
@@ -28819,45 +28847,42 @@
       <c r="G15" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
       <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>1295</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1410</v>
+        <v>1266</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>571</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" t="s">
         <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
       </c>
       <c r="U16" t="s">
         <v>66</v>
@@ -28868,10 +28893,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>1410</v>
@@ -28880,10 +28905,13 @@
         <v>571</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
@@ -28897,10 +28925,10 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>1410</v>
@@ -28908,11 +28936,11 @@
       <c r="E18" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -28926,10 +28954,10 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>1410</v>
@@ -28938,10 +28966,10 @@
         <v>571</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -28955,10 +28983,10 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>1410</v>
@@ -28966,17 +28994,14 @@
       <c r="E20" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>50</v>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
-      </c>
-      <c r="P20" t="s">
-        <v>28</v>
       </c>
       <c r="U20" t="s">
         <v>66</v>
@@ -28984,50 +29009,50 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1313</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>1314</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>571</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1309</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" t="s">
-        <v>24</v>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="B22" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>571</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -29036,31 +29061,28 @@
       <c r="G22" s="5" t="s">
         <v>232</v>
       </c>
+      <c r="I22" t="s">
+        <v>1309</v>
+      </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
       <c r="K22" t="s">
         <v>24</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="B23" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>571</v>
@@ -29081,6 +29103,41 @@
         <v>40</v>
       </c>
       <c r="S23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -29089,34 +29146,36 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{12A53973-E3AE-4009-9366-23908064D61C}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{309456EB-E714-4A89-A767-F6AEDB849BCC}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{12D0851D-2633-43A8-88E9-FA1D3CC832C7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{339DA112-F9B0-46AF-8E3B-25A5A8C0184D}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{8A64D2BD-6736-4E8D-8ADC-9C9453E55D4C}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{97B8E272-6DCE-49D6-A6E3-4ACA51836B61}"/>
-    <hyperlink ref="E10:E20" r:id="rId7" display="Merch@123" xr:uid="{A24AB171-D19F-4DCA-9B0C-6641B9FEE219}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{E0A9CDB6-A726-49BE-8851-3D670B37238F}"/>
-    <hyperlink ref="D21" r:id="rId9" xr:uid="{3ED8999F-51C6-472E-897D-4584321471BA}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{B0959E8B-BD2E-4D78-80BE-F0120C95CCA7}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{8E52D482-F2D6-444F-946E-D377CC3965A4}"/>
-    <hyperlink ref="E22" r:id="rId12" xr:uid="{68F84CDC-CDF8-46F6-B9DC-E2CBC3E8D0EC}"/>
-    <hyperlink ref="D23" r:id="rId13" xr:uid="{300359B8-8E98-4132-9231-F086749A6254}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{5F940F41-2E7F-4C5A-9110-13520F7300C9}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{0A15F6E2-E764-4082-BE56-B4BC4F02276D}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{E1B17445-D817-4BEE-971B-38F37B9C6F4C}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{39E772D8-9F8A-41DE-AE8A-83DDEFD6E516}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{ACA206E7-65A1-442A-A102-DA1E631E3521}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{054C6ED8-4588-4428-A288-85E5BFCF224D}"/>
-    <hyperlink ref="D9" r:id="rId20" xr:uid="{A36E7B57-1421-4721-A3AE-5B6B4EB928BE}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{8E72E435-964D-416C-B6C2-A0FFA67DBBEE}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{CD9C27A9-F1DC-4996-A247-AC4C2FB83337}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{682DAAB1-4E0B-45C5-8BFF-927F26B097C2}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{62553182-6C87-4C94-A1F9-8B490CF81A66}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{3F455AD4-D8E8-4EC7-9836-05B2DEC9F2D7}"/>
-    <hyperlink ref="D6" r:id="rId26" xr:uid="{07A62FC0-377D-4BD6-AD2B-F4743F65DD03}"/>
-    <hyperlink ref="D4" r:id="rId27" xr:uid="{05366F37-C038-4D8A-BBD5-C730EEA439C4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{12D0851D-2633-43A8-88E9-FA1D3CC832C7}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{339DA112-F9B0-46AF-8E3B-25A5A8C0184D}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{8A64D2BD-6736-4E8D-8ADC-9C9453E55D4C}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{97B8E272-6DCE-49D6-A6E3-4ACA51836B61}"/>
+    <hyperlink ref="E11:E21" r:id="rId7" display="Merch@123" xr:uid="{A24AB171-D19F-4DCA-9B0C-6641B9FEE219}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{E0A9CDB6-A726-49BE-8851-3D670B37238F}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{3ED8999F-51C6-472E-897D-4584321471BA}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{B0959E8B-BD2E-4D78-80BE-F0120C95CCA7}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{8E52D482-F2D6-444F-946E-D377CC3965A4}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{68F84CDC-CDF8-46F6-B9DC-E2CBC3E8D0EC}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{300359B8-8E98-4132-9231-F086749A6254}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{5F940F41-2E7F-4C5A-9110-13520F7300C9}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{0A15F6E2-E764-4082-BE56-B4BC4F02276D}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{E1B17445-D817-4BEE-971B-38F37B9C6F4C}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{39E772D8-9F8A-41DE-AE8A-83DDEFD6E516}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{ACA206E7-65A1-442A-A102-DA1E631E3521}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{054C6ED8-4588-4428-A288-85E5BFCF224D}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{A36E7B57-1421-4721-A3AE-5B6B4EB928BE}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{8E72E435-964D-416C-B6C2-A0FFA67DBBEE}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{CD9C27A9-F1DC-4996-A247-AC4C2FB83337}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{682DAAB1-4E0B-45C5-8BFF-927F26B097C2}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{62553182-6C87-4C94-A1F9-8B490CF81A66}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{3F455AD4-D8E8-4EC7-9836-05B2DEC9F2D7}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{07A62FC0-377D-4BD6-AD2B-F4743F65DD03}"/>
+    <hyperlink ref="D5" r:id="rId27" xr:uid="{05366F37-C038-4D8A-BBD5-C730EEA439C4}"/>
+    <hyperlink ref="D3" r:id="rId28" xr:uid="{66DF100E-6F3E-4C38-9D86-4147C6773B20}"/>
+    <hyperlink ref="E3" r:id="rId29" xr:uid="{8A03CF24-724E-42AA-B2C6-69E606A1610A}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -34099,7 +34158,7 @@
       <c r="AG5" s="72"/>
       <c r="AJ5" s="73"/>
     </row>
-    <row r="6" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34183,7 +34242,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34267,7 +34326,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34351,7 +34410,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34667,7 +34726,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>823</v>
       </c>
@@ -34722,7 +34781,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>826</v>
       </c>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78E67D-8E52-417D-84B3-016D71198981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301CEF3-73FD-4E23-AE85-EF30A4DBC89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8768" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8869" uniqueCount="1463">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -4440,6 +4440,24 @@
   </si>
   <si>
     <t>Login View</t>
+  </si>
+  <si>
+    <t>Add Cogent Account</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings SignetAccount</t>
+  </si>
+  <si>
+    <t>Verify MerchantSettings Delete Signet Account</t>
+  </si>
+  <si>
+    <t>Delete Signet Account</t>
+  </si>
+  <si>
+    <t>Add  Signet Account</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -15763,8 +15781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A69FCE-458E-4BEF-B052-6BBC1258C43C}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28287,7 +28305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -29188,7 +29206,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33082,7 +33100,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33405,6 +33423,9 @@
       <c r="M8" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="S8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -33443,6 +33464,9 @@
       <c r="L9" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="S9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -33484,6 +33508,9 @@
       <c r="M10" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33525,6 +33552,9 @@
       <c r="M11" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="S11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -33565,6 +33595,9 @@
       </c>
       <c r="M12" t="s">
         <v>481</v>
+      </c>
+      <c r="S12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -33623,10 +33656,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9BF369-EF46-4776-A5B8-F0472DEC4D29}">
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:BA39"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33641,39 +33674,40 @@
     <col min="9" max="9" width="65" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="32.88671875" customWidth="1"/>
-    <col min="12" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="24.88671875" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="57.109375" customWidth="1"/>
-    <col min="24" max="24" width="38.5546875" customWidth="1"/>
-    <col min="25" max="25" width="39.109375" customWidth="1"/>
-    <col min="26" max="26" width="27.6640625" customWidth="1"/>
-    <col min="28" max="28" width="20.88671875" customWidth="1"/>
-    <col min="29" max="29" width="18.5546875" customWidth="1"/>
-    <col min="30" max="32" width="35.6640625" customWidth="1"/>
-    <col min="33" max="33" width="32.33203125" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" customWidth="1"/>
-    <col min="36" max="36" width="40.33203125" customWidth="1"/>
-    <col min="37" max="37" width="20.5546875" customWidth="1"/>
-    <col min="38" max="40" width="21.109375" customWidth="1"/>
-    <col min="41" max="41" width="34.5546875" customWidth="1"/>
-    <col min="42" max="42" width="43" customWidth="1"/>
-    <col min="43" max="43" width="24.88671875" customWidth="1"/>
-    <col min="44" max="44" width="29.33203125" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" customWidth="1"/>
-    <col min="46" max="46" width="29.88671875" customWidth="1"/>
-    <col min="47" max="47" width="22.109375" customWidth="1"/>
-    <col min="48" max="48" width="26.109375" customWidth="1"/>
-    <col min="49" max="49" width="19.109375" customWidth="1"/>
-    <col min="50" max="50" width="14.5546875" customWidth="1"/>
-    <col min="51" max="51" width="15.109375" customWidth="1"/>
+    <col min="12" max="18" width="24" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="24.88671875" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="24" width="57.109375" customWidth="1"/>
+    <col min="25" max="25" width="38.5546875" customWidth="1"/>
+    <col min="26" max="26" width="39.109375" customWidth="1"/>
+    <col min="27" max="27" width="27.6640625" customWidth="1"/>
+    <col min="29" max="29" width="20.88671875" customWidth="1"/>
+    <col min="30" max="30" width="18.5546875" customWidth="1"/>
+    <col min="31" max="33" width="35.6640625" customWidth="1"/>
+    <col min="34" max="34" width="32.33203125" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" customWidth="1"/>
+    <col min="38" max="38" width="40.33203125" customWidth="1"/>
+    <col min="39" max="39" width="20.5546875" customWidth="1"/>
+    <col min="40" max="42" width="21.109375" customWidth="1"/>
+    <col min="43" max="43" width="34.5546875" customWidth="1"/>
+    <col min="44" max="44" width="43" customWidth="1"/>
+    <col min="45" max="45" width="24.88671875" customWidth="1"/>
+    <col min="46" max="46" width="29.33203125" customWidth="1"/>
+    <col min="47" max="47" width="20.44140625" customWidth="1"/>
+    <col min="48" max="48" width="29.88671875" customWidth="1"/>
+    <col min="49" max="49" width="22.109375" customWidth="1"/>
+    <col min="50" max="50" width="26.109375" customWidth="1"/>
+    <col min="51" max="51" width="19.109375" customWidth="1"/>
+    <col min="52" max="52" width="14.5546875" customWidth="1"/>
+    <col min="53" max="53" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -33723,112 +33757,118 @@
         <v>1282</v>
       </c>
       <c r="Q1" s="60" t="s">
+        <v>806</v>
+      </c>
+      <c r="R1" s="60" t="s">
         <v>1436</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="S1" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="T1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="U1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="V1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="W1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="X1" s="62" t="s">
         <v>1278</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="Y1" s="62" t="s">
         <v>1279</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Z1" s="62" t="s">
         <v>1280</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="AA1" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AB1" s="62" t="s">
         <v>1281</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AC1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AD1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="62" t="s">
+      <c r="AE1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="62" t="s">
+      <c r="AF1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="62" t="s">
+      <c r="AG1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AH1" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="AH1" s="63" t="s">
+      <c r="AI1" s="63" t="s">
         <v>799</v>
       </c>
-      <c r="AI1" s="62" t="s">
+      <c r="AJ1" s="63" t="s">
+        <v>800</v>
+      </c>
+      <c r="AK1" s="62" t="s">
         <v>1427</v>
       </c>
-      <c r="AJ1" s="62" t="s">
+      <c r="AL1" s="62" t="s">
         <v>1387</v>
       </c>
-      <c r="AK1" s="62" t="s">
+      <c r="AM1" s="62" t="s">
         <v>1388</v>
       </c>
-      <c r="AL1" s="62" t="s">
+      <c r="AN1" s="62" t="s">
         <v>1389</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AO1" s="64" t="s">
         <v>1390</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AP1" s="64" t="s">
         <v>1391</v>
       </c>
-      <c r="AO1" s="64" t="s">
+      <c r="AQ1" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AR1" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="AQ1" s="65" t="s">
+      <c r="AS1" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="AR1" s="65" t="s">
+      <c r="AT1" s="65" t="s">
         <v>802</v>
       </c>
-      <c r="AS1" s="62" t="s">
+      <c r="AU1" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="AT1" s="62" t="s">
+      <c r="AV1" s="62" t="s">
         <v>803</v>
       </c>
-      <c r="AU1" s="62" t="s">
+      <c r="AW1" s="62" t="s">
         <v>804</v>
       </c>
-      <c r="AV1" s="62" t="s">
+      <c r="AX1" s="62" t="s">
         <v>805</v>
       </c>
-      <c r="AW1" s="64" t="s">
+      <c r="AY1" s="64" t="s">
         <v>806</v>
       </c>
-      <c r="AX1" s="64" t="s">
+      <c r="AZ1" s="64" t="s">
         <v>807</v>
       </c>
-      <c r="AY1" s="64" t="s">
+      <c r="BA1" s="64" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>808</v>
       </c>
@@ -33870,49 +33910,50 @@
       <c r="O2" s="67"/>
       <c r="P2" s="67"/>
       <c r="Q2" s="67"/>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="U2" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="70" t="s">
+      <c r="V2" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="W2" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>813</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>814</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>397</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>219</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="72"/>
-      <c r="AJ2" s="73"/>
-    </row>
-    <row r="3" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="72"/>
+      <c r="AL2" s="73"/>
+    </row>
+    <row r="3" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>808</v>
       </c>
@@ -33954,47 +33995,48 @@
       <c r="O3" s="67"/>
       <c r="P3" s="67"/>
       <c r="Q3" s="67"/>
-      <c r="R3" s="67" t="s">
+      <c r="R3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="U3" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="70" t="s">
+      <c r="V3" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V3" s="71" t="s">
+      <c r="W3" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>813</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>814</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>397</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>219</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="72"/>
-      <c r="AJ3" s="73"/>
-    </row>
-    <row r="4" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="72"/>
+      <c r="AL3" s="73"/>
+    </row>
+    <row r="4" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>808</v>
       </c>
@@ -34036,47 +34078,48 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="67"/>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="67"/>
+      <c r="S4" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="T4" s="69" t="s">
+      <c r="U4" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="V4" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="W4" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>813</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>814</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>397</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>219</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>91</v>
       </c>
-      <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="72"/>
-      <c r="AJ4" s="73"/>
-    </row>
-    <row r="5" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="72"/>
+      <c r="AL4" s="73"/>
+    </row>
+    <row r="5" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>808</v>
       </c>
@@ -34118,52 +34161,53 @@
       <c r="O5" s="67"/>
       <c r="P5" s="67"/>
       <c r="Q5" s="67"/>
-      <c r="R5" s="67" t="s">
+      <c r="R5" s="67"/>
+      <c r="S5" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>1294</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="U5" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="V5" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V5" s="71" t="s">
+      <c r="W5" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>813</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>814</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>397</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>219</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="72"/>
-      <c r="AJ5" s="73"/>
-    </row>
-    <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="72"/>
+      <c r="AL5" s="73"/>
+    </row>
+    <row r="6" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>1433</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>816</v>
+        <v>1457</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>22</v>
@@ -34205,49 +34249,50 @@
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
       <c r="V6" s="40"/>
-      <c r="W6" t="s">
+      <c r="W6" s="40"/>
+      <c r="X6" t="s">
         <v>813</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>814</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Z6" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="AA6" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>219</v>
       </c>
-      <c r="AC6" s="95">
+      <c r="AD6" s="95">
         <v>2</v>
       </c>
-      <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
-      <c r="AG6" s="108" t="s">
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="108" t="s">
         <v>1432</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>817</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>1428</v>
       </c>
-      <c r="AQ6" s="109" t="s">
+      <c r="AS6" s="109" t="s">
         <v>819</v>
       </c>
-      <c r="AR6" s="109" t="s">
+      <c r="AT6" s="109" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>1433</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>816</v>
+        <v>1457</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>30</v>
@@ -34289,49 +34334,50 @@
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
       <c r="V7" s="40"/>
-      <c r="W7" t="s">
+      <c r="W7" s="40"/>
+      <c r="X7" t="s">
         <v>813</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>814</v>
       </c>
-      <c r="Y7" s="40" t="s">
+      <c r="Z7" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>219</v>
       </c>
-      <c r="AC7" s="95">
+      <c r="AD7" s="95">
         <v>2</v>
       </c>
-      <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
-      <c r="AG7" s="108" t="s">
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="108" t="s">
         <v>1432</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>1398</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>1429</v>
       </c>
-      <c r="AQ7" s="109" t="s">
+      <c r="AS7" s="109" t="s">
         <v>819</v>
       </c>
-      <c r="AR7" s="109" t="s">
+      <c r="AT7" s="109" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>1433</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>816</v>
+        <v>1457</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>33</v>
@@ -34373,49 +34419,50 @@
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
-      <c r="W8" t="s">
+      <c r="W8" s="40"/>
+      <c r="X8" t="s">
         <v>813</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>814</v>
       </c>
-      <c r="Y8" s="40" t="s">
+      <c r="Z8" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>219</v>
       </c>
-      <c r="AC8" s="95">
+      <c r="AD8" s="95">
         <v>2</v>
       </c>
-      <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
-      <c r="AG8" s="108" t="s">
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="108" t="s">
         <v>1432</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>1400</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>1430</v>
       </c>
-      <c r="AQ8" s="109" t="s">
+      <c r="AS8" s="109" t="s">
         <v>819</v>
       </c>
-      <c r="AR8" s="109" t="s">
+      <c r="AT8" s="109" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>1433</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>816</v>
+        <v>1457</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>37</v>
@@ -34457,51 +34504,52 @@
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
-      <c r="W9" t="s">
+      <c r="W9" s="40"/>
+      <c r="X9" t="s">
         <v>813</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>814</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Z9" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>219</v>
       </c>
-      <c r="AC9" s="95">
+      <c r="AD9" s="95">
         <v>2</v>
       </c>
-      <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
-      <c r="AG9" s="108" t="s">
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="108" t="s">
         <v>1432</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>1399</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>1431</v>
       </c>
-      <c r="AQ9" s="109" t="s">
+      <c r="AS9" s="109" t="s">
         <v>819</v>
       </c>
-      <c r="AR9" s="109" t="s">
+      <c r="AT9" s="109" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="B10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -34536,30 +34584,57 @@
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
-      <c r="AJ10" s="73" t="s">
-        <v>634</v>
-      </c>
-      <c r="AK10">
-        <v>122105278</v>
-      </c>
-      <c r="AL10">
-        <v>122105278</v>
-      </c>
-      <c r="AM10" s="115" t="s">
-        <v>1393</v>
-      </c>
-      <c r="AN10" s="115" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z10" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD10" s="95">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="108" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AS10" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT10" s="109" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="B11" t="s">
-        <v>822</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -34594,30 +34669,57 @@
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
-      <c r="AJ11" s="73" t="s">
-        <v>634</v>
-      </c>
-      <c r="AK11">
-        <v>122105278</v>
-      </c>
-      <c r="AL11">
-        <v>122105278</v>
-      </c>
-      <c r="AM11" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z11" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD11" s="95">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="108" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AS11" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT11" s="109" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="B12" t="s">
-        <v>822</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -34652,30 +34754,57 @@
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
-      <c r="AJ12" s="73" t="s">
-        <v>634</v>
-      </c>
-      <c r="AK12">
-        <v>122105278</v>
-      </c>
-      <c r="AL12">
-        <v>122105278</v>
-      </c>
-      <c r="AM12" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="AN12" s="5" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z12" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD12" s="95">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="108" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AS12" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT12" s="109" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="B13" t="s">
-        <v>822</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -34710,28 +34839,55 @@
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
-      <c r="AJ13" s="73" t="s">
-        <v>634</v>
-      </c>
-      <c r="AK13">
-        <v>122105278</v>
-      </c>
-      <c r="AL13">
-        <v>122105278</v>
-      </c>
-      <c r="AM13" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z13" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD13" s="95">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="108" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AS13" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT13" s="109" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>22</v>
@@ -34766,30 +34922,34 @@
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <v>4219</v>
-      </c>
+      <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
-      <c r="AJ14" s="73"/>
-      <c r="AO14" s="75" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP14" s="76" t="s">
-        <v>825</v>
-      </c>
-      <c r="AY14" s="5" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R14" s="40"/>
+      <c r="AL14" s="73" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM14">
+        <v>122105278</v>
+      </c>
+      <c r="AN14">
+        <v>122105278</v>
+      </c>
+      <c r="AO14" s="115" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AP14" s="115" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B15" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>1410</v>
@@ -34820,33 +34980,35 @@
       </c>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
-      <c r="O15" s="41" t="s">
-        <v>828</v>
-      </c>
+      <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
-      <c r="S15" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="AO15" s="75" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP15" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="AX15" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R15" s="40"/>
+      <c r="AL15" s="73" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM15">
+        <v>122105278</v>
+      </c>
+      <c r="AN15">
+        <v>122105278</v>
+      </c>
+      <c r="AO15" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AP15" s="5" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B16" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1410</v>
@@ -34880,55 +35042,32 @@
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
-      <c r="R16" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="T16" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="U16" s="70" t="s">
-        <v>811</v>
-      </c>
-      <c r="V16" s="71" t="s">
-        <v>812</v>
-      </c>
-      <c r="W16" t="s">
-        <v>813</v>
-      </c>
-      <c r="X16" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R16" s="40"/>
+      <c r="AL16" s="73" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM16">
+        <v>122105278</v>
+      </c>
+      <c r="AN16">
+        <v>122105278</v>
+      </c>
+      <c r="AO16" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AP16" s="5" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B17" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1410</v>
@@ -34959,60 +35098,34 @@
       </c>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="41" t="s">
-        <v>1361</v>
-      </c>
+      <c r="O17" s="40"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
-      <c r="R17" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="69" t="s">
-        <v>523</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>833</v>
-      </c>
-      <c r="V17" s="71" t="s">
-        <v>834</v>
-      </c>
-      <c r="W17" t="s">
-        <v>813</v>
-      </c>
-      <c r="X17" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>835</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AP17" s="75" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R17" s="40"/>
+      <c r="AL17" s="73" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM17">
+        <v>122105278</v>
+      </c>
+      <c r="AN17">
+        <v>122105278</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C18" s="78" t="s">
+        <v>823</v>
+      </c>
+      <c r="B18" t="s">
+        <v>824</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -35021,47 +35134,55 @@
       <c r="E18" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F18" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="79" t="s">
+      <c r="F18" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="H18" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="80" t="s">
+      <c r="H18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="J18" s="81" t="s">
+      <c r="J18" s="41" t="s">
         <v>232</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AW18" s="5" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="P18" s="40">
+        <v>4219</v>
+      </c>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="AL18" s="73"/>
+      <c r="AQ18" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR18" s="76" t="s">
+        <v>825</v>
+      </c>
+      <c r="BA18" s="5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>30</v>
+        <v>826</v>
+      </c>
+      <c r="B19" t="s">
+        <v>827</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>1410</v>
@@ -35069,46 +35190,56 @@
       <c r="E19" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F19" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="79" t="s">
+      <c r="F19" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="H19" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="80" t="s">
+      <c r="H19" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="41" t="s">
         <v>232</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="41" t="s">
+        <v>828</v>
+      </c>
       <c r="P19" s="40"/>
-      <c r="Q19" s="41" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AW19" s="5" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="T19" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="AQ19" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR19" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ19" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="78" t="s">
+        <v>830</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -35117,25 +35248,25 @@
       <c r="E20" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F20" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="82" t="s">
+      <c r="F20" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="H20" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="83" t="s">
+      <c r="H20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="41" t="s">
         <v>232</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L20" s="83" t="s">
+      <c r="L20" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="40"/>
@@ -35143,61 +35274,56 @@
       <c r="O20" s="40"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
-      <c r="R20" s="67" t="s">
+      <c r="R20" s="40"/>
+      <c r="S20" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="T20" s="69" t="s">
+      <c r="U20" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U20" s="70" t="s">
+      <c r="V20" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V20" s="71" t="s">
+      <c r="W20" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>813</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>814</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>397</v>
       </c>
-      <c r="Z20" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB20" t="s">
         <v>219</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>91</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AD20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD20" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF20" s="85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+    </row>
+    <row r="21" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>30</v>
+        <v>832</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1410</v>
@@ -35205,87 +35331,85 @@
       <c r="E21" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F21" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="82" t="s">
+      <c r="F21" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="H21" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="83" t="s">
+      <c r="H21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="J21" s="84" t="s">
+      <c r="J21" s="41" t="s">
         <v>232</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="40" t="s">
         <v>25</v>
       </c>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="O21" s="41" t="s">
+        <v>1361</v>
+      </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
-      <c r="R21" s="67" t="s">
+      <c r="R21" s="40"/>
+      <c r="S21" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S21" s="86" t="s">
-        <v>810</v>
-      </c>
-      <c r="T21" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="87">
-        <v>44641</v>
-      </c>
-      <c r="V21" s="86" t="s">
-        <v>812</v>
-      </c>
-      <c r="W21" s="88" t="s">
+      <c r="T21" s="5"/>
+      <c r="U21" s="69" t="s">
+        <v>523</v>
+      </c>
+      <c r="V21" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="W21" s="71" t="s">
+        <v>834</v>
+      </c>
+      <c r="X21" t="s">
         <v>813</v>
       </c>
-      <c r="X21" s="88" t="s">
+      <c r="Y21" t="s">
         <v>814</v>
       </c>
-      <c r="Y21" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z21" s="86" t="s">
+      <c r="Z21" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA21" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="AA21" s="88" t="s">
+      <c r="AB21" t="s">
         <v>219</v>
       </c>
-      <c r="AB21" s="88" t="s">
+      <c r="AC21" t="s">
         <v>91</v>
       </c>
-      <c r="AC21" s="86" t="s">
+      <c r="AD21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD21" s="89" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF21" s="89" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AR21" s="75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
+        <v>1434</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>1435</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1410</v>
@@ -35293,25 +35417,25 @@
       <c r="E22" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F22" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="82" t="s">
+      <c r="F22" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="79" t="s">
         <v>629</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="83" t="s">
+      <c r="H22" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="80" t="s">
         <v>630</v>
       </c>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="81" t="s">
         <v>232</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L22" s="83" t="s">
+      <c r="L22" s="80" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="40"/>
@@ -35319,61 +35443,22 @@
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
-      <c r="R22" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S22" s="86" t="s">
-        <v>810</v>
-      </c>
-      <c r="T22" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="U22" s="90" t="s">
-        <v>839</v>
-      </c>
-      <c r="V22" s="86" t="s">
-        <v>812</v>
-      </c>
-      <c r="W22" s="88" t="s">
-        <v>813</v>
-      </c>
-      <c r="X22" s="88" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y22" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z22" s="86" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA22" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB22" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC22" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD22" s="89" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF22" s="89" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R22" s="41" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AY22" s="5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
+        <v>1459</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>1460</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1410</v>
@@ -35381,84 +35466,48 @@
       <c r="E23" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="F23" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="82" t="s">
+      <c r="F23" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="79" t="s">
         <v>629</v>
       </c>
-      <c r="H23" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="83" t="s">
+      <c r="H23" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="80" t="s">
         <v>630</v>
       </c>
-      <c r="J23" s="84" t="s">
+      <c r="J23" s="81" t="s">
         <v>232</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L23" s="83" t="s">
+      <c r="L23" s="80" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S23" s="91" t="s">
-        <v>840</v>
-      </c>
-      <c r="T23" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="92" t="s">
-        <v>811</v>
-      </c>
-      <c r="W23" s="88" t="s">
-        <v>813</v>
-      </c>
-      <c r="X23" s="88" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y23" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z23" s="86" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA23" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB23" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC23" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD23" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF23" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Q23" s="41" t="s">
+        <v>1401</v>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="AY23" s="5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1410</v>
@@ -35492,61 +35541,62 @@
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="40"/>
-      <c r="R24" s="67" t="s">
+      <c r="R24" s="40"/>
+      <c r="S24" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S24" s="86" t="s">
+      <c r="T24" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="T24" s="69" t="s">
+      <c r="U24" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U24" s="92" t="s">
+      <c r="V24" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V24" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="W24" s="88" t="s">
+      <c r="W24" s="71" t="s">
+        <v>812</v>
+      </c>
+      <c r="X24" t="s">
         <v>813</v>
       </c>
-      <c r="X24" s="88" t="s">
+      <c r="Y24" t="s">
         <v>814</v>
       </c>
-      <c r="Y24" s="88" t="s">
+      <c r="Z24" t="s">
         <v>397</v>
       </c>
-      <c r="Z24" s="86" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA24" s="88" t="s">
+      <c r="AA24" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="AB24" t="s">
         <v>219</v>
       </c>
-      <c r="AB24" s="88" t="s">
+      <c r="AC24" t="s">
         <v>91</v>
       </c>
-      <c r="AC24" s="86" t="s">
+      <c r="AD24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD24" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF24" t="s">
         <v>28</v>
       </c>
-      <c r="AF24" s="89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AG24" s="85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B25" t="s">
-        <v>1332</v>
+        <v>93</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>373</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1410</v>
@@ -35575,38 +35625,67 @@
       <c r="L25" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>1333</v>
-      </c>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="40"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="5"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="89"/>
-      <c r="AF25" s="89"/>
-    </row>
-    <row r="26" spans="1:49" ht="93" x14ac:dyDescent="0.3">
+      <c r="R25" s="40"/>
+      <c r="S25" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T25" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U25" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="V25" s="87">
+        <v>44641</v>
+      </c>
+      <c r="W25" s="86" t="s">
+        <v>812</v>
+      </c>
+      <c r="X25" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y25" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z25" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA25" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB25" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC25" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD25" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE25" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="89" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B26" t="s">
-        <v>842</v>
+        <v>97</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1410</v>
@@ -35640,55 +35719,62 @@
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="40"/>
-      <c r="R26" s="67" t="s">
+      <c r="R26" s="40"/>
+      <c r="S26" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S26" s="86" t="s">
+      <c r="T26" s="86" t="s">
         <v>810</v>
       </c>
-      <c r="T26" s="69" t="s">
+      <c r="U26" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U26" s="92" t="s">
-        <v>811</v>
-      </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="90" t="s">
+        <v>839</v>
+      </c>
+      <c r="W26" s="86" t="s">
         <v>812</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>843</v>
-      </c>
       <c r="X26" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y26" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y26" s="88" t="s">
+      <c r="Z26" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z26" s="86" t="s">
+      <c r="AA26" s="86" t="s">
         <v>815</v>
       </c>
-      <c r="AA26" s="88" t="s">
+      <c r="AB26" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AB26" s="88" t="s">
+      <c r="AC26" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC26" s="86" t="s">
+      <c r="AD26" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-    </row>
-    <row r="27" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE26" s="89" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG26" s="89" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1410</v>
@@ -35722,58 +35808,59 @@
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
-      <c r="S27" s="86" t="s">
-        <v>810</v>
-      </c>
-      <c r="T27" s="69" t="s">
+      <c r="R27" s="40"/>
+      <c r="S27" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T27" s="91" t="s">
+        <v>840</v>
+      </c>
+      <c r="U27" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U27" s="70" t="s">
+      <c r="V27" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="V27" s="93" t="s">
-        <v>812</v>
-      </c>
-      <c r="W27" s="88" t="s">
+      <c r="X27" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="X27" s="88" t="s">
+      <c r="Y27" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y27" s="88" t="s">
+      <c r="Z27" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z27" s="86" t="s">
+      <c r="AA27" s="86" t="s">
         <v>815</v>
       </c>
-      <c r="AA27" s="88" t="s">
+      <c r="AB27" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AB27" s="88" t="s">
+      <c r="AC27" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="86" t="s">
+      <c r="AD27" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD27" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AE27" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF27" t="s">
         <v>28</v>
       </c>
-      <c r="AF27" s="85" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG27" s="89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1410</v>
@@ -35807,58 +35894,62 @@
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="40"/>
-      <c r="R28" s="67" t="s">
+      <c r="R28" s="40"/>
+      <c r="S28" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="T28" s="69" t="s">
+      <c r="T28" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U28" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U28" s="70" t="s">
+      <c r="V28" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="V28" s="93" t="s">
-        <v>812</v>
-      </c>
-      <c r="W28" s="88" t="s">
+      <c r="W28" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="X28" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="X28" s="88" t="s">
+      <c r="Y28" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y28" s="88" t="s">
+      <c r="Z28" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z28" s="86" t="s">
+      <c r="AA28" s="86" t="s">
         <v>815</v>
       </c>
-      <c r="AA28" s="88" t="s">
+      <c r="AB28" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AB28" s="88" t="s">
+      <c r="AC28" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="86" t="s">
+      <c r="AD28" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD28" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF28" t="s">
         <v>28</v>
       </c>
-      <c r="AF28" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG28" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>1332</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1410</v>
@@ -35887,63 +35978,39 @@
       <c r="L29" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
+      <c r="M29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>1333</v>
+      </c>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
-      <c r="R29" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S29" s="86" t="s">
-        <v>810</v>
-      </c>
-      <c r="T29" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="V29" s="93" t="s">
-        <v>812</v>
-      </c>
-      <c r="W29" s="88" t="s">
-        <v>813</v>
-      </c>
-      <c r="X29" s="88" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y29" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z29" s="86" t="s">
-        <v>815</v>
-      </c>
-      <c r="AA29" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB29" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC29" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD29" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF29" s="89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R29" s="40"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="5"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="89"/>
+      <c r="AG29" s="89"/>
+    </row>
+    <row r="30" spans="1:53" ht="93" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>842</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>1410</v>
@@ -35977,58 +36044,56 @@
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
-      <c r="R30" s="67" t="s">
+      <c r="R30" s="40"/>
+      <c r="S30" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S30" s="86" t="s">
+      <c r="T30" s="86" t="s">
         <v>810</v>
       </c>
-      <c r="T30" s="69" t="s">
+      <c r="U30" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U30" s="70" t="s">
+      <c r="V30" s="92" t="s">
         <v>811</v>
       </c>
-      <c r="V30" s="93" t="s">
+      <c r="W30" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="W30" s="88" t="s">
-        <v>813</v>
-      </c>
-      <c r="X30" s="88" t="s">
+      <c r="X30" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y30" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y30" s="88" t="s">
+      <c r="Z30" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z30" s="86" t="s">
+      <c r="AA30" s="86" t="s">
         <v>815</v>
       </c>
       <c r="AB30" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC30" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC30" s="86" t="s">
+      <c r="AD30" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD30" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF30" s="85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+    </row>
+    <row r="31" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>1410</v>
@@ -36062,53 +36127,59 @@
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
-      <c r="R31" s="67" t="s">
-        <v>991</v>
-      </c>
-      <c r="S31" s="86" t="s">
+      <c r="R31" s="40"/>
+      <c r="T31" s="86" t="s">
         <v>810</v>
       </c>
-      <c r="T31" s="69" t="s">
+      <c r="U31" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="V31" s="93"/>
-      <c r="W31" t="s">
+      <c r="V31" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="W31" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="X31" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="X31" s="88" t="s">
+      <c r="Y31" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y31" s="88" t="s">
+      <c r="Z31" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z31" s="86" t="s">
+      <c r="AA31" s="86" t="s">
         <v>815</v>
       </c>
       <c r="AB31" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC31" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC31" s="86" t="s">
+      <c r="AD31" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD31" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF31" t="s">
         <v>28</v>
       </c>
-      <c r="AF31" s="85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG31" s="85" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>1410</v>
@@ -36142,52 +36213,59 @@
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
-      <c r="R32" s="67" t="s">
+      <c r="R32" s="40"/>
+      <c r="S32" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S32" s="86" t="s">
-        <v>810</v>
-      </c>
-      <c r="T32" s="69" t="s">
+      <c r="U32" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="V32" s="93" t="s">
+      <c r="V32" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="W32" s="93" t="s">
         <v>812</v>
       </c>
       <c r="X32" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y32" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y32" s="88" t="s">
+      <c r="Z32" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="Z32" s="86" t="s">
+      <c r="AA32" s="86" t="s">
         <v>815</v>
       </c>
       <c r="AB32" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC32" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC32" s="86" t="s">
+      <c r="AD32" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD32" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AE32" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF32" t="s">
         <v>28</v>
       </c>
-      <c r="AF32" s="85" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG32" s="89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>1410</v>
@@ -36221,58 +36299,59 @@
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
-      <c r="R33" s="67" t="s">
+      <c r="R33" s="40"/>
+      <c r="S33" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S33" s="86" t="s">
+      <c r="T33" s="86" t="s">
         <v>810</v>
       </c>
-      <c r="T33" s="69" t="s">
+      <c r="U33" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U33" s="70" t="s">
-        <v>811</v>
-      </c>
-      <c r="V33" s="93" t="s">
+      <c r="W33" s="93" t="s">
         <v>812</v>
       </c>
-      <c r="W33" s="88" t="s">
+      <c r="X33" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="X33" s="88" t="s">
+      <c r="Y33" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Z33" s="86" t="s">
+      <c r="Z33" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA33" s="86" t="s">
         <v>815</v>
       </c>
-      <c r="AA33" s="88" t="s">
+      <c r="AB33" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AB33" s="88" t="s">
+      <c r="AC33" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC33" s="86" t="s">
+      <c r="AD33" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD33" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AE33" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF33" t="s">
         <v>28</v>
       </c>
-      <c r="AF33" s="85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG33" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>837</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>1410</v>
@@ -36306,58 +36385,59 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
       <c r="Q34" s="40"/>
-      <c r="R34" s="67" t="s">
+      <c r="R34" s="40"/>
+      <c r="S34" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="S34" s="86" t="s">
+      <c r="T34" s="86" t="s">
         <v>810</v>
       </c>
-      <c r="T34" s="69" t="s">
+      <c r="U34" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="U34" s="70" t="s">
+      <c r="V34" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="V34" s="93" t="s">
+      <c r="W34" s="93" t="s">
         <v>812</v>
       </c>
-      <c r="W34" s="88" t="s">
+      <c r="X34" s="88" t="s">
         <v>813</v>
       </c>
-      <c r="X34" s="88" t="s">
+      <c r="Y34" s="88" t="s">
         <v>814</v>
       </c>
-      <c r="Y34" s="88" t="s">
+      <c r="Z34" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="AA34" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB34" s="88" t="s">
+      <c r="AA34" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="AC34" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="AC34" s="86" t="s">
+      <c r="AD34" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="AD34" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AE34" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF34" t="s">
         <v>28</v>
       </c>
-      <c r="AF34" s="85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="159" x14ac:dyDescent="0.3">
+      <c r="AG34" s="85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>845</v>
+        <v>837</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1410</v>
@@ -36391,69 +36471,408 @@
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
       <c r="Q35" s="40"/>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="40"/>
+      <c r="S35" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T35" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U35" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="W35" s="93"/>
+      <c r="X35" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y35" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z35" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA35" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="AC35" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD35" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE35" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG35" s="85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J36" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T36" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U36" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="W36" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y36" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z36" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA36" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="AC36" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE36" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG36" s="85" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F37" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J37" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T37" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U37" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="V37" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="W37" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="X37" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y37" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="AA37" s="86" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB37" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC37" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD37" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE37" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG37" s="85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J38" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="T38" s="86" t="s">
+        <v>810</v>
+      </c>
+      <c r="U38" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="V38" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="W38" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="X38" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y38" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z38" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB38" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC38" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD38" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE38" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG38" s="85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="159" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F39" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J39" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="T39" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="U35" s="12" t="s">
+      <c r="V39" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="W39" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="W35" s="12" t="s">
+      <c r="X39" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="X35" s="12" t="s">
+      <c r="Y39" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="Y35" s="12" t="s">
+      <c r="Z39" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="AA35" s="12" t="s">
+      <c r="AB39" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="78" t="s">
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="78" t="s">
         <v>847</v>
       </c>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{B85BDE2B-B421-4072-BB4F-E8F2AA8BB2A0}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{F16AD78D-52E5-4B23-8594-C7F9A815CBEB}"/>
-    <hyperlink ref="E10:E35" r:id="rId3" display="Merch@123" xr:uid="{72215F82-0893-4B65-8ABF-406F35097E87}"/>
+    <hyperlink ref="E14:E39" r:id="rId3" display="Merch@123" xr:uid="{72215F82-0893-4B65-8ABF-406F35097E87}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{E8477D63-BC7D-4C7E-971F-3C3ADA32A888}"/>
     <hyperlink ref="E4" r:id="rId5" xr:uid="{C2E8DDB0-FAF8-4F6D-A925-DB4F018EBCD5}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{51514D36-C5AA-42BC-AA09-4C8498A166BF}"/>
     <hyperlink ref="E7" r:id="rId7" xr:uid="{18FB4434-ECEE-4BD4-973D-AFF8617C42D1}"/>
     <hyperlink ref="E8" r:id="rId8" xr:uid="{24D796E8-4D6D-4EE6-97D1-E2B371627D3D}"/>
     <hyperlink ref="E9" r:id="rId9" xr:uid="{9FBA4597-E641-4236-A0EC-30E8581B04FE}"/>
-    <hyperlink ref="E25" r:id="rId10" xr:uid="{2638C8E5-D285-4C57-A47F-59F998757DDD}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{E9B0D0DB-2756-48EF-8121-3BD4BA82A66C}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{751DB803-A89B-4DFD-949F-2D9CEA839732}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{EBDECAA8-197F-4D5A-8E64-EF2A4437F09D}"/>
+    <hyperlink ref="E29" r:id="rId10" xr:uid="{2638C8E5-D285-4C57-A47F-59F998757DDD}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{E9B0D0DB-2756-48EF-8121-3BD4BA82A66C}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{751DB803-A89B-4DFD-949F-2D9CEA839732}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{EBDECAA8-197F-4D5A-8E64-EF2A4437F09D}"/>
     <hyperlink ref="D2" r:id="rId14" xr:uid="{BE0FD8F5-9BBA-4970-9F75-F1FA4E82CEB2}"/>
-    <hyperlink ref="D3:D35" r:id="rId15" display="prajwal10@gmail.com" xr:uid="{348903C0-A9E0-4A77-AB8A-90BAA1B8908A}"/>
-    <hyperlink ref="E19" r:id="rId16" xr:uid="{6253FC1F-8484-4287-BF27-05CCA474A0DD}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{CD97C58D-00D5-4D08-A122-0B2858321467}"/>
+    <hyperlink ref="D3:D39" r:id="rId15" display="prajwal10@gmail.com" xr:uid="{348903C0-A9E0-4A77-AB8A-90BAA1B8908A}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{6253FC1F-8484-4287-BF27-05CCA474A0DD}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{CD97C58D-00D5-4D08-A122-0B2858321467}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{DE674BA1-C9D8-4893-AA79-BB0437F7EB44}"/>
+    <hyperlink ref="E11" r:id="rId19" xr:uid="{43CE2080-CD2D-4F5C-8488-AE0EDDB0B26C}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{825D05DE-F520-4BDA-B935-19CE17218184}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{99CF24D5-C3EA-4F61-896B-2DDE05D0D19C}"/>
+    <hyperlink ref="D10:D13" r:id="rId22" display="prajwal10@gmail.com" xr:uid="{B5C0EE53-1197-4C00-B6C8-9FD17B8B8C54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A72D1-1752-4CB4-AA8D-637F185E5DFE}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36475,9 +36894,10 @@
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36532,8 +36952,17 @@
       <c r="R1" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>848</v>
       </c>
@@ -36564,8 +36993,17 @@
       <c r="J2" s="99" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="S2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="96" t="s">
         <v>898</v>
       </c>
@@ -36597,7 +37035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
         <v>900</v>
       </c>
@@ -36641,7 +37079,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="96" t="s">
         <v>906</v>
       </c>
@@ -36697,5 +37135,6 @@
     <hyperlink ref="D5" r:id="rId8" xr:uid="{07BB904C-F4A2-49FC-BD4E-06F3F8CBCFFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_01_11_2022\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant-Web\clone_Merchant_16_11_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301CEF3-73FD-4E23-AE85-EF30A4DBC89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D5A7E7-E901-455D-BEE2-769E67A1EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -5357,33 +5357,33 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="12" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" customWidth="1"/>
-    <col min="26" max="26" width="15.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1437</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1438</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1439</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1439</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1439</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1440</v>
       </c>
@@ -5804,26 +5804,26 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.5546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.44140625" style="99" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" style="99" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="99"/>
+    <col min="1" max="1" width="36.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="99" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>912</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>914</v>
       </c>
@@ -5968,27 +5968,27 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="18" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" customWidth="1"/>
+    <col min="16" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -6170,22 +6170,22 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="18" width="20.44140625" customWidth="1"/>
-    <col min="19" max="20" width="19.88671875" customWidth="1"/>
-    <col min="21" max="28" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="28" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1073</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1075</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1077</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1090</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1038</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="Q7" s="59"/>
       <c r="R7" s="59"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1040</v>
       </c>
@@ -6548,7 +6548,7 @@
       <c r="Q8" s="59"/>
       <c r="R8" s="59"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1041</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="Q9" s="59"/>
       <c r="R9" s="59"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1042</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="Q10" s="59"/>
       <c r="R10" s="59"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1043</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="Q11" s="59"/>
       <c r="R11" s="59"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1070</v>
       </c>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="R12" s="59"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1070</v>
       </c>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="R13" s="59"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1070</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="R14" s="59"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1070</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="R15" s="59"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1133</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="R16" s="59"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1133</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="R17" s="59"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1133</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="R18" s="59"/>
     </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1133</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="R19" s="59"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1094</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="Q20" s="59"/>
       <c r="R20" s="59"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1081</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="Q21" s="59"/>
       <c r="R21" s="59"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1083</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1085</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="Q23" s="59"/>
       <c r="R23" s="59"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1087</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1092</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1079</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1096</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1098</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="P28" s="59"/>
       <c r="Q28" s="59"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1100</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="P29" s="59"/>
       <c r="Q29" s="59"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1102</v>
       </c>
@@ -7526,7 +7526,7 @@
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1104</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1106</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1108</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1172</v>
       </c>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1173</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1176</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1178</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1219</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1221</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1222</v>
       </c>
@@ -8001,33 +8001,33 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" customWidth="1"/>
-    <col min="20" max="20" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>881</v>
       </c>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="O2" s="33"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>885</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="M5" s="59"/>
     </row>
-    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>171</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>1011</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1013</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1036</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1216</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1288</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1290</v>
       </c>
@@ -8510,52 +8510,52 @@
       <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="19.88671875" customWidth="1"/>
-    <col min="22" max="26" width="30.109375" customWidth="1"/>
-    <col min="27" max="38" width="28.44140625" customWidth="1"/>
-    <col min="39" max="39" width="19.88671875" customWidth="1"/>
-    <col min="40" max="40" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="26" width="30.140625" customWidth="1"/>
+    <col min="27" max="38" width="28.42578125" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" customWidth="1"/>
+    <col min="40" max="40" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="26.109375" customWidth="1"/>
+    <col min="46" max="46" width="26.140625" customWidth="1"/>
     <col min="47" max="47" width="28" customWidth="1"/>
-    <col min="48" max="48" width="18.109375" customWidth="1"/>
+    <col min="48" max="48" width="18.140625" customWidth="1"/>
     <col min="49" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="50" max="50" width="17.42578125" customWidth="1"/>
     <col min="51" max="51" width="15" customWidth="1"/>
-    <col min="52" max="52" width="22.44140625" customWidth="1"/>
-    <col min="53" max="53" width="20.109375" customWidth="1"/>
-    <col min="54" max="54" width="12.88671875" customWidth="1"/>
-    <col min="55" max="55" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.6640625" customWidth="1"/>
-    <col min="61" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" customWidth="1"/>
+    <col min="53" max="53" width="20.140625" customWidth="1"/>
+    <col min="54" max="54" width="12.85546875" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.7109375" customWidth="1"/>
+    <col min="61" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>851</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="AD3" s="18"/>
       <c r="AE3" s="18"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1008</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
     </row>
-    <row r="5" spans="1:66" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>191</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>195</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
     </row>
-    <row r="9" spans="1:66" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1038</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1040</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1041</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1042</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="15" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1043</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1070</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1070</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1070</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1070</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1133</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1133</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1133</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1133</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>451</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1247</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1249</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1249</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1249</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1252</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="AE30" s="5"/>
       <c r="BG30" s="35"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1255</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="BG31" s="35"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1257</v>
       </c>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="BG32" s="35"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1258</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1258</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1258</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1259</v>
       </c>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="BG36" s="35"/>
     </row>
-    <row r="37" spans="1:59" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1261</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="BG37" s="35"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>529</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1160</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1162</v>
       </c>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1164</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1166</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1168</v>
       </c>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="P43" s="11"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1170</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1180</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1189</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1182</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1185</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1187</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="50" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="107" t="s">
         <v>1235</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1231</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="52" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="107" t="s">
         <v>1236</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>326</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="107" t="s">
         <v>1244</v>
       </c>
@@ -11308,31 +11308,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="13" width="25.88671875" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="13" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
     <col min="16" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="22" max="22" width="17.109375" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
     <col min="24" max="26" width="24" customWidth="1"/>
-    <col min="27" max="27" width="23.33203125" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
         <v>1235</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1231</v>
       </c>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>1236</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="107" t="s">
         <v>1244</v>
       </c>
@@ -11809,39 +11809,39 @@
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" customWidth="1"/>
-    <col min="13" max="19" width="25.5546875" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="19" width="25.5703125" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" customWidth="1"/>
-    <col min="28" max="28" width="23.5546875" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" customWidth="1"/>
-    <col min="31" max="31" width="31.5546875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="28.44140625" customWidth="1"/>
+    <col min="26" max="26" width="26.85546875" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" customWidth="1"/>
+    <col min="31" max="31" width="31.5703125" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="33" max="33" width="28.42578125" customWidth="1"/>
     <col min="34" max="34" width="33" customWidth="1"/>
-    <col min="35" max="35" width="35.44140625" customWidth="1"/>
-    <col min="36" max="36" width="31.33203125" customWidth="1"/>
-    <col min="37" max="37" width="43.6640625" customWidth="1"/>
-    <col min="38" max="38" width="36.109375" customWidth="1"/>
-    <col min="39" max="39" width="43.88671875" customWidth="1"/>
+    <col min="35" max="35" width="35.42578125" customWidth="1"/>
+    <col min="36" max="36" width="31.28515625" customWidth="1"/>
+    <col min="37" max="37" width="43.7109375" customWidth="1"/>
+    <col min="38" max="38" width="36.140625" customWidth="1"/>
+    <col min="39" max="39" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>486</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>486</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>495</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>495</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>495</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>495</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>495</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>495</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>495</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>495</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>547</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1205</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1207</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1207</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1207</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1207</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1207</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1207</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1207</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>557</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>557</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>557</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>557</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>557</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1148</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1152</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1154</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1156</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1158</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1308</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1310</v>
       </c>
@@ -14025,31 +14025,31 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" customWidth="1"/>
-    <col min="17" max="17" width="22.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" customWidth="1"/>
+    <col min="21" max="21" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>297</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -14517,7 +14517,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>315</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>315</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>315</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -15014,30 +15014,30 @@
       <selection activeCell="G5" activeCellId="1" sqref="D16 G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
-    <col min="15" max="15" width="26.5546875" customWidth="1"/>
-    <col min="16" max="16" width="47.5546875" customWidth="1"/>
-    <col min="17" max="17" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="16" width="47.5703125" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>883</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>883</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>884</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>884</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>884</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>884</v>
       </c>
@@ -15438,43 +15438,43 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="22" width="30.109375" customWidth="1"/>
-    <col min="23" max="30" width="28.44140625" customWidth="1"/>
-    <col min="31" max="33" width="22.109375" customWidth="1"/>
-    <col min="34" max="38" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="22" width="30.140625" customWidth="1"/>
+    <col min="23" max="30" width="28.42578125" customWidth="1"/>
+    <col min="31" max="33" width="22.140625" customWidth="1"/>
+    <col min="34" max="38" width="19.85546875" customWidth="1"/>
     <col min="39" max="39" width="50" customWidth="1"/>
-    <col min="40" max="40" width="22.44140625" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" customWidth="1"/>
     <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="21.44140625" customWidth="1"/>
-    <col min="47" max="47" width="17.88671875" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" customWidth="1"/>
     <col min="48" max="48" width="23" customWidth="1"/>
-    <col min="49" max="49" width="16.44140625" customWidth="1"/>
-    <col min="50" max="50" width="26.109375" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" customWidth="1"/>
+    <col min="50" max="50" width="26.140625" customWidth="1"/>
     <col min="51" max="52" width="28" customWidth="1"/>
-    <col min="53" max="53" width="18.109375" customWidth="1"/>
+    <col min="53" max="53" width="18.140625" customWidth="1"/>
     <col min="54" max="54" width="17" customWidth="1"/>
-    <col min="55" max="55" width="17.44140625" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="57" max="57" width="22.44140625" customWidth="1"/>
-    <col min="58" max="58" width="20.109375" customWidth="1"/>
-    <col min="59" max="59" width="12.88671875" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" customWidth="1"/>
+    <col min="58" max="58" width="20.140625" customWidth="1"/>
+    <col min="59" max="59" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1049</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1050</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1052</v>
       </c>
@@ -15785,35 +15785,35 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="77.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="10" width="35.88671875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" customWidth="1"/>
-    <col min="12" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="49.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="10" width="35.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="49.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.88671875" customWidth="1"/>
-    <col min="22" max="22" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="19.109375" customWidth="1"/>
-    <col min="26" max="26" width="29.109375" customWidth="1"/>
-    <col min="27" max="27" width="19.109375" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" customWidth="1"/>
-    <col min="29" max="29" width="24.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.88671875" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" customWidth="1"/>
+    <col min="30" max="30" width="23.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>333</v>
       </c>
@@ -15949,7 +15949,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>564</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>563</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>562</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>562</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>562</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>562</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>562</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>562</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>562</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>562</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>562</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>562</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>562</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>562</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>562</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>562</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>562</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>562</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>562</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>1224</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>1264</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>1267</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>1269</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>1271</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>1273</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>562</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>1321</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>1337</v>
       </c>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>1343</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>1411</v>
       </c>
@@ -17359,64 +17359,64 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="49.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" customWidth="1"/>
-    <col min="11" max="12" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
+    <col min="11" max="12" width="32.85546875" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="39.44140625" customWidth="1"/>
-    <col min="16" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="34.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="39.42578125" customWidth="1"/>
+    <col min="16" max="17" width="28.7109375" customWidth="1"/>
+    <col min="18" max="18" width="34.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="29.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1"/>
     <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="18.109375" customWidth="1"/>
-    <col min="25" max="25" width="32.109375" customWidth="1"/>
-    <col min="26" max="26" width="23.109375" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" customWidth="1"/>
-    <col min="28" max="28" width="13.44140625" customWidth="1"/>
-    <col min="29" max="30" width="16.33203125" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="32.140625" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="30" width="16.28515625" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="26.6640625" customWidth="1"/>
-    <col min="34" max="34" width="19.109375" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="37" max="37" width="19.6640625" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="37" max="37" width="19.7109375" customWidth="1"/>
     <col min="38" max="38" width="43" customWidth="1"/>
-    <col min="39" max="39" width="23.33203125" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" customWidth="1"/>
-    <col min="43" max="46" width="26.33203125" customWidth="1"/>
-    <col min="47" max="47" width="24.33203125" customWidth="1"/>
-    <col min="48" max="48" width="21.6640625" customWidth="1"/>
-    <col min="49" max="49" width="19.33203125" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" customWidth="1"/>
-    <col min="54" max="54" width="21.109375" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" customWidth="1"/>
-    <col min="56" max="56" width="17.33203125" customWidth="1"/>
-    <col min="57" max="57" width="19.6640625" customWidth="1"/>
-    <col min="58" max="58" width="24.44140625" customWidth="1"/>
-    <col min="59" max="59" width="17.44140625" customWidth="1"/>
-    <col min="60" max="60" width="46.6640625" customWidth="1"/>
-    <col min="61" max="61" width="22.44140625" customWidth="1"/>
-    <col min="62" max="62" width="27.33203125" customWidth="1"/>
+    <col min="39" max="39" width="23.28515625" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
+    <col min="43" max="46" width="26.28515625" customWidth="1"/>
+    <col min="47" max="47" width="24.28515625" customWidth="1"/>
+    <col min="48" max="48" width="21.7109375" customWidth="1"/>
+    <col min="49" max="49" width="19.28515625" customWidth="1"/>
+    <col min="50" max="50" width="16.85546875" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" customWidth="1"/>
+    <col min="54" max="54" width="21.140625" customWidth="1"/>
+    <col min="55" max="55" width="14.140625" customWidth="1"/>
+    <col min="56" max="56" width="17.28515625" customWidth="1"/>
+    <col min="57" max="57" width="19.7109375" customWidth="1"/>
+    <col min="58" max="58" width="24.42578125" customWidth="1"/>
+    <col min="59" max="59" width="17.42578125" customWidth="1"/>
+    <col min="60" max="60" width="46.7109375" customWidth="1"/>
+    <col min="61" max="61" width="22.42578125" customWidth="1"/>
+    <col min="62" max="62" width="27.28515625" customWidth="1"/>
     <col min="63" max="63" width="25" customWidth="1"/>
-    <col min="64" max="64" width="19.33203125" customWidth="1"/>
-    <col min="65" max="65" width="20.109375" customWidth="1"/>
-    <col min="66" max="66" width="26.33203125" customWidth="1"/>
+    <col min="64" max="64" width="19.28515625" customWidth="1"/>
+    <col min="65" max="65" width="20.140625" customWidth="1"/>
+    <col min="66" max="66" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1377</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>627</v>
       </c>
@@ -17899,7 +17899,7 @@
       <c r="AW3" s="40"/>
       <c r="AX3" s="40"/>
     </row>
-    <row r="4" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>641</v>
       </c>
@@ -18005,7 +18005,7 @@
       <c r="AW4" s="40"/>
       <c r="AX4" s="40"/>
     </row>
-    <row r="5" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>641</v>
       </c>
@@ -18113,7 +18113,7 @@
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
     </row>
-    <row r="6" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>641</v>
       </c>
@@ -18221,7 +18221,7 @@
       <c r="AW6" s="40"/>
       <c r="AX6" s="40"/>
     </row>
-    <row r="7" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>641</v>
       </c>
@@ -18327,7 +18327,7 @@
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
     </row>
-    <row r="8" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>641</v>
       </c>
@@ -18435,7 +18435,7 @@
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
     </row>
-    <row r="9" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>641</v>
       </c>
@@ -18541,7 +18541,7 @@
       <c r="AW9" s="40"/>
       <c r="AX9" s="40"/>
     </row>
-    <row r="10" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>641</v>
       </c>
@@ -18649,7 +18649,7 @@
       <c r="AW10" s="40"/>
       <c r="AX10" s="40"/>
     </row>
-    <row r="11" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>641</v>
       </c>
@@ -18755,7 +18755,7 @@
       <c r="AW11" s="40"/>
       <c r="AX11" s="40"/>
     </row>
-    <row r="12" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>641</v>
       </c>
@@ -18863,7 +18863,7 @@
       <c r="AW12" s="40"/>
       <c r="AX12" s="40"/>
     </row>
-    <row r="13" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>641</v>
       </c>
@@ -18969,7 +18969,7 @@
       <c r="AW13" s="40"/>
       <c r="AX13" s="40"/>
     </row>
-    <row r="14" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>641</v>
       </c>
@@ -19077,7 +19077,7 @@
       <c r="AW14" s="40"/>
       <c r="AX14" s="40"/>
     </row>
-    <row r="15" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>641</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="AW15" s="40"/>
       <c r="AX15" s="40"/>
     </row>
-    <row r="16" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>641</v>
       </c>
@@ -19291,7 +19291,7 @@
       <c r="AW16" s="40"/>
       <c r="AX16" s="40"/>
     </row>
-    <row r="17" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>641</v>
       </c>
@@ -19397,7 +19397,7 @@
       <c r="AW17" s="40"/>
       <c r="AX17" s="40"/>
     </row>
-    <row r="18" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>641</v>
       </c>
@@ -19505,7 +19505,7 @@
       <c r="AW18" s="40"/>
       <c r="AX18" s="40"/>
     </row>
-    <row r="19" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>641</v>
       </c>
@@ -19613,7 +19613,7 @@
       <c r="AW19" s="40"/>
       <c r="AX19" s="40"/>
     </row>
-    <row r="20" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>641</v>
       </c>
@@ -19721,7 +19721,7 @@
       <c r="AW20" s="40"/>
       <c r="AX20" s="40"/>
     </row>
-    <row r="21" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>675</v>
       </c>
@@ -19823,7 +19823,7 @@
       <c r="AW21" s="40"/>
       <c r="AX21" s="40"/>
     </row>
-    <row r="22" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>681</v>
       </c>
@@ -19933,7 +19933,7 @@
       <c r="AW22" s="40"/>
       <c r="AX22" s="40"/>
     </row>
-    <row r="23" spans="1:50" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>685</v>
       </c>
@@ -20023,7 +20023,7 @@
       <c r="AW23" s="40"/>
       <c r="AX23" s="40"/>
     </row>
-    <row r="24" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>693</v>
       </c>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="AX24" s="40"/>
     </row>
-    <row r="25" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>696</v>
       </c>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="AX25" s="40"/>
     </row>
-    <row r="26" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>696</v>
       </c>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="AX26" s="40"/>
     </row>
-    <row r="27" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>696</v>
       </c>
@@ -20479,7 +20479,7 @@
       </c>
       <c r="AX27" s="40"/>
     </row>
-    <row r="28" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>696</v>
       </c>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="AX28" s="40"/>
     </row>
-    <row r="29" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>696</v>
       </c>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="AX29" s="40"/>
     </row>
-    <row r="30" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>696</v>
       </c>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="AX30" s="40"/>
     </row>
-    <row r="31" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>696</v>
       </c>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="AX31" s="40"/>
     </row>
-    <row r="32" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>696</v>
       </c>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="AX32" s="40"/>
     </row>
-    <row r="33" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>696</v>
       </c>
@@ -21171,7 +21171,7 @@
       </c>
       <c r="AX33" s="40"/>
     </row>
-    <row r="34" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>696</v>
       </c>
@@ -21285,7 +21285,7 @@
       <c r="AW34" s="40"/>
       <c r="AX34" s="40"/>
     </row>
-    <row r="35" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>696</v>
       </c>
@@ -21399,7 +21399,7 @@
       </c>
       <c r="AX35" s="40"/>
     </row>
-    <row r="36" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>696</v>
       </c>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="AX36" s="40"/>
     </row>
-    <row r="37" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>696</v>
       </c>
@@ -21627,7 +21627,7 @@
       </c>
       <c r="AX37" s="40"/>
     </row>
-    <row r="38" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>696</v>
       </c>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="AX38" s="40"/>
     </row>
-    <row r="39" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>696</v>
       </c>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="AX39" s="40"/>
     </row>
-    <row r="40" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>696</v>
       </c>
@@ -21973,7 +21973,7 @@
       </c>
       <c r="AX40" s="40"/>
     </row>
-    <row r="41" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>696</v>
       </c>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="AX41" s="40"/>
     </row>
-    <row r="42" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>696</v>
       </c>
@@ -22201,7 +22201,7 @@
       </c>
       <c r="AX42" s="40"/>
     </row>
-    <row r="43" spans="1:53" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:53" ht="225" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
         <v>718</v>
       </c>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="AX43" s="40"/>
     </row>
-    <row r="44" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>720</v>
       </c>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="AX44" s="40"/>
     </row>
-    <row r="45" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>721</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="46" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>721</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="47" spans="1:53" ht="27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:53" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>721</v>
       </c>
@@ -22697,7 +22697,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="48" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>721</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="49" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>721</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="50" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>721</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>721</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="52" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>721</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="53" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>721</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="54" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>721</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="55" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>721</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="56" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>721</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="57" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>721</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="58" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>721</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="59" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>721</v>
       </c>
@@ -23653,7 +23653,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="60" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>721</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="61" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>721</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="62" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>721</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>721</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="64" spans="1:53" ht="159" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:53" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>778</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="65" spans="1:65" ht="78" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>784</v>
       </c>
@@ -24138,7 +24138,7 @@
       </c>
       <c r="BI65" s="58"/>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>794</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:65" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:65" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>797</v>
       </c>
@@ -24237,7 +24237,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="68" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>855</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="69" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>857</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>859</v>
       </c>
@@ -24363,7 +24363,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>871</v>
       </c>
@@ -24406,7 +24406,7 @@
       </c>
       <c r="P71" s="59"/>
     </row>
-    <row r="72" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>971</v>
       </c>
@@ -24455,7 +24455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>973</v>
       </c>
@@ -24503,7 +24503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>974</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>976</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>979</v>
       </c>
@@ -24700,22 +24700,22 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="5" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="15" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="5" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="15" width="13.85546875" customWidth="1"/>
     <col min="16" max="16" width="27" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1062</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1063</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1063</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1063</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1063</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1071</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1328</v>
       </c>
@@ -25199,33 +25199,33 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="12" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" customWidth="1"/>
-    <col min="26" max="26" width="15.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25311,7 +25311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1299</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1302</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1304</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1304</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1304</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1305</v>
       </c>
@@ -25646,18 +25646,18 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>577</v>
       </c>
@@ -25700,7 +25700,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>583</v>
       </c>
@@ -25717,7 +25717,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>586</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>589</v>
       </c>
@@ -25765,45 +25765,45 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
-    <col min="18" max="18" width="29.44140625" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
     <col min="20" max="20" width="41" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" customWidth="1"/>
-    <col min="24" max="24" width="22.6640625" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" customWidth="1"/>
-    <col min="27" max="27" width="19.44140625" customWidth="1"/>
-    <col min="28" max="29" width="20.44140625" customWidth="1"/>
-    <col min="30" max="30" width="17.5546875" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" customWidth="1"/>
+    <col min="28" max="29" width="20.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1"/>
     <col min="31" max="31" width="20" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" customWidth="1"/>
+    <col min="33" max="33" width="30.7109375" customWidth="1"/>
     <col min="34" max="34" width="14" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="16.88671875" customWidth="1"/>
-    <col min="38" max="38" width="33.33203125" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>387</v>
       </c>
@@ -26049,7 +26049,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>387</v>
       </c>
@@ -26108,7 +26108,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>387</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>391</v>
       </c>
@@ -26226,7 +26226,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>393</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>398</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>402</v>
       </c>
@@ -26418,7 +26418,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>404</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>404</v>
       </c>
@@ -26543,7 +26543,7 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="27"/>
     </row>
-    <row r="12" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>404</v>
       </c>
@@ -26602,7 +26602,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="27"/>
     </row>
-    <row r="13" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>404</v>
       </c>
@@ -26667,7 +26667,7 @@
       <c r="AJ13" s="27"/>
       <c r="AK13" s="27"/>
     </row>
-    <row r="14" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>404</v>
       </c>
@@ -26723,7 +26723,7 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
     </row>
-    <row r="15" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>404</v>
       </c>
@@ -26782,7 +26782,7 @@
       <c r="AJ15" s="27"/>
       <c r="AK15" s="27"/>
     </row>
-    <row r="16" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>404</v>
       </c>
@@ -26850,7 +26850,7 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="27"/>
     </row>
-    <row r="17" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>404</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>404</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>412</v>
       </c>
@@ -27059,7 +27059,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>412</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>412</v>
       </c>
@@ -27177,7 +27177,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>412</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>527</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>527</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -27485,7 +27485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>527</v>
       </c>
@@ -27565,7 +27565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>527</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>527</v>
       </c>
@@ -27725,7 +27725,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>527</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>527</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>527</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>527</v>
       </c>
@@ -28125,7 +28125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>527</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>527</v>
       </c>
@@ -28310,28 +28310,28 @@
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="9" width="63.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="9" width="63.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="12" width="33.88671875" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" customWidth="1"/>
-    <col min="14" max="14" width="26.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="31.88671875" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28405,7 +28405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>566</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1455</v>
       </c>
@@ -28479,7 +28479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>567</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>567</v>
       </c>
@@ -28545,7 +28545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>567</v>
       </c>
@@ -28580,7 +28580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>567</v>
       </c>
@@ -28615,7 +28615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>567</v>
       </c>
@@ -28653,7 +28653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -28677,7 +28677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>568</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>568</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>568</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>568</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>565</v>
       </c>
@@ -28872,7 +28872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -28967,7 +28967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1313</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1335</v>
       </c>
@@ -29124,7 +29124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1347</v>
       </c>
@@ -29205,36 +29205,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2C328-44FE-4BE7-9D79-D8AE6FF7329F}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.44140625" customWidth="1"/>
-    <col min="7" max="7" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="17" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" customWidth="1"/>
+    <col min="7" max="7" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29302,7 +29302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>229</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>233</v>
       </c>
@@ -29371,7 +29371,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -29401,7 +29401,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -29431,7 +29431,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -29467,7 +29467,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -29500,7 +29500,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -29573,7 +29573,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -29693,7 +29693,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>253</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>259</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>260</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1315</v>
       </c>
@@ -29825,40 +29825,40 @@
       <selection activeCell="N30" sqref="N30:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.42578125" customWidth="1"/>
     <col min="27" max="27" width="34" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="42" customWidth="1"/>
-    <col min="29" max="29" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="70.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="70.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>916</v>
       </c>
@@ -29994,7 +29994,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>918</v>
       </c>
@@ -30064,7 +30064,7 @@
       </c>
       <c r="Z3" s="33"/>
     </row>
-    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>935</v>
       </c>
@@ -30105,7 +30105,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>937</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>938</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>941</v>
       </c>
@@ -30238,7 +30238,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>943</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>943</v>
       </c>
@@ -30329,7 +30329,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>950</v>
       </c>
@@ -30373,7 +30373,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>953</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>953</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>957</v>
       </c>
@@ -30506,7 +30506,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>957</v>
       </c>
@@ -30547,7 +30547,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>959</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>961</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>963</v>
       </c>
@@ -30682,7 +30682,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>963</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>965</v>
       </c>
@@ -30770,7 +30770,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>967</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>968</v>
       </c>
@@ -30861,7 +30861,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>968</v>
       </c>
@@ -30905,7 +30905,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>984</v>
       </c>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="AC23" s="25"/>
     </row>
-    <row r="24" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>881</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>970</v>
       </c>
@@ -31036,7 +31036,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>982</v>
       </c>
@@ -31077,7 +31077,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>797</v>
       </c>
@@ -31118,7 +31118,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>982</v>
       </c>
@@ -31159,7 +31159,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>983</v>
       </c>
@@ -31201,7 +31201,7 @@
       </c>
       <c r="Z29" s="33"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1327</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1327</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1327</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1327</v>
       </c>
@@ -31365,7 +31365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1327</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1339</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1341</v>
       </c>
@@ -31541,16 +31541,16 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="6" width="37.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="23" width="37.88671875" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="6" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="23" width="37.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>986</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>988</v>
       </c>
@@ -31712,7 +31712,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>992</v>
       </c>
@@ -31765,7 +31765,7 @@
         <v>4136551412</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>996</v>
       </c>
@@ -31806,7 +31806,7 @@
       <c r="P5" s="100"/>
       <c r="Q5" s="100"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>998</v>
       </c>
@@ -31847,7 +31847,7 @@
       <c r="P6" s="100"/>
       <c r="Q6" s="100"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>992</v>
       </c>
@@ -31900,7 +31900,7 @@
         <v>7739696581</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>1000</v>
       </c>
@@ -31941,7 +31941,7 @@
       <c r="P8" s="100"/>
       <c r="Q8" s="100"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>1362</v>
       </c>
@@ -31984,7 +31984,7 @@
       <c r="P9" s="100"/>
       <c r="Q9" s="100"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>1362</v>
       </c>
@@ -32027,7 +32027,7 @@
       <c r="P10" s="100"/>
       <c r="Q10" s="100"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>1362</v>
       </c>
@@ -32070,7 +32070,7 @@
       <c r="P11" s="100"/>
       <c r="Q11" s="100"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>1363</v>
       </c>
@@ -32113,7 +32113,7 @@
       <c r="P12" s="100"/>
       <c r="Q12" s="100"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>1363</v>
       </c>
@@ -32156,7 +32156,7 @@
       <c r="P13" s="100"/>
       <c r="Q13" s="100"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>1363</v>
       </c>
@@ -32199,7 +32199,7 @@
       <c r="P14" s="100"/>
       <c r="Q14" s="100"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32305,7 +32305,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32357,7 +32357,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32411,7 +32411,7 @@
       </c>
       <c r="X18" s="35"/>
     </row>
-    <row r="19" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32463,7 +32463,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32625,7 +32625,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32679,7 +32679,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32724,7 +32724,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>1031</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>5622469931</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>1349</v>
       </c>
@@ -32877,7 +32877,7 @@
         <v>7739696581</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
         <v>1357</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>1368</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>1369</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>1386</v>
       </c>
@@ -33103,29 +33103,29 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" customWidth="1"/>
-    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="55.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="30.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="79.88671875" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="17" max="17" width="79.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>464</v>
       </c>
@@ -33260,7 +33260,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -33289,7 +33289,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>464</v>
       </c>
@@ -33318,7 +33318,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>468</v>
       </c>
@@ -33356,7 +33356,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>470</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -33427,7 +33427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>472</v>
       </c>
@@ -33556,7 +33556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -33600,7 +33600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1317</v>
       </c>
@@ -33662,52 +33662,52 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="45.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="65" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
     <col min="12" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="24.88671875" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="57.109375" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" customWidth="1"/>
-    <col min="26" max="26" width="39.109375" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" customWidth="1"/>
-    <col min="29" max="29" width="20.88671875" customWidth="1"/>
-    <col min="30" max="30" width="18.5546875" customWidth="1"/>
-    <col min="31" max="33" width="35.6640625" customWidth="1"/>
-    <col min="34" max="34" width="32.33203125" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" customWidth="1"/>
-    <col min="36" max="36" width="20.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.33203125" customWidth="1"/>
-    <col min="38" max="38" width="40.33203125" customWidth="1"/>
-    <col min="39" max="39" width="20.5546875" customWidth="1"/>
-    <col min="40" max="42" width="21.109375" customWidth="1"/>
-    <col min="43" max="43" width="34.5546875" customWidth="1"/>
+    <col min="24" max="24" width="57.140625" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" customWidth="1"/>
+    <col min="26" max="26" width="39.140625" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" customWidth="1"/>
+    <col min="31" max="33" width="35.7109375" customWidth="1"/>
+    <col min="34" max="34" width="32.28515625" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" customWidth="1"/>
+    <col min="38" max="38" width="40.28515625" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="40" max="42" width="21.140625" customWidth="1"/>
+    <col min="43" max="43" width="34.5703125" customWidth="1"/>
     <col min="44" max="44" width="43" customWidth="1"/>
-    <col min="45" max="45" width="24.88671875" customWidth="1"/>
-    <col min="46" max="46" width="29.33203125" customWidth="1"/>
-    <col min="47" max="47" width="20.44140625" customWidth="1"/>
-    <col min="48" max="48" width="29.88671875" customWidth="1"/>
-    <col min="49" max="49" width="22.109375" customWidth="1"/>
-    <col min="50" max="50" width="26.109375" customWidth="1"/>
-    <col min="51" max="51" width="19.109375" customWidth="1"/>
-    <col min="52" max="52" width="14.5546875" customWidth="1"/>
-    <col min="53" max="53" width="15.109375" customWidth="1"/>
+    <col min="45" max="45" width="24.85546875" customWidth="1"/>
+    <col min="46" max="46" width="29.28515625" customWidth="1"/>
+    <col min="47" max="47" width="20.42578125" customWidth="1"/>
+    <col min="48" max="48" width="29.85546875" customWidth="1"/>
+    <col min="49" max="49" width="22.140625" customWidth="1"/>
+    <col min="50" max="50" width="26.140625" customWidth="1"/>
+    <col min="51" max="51" width="19.140625" customWidth="1"/>
+    <col min="52" max="52" width="14.5703125" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>808</v>
       </c>
@@ -33953,7 +33953,7 @@
       <c r="AH2" s="72"/>
       <c r="AL2" s="73"/>
     </row>
-    <row r="3" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>808</v>
       </c>
@@ -34036,7 +34036,7 @@
       <c r="AH3" s="72"/>
       <c r="AL3" s="73"/>
     </row>
-    <row r="4" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>808</v>
       </c>
@@ -34119,7 +34119,7 @@
       <c r="AH4" s="72"/>
       <c r="AL4" s="73"/>
     </row>
-    <row r="5" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>808</v>
       </c>
@@ -34202,7 +34202,7 @@
       <c r="AH5" s="72"/>
       <c r="AL5" s="73"/>
     </row>
-    <row r="6" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34287,7 +34287,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34372,7 +34372,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34457,7 +34457,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>1433</v>
       </c>
@@ -34542,7 +34542,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>1458</v>
       </c>
@@ -34627,7 +34627,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>1458</v>
       </c>
@@ -34712,7 +34712,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>1458</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>1458</v>
       </c>
@@ -34882,7 +34882,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>821</v>
       </c>
@@ -34941,7 +34941,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="15" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>821</v>
       </c>
@@ -35000,7 +35000,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>821</v>
       </c>
@@ -35059,7 +35059,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>821</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>823</v>
       </c>
@@ -35174,7 +35174,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="19" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>826</v>
       </c>
@@ -35232,7 +35232,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="20" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>829</v>
       </c>
@@ -35315,7 +35315,7 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
     </row>
-    <row r="21" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>831</v>
       </c>
@@ -35401,7 +35401,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>1434</v>
       </c>
@@ -35450,7 +35450,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="23" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>1459</v>
       </c>
@@ -35499,7 +35499,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>837</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>837</v>
       </c>
@@ -35677,7 +35677,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="26" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>837</v>
       </c>
@@ -35766,7 +35766,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>837</v>
       </c>
@@ -35852,7 +35852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>837</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>837</v>
       </c>
@@ -36002,7 +36002,7 @@
       <c r="AE29" s="89"/>
       <c r="AG29" s="89"/>
     </row>
-    <row r="30" spans="1:53" ht="93" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>837</v>
       </c>
@@ -36085,7 +36085,7 @@
       <c r="AF30" s="89"/>
       <c r="AG30" s="89"/>
     </row>
-    <row r="31" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>837</v>
       </c>
@@ -36171,7 +36171,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="32" spans="1:53" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>837</v>
       </c>
@@ -36257,7 +36257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>837</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>837</v>
       </c>
@@ -36429,7 +36429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>837</v>
       </c>
@@ -36510,7 +36510,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>837</v>
       </c>
@@ -36590,7 +36590,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>837</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>837</v>
       </c>
@@ -36762,7 +36762,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="159" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>844</v>
       </c>
@@ -36871,33 +36871,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A72D1-1752-4CB4-AA8D-637F185E5DFE}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5546875" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36962,7 +36962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>848</v>
       </c>
@@ -37003,7 +37003,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>898</v>
       </c>
@@ -37035,7 +37035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
         <v>900</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="99" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="99" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>906</v>
       </c>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant - Sanity Testing\clone_Merchant_sanity_27_12_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B327B0-FBA9-4DB7-A57E-B1E0253123C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18FAF7-9040-4E9F-A833-494E470412E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="656">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -1997,6 +1997,18 @@
   </si>
   <si>
     <t>Merchant Accounts</t>
+  </si>
+  <si>
+    <t>changePasswordHeading</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>twoStepAuthenticationHeading</t>
+  </si>
+  <si>
+    <t>2-Step Authentication</t>
   </si>
 </sst>
 </file>
@@ -9945,7 +9957,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10361,10 +10373,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD80F779-3731-469C-B080-C0C15FEDCBB1}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10379,27 +10391,29 @@
     <col min="10" max="10" width="20.109375" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
-    <col min="13" max="19" width="25.5546875" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" customWidth="1"/>
-    <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" customWidth="1"/>
-    <col min="28" max="28" width="23.5546875" customWidth="1"/>
-    <col min="29" max="29" width="23.33203125" customWidth="1"/>
-    <col min="31" max="31" width="31.5546875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="28.44140625" customWidth="1"/>
-    <col min="34" max="34" width="33" customWidth="1"/>
-    <col min="35" max="35" width="35.44140625" customWidth="1"/>
-    <col min="36" max="36" width="31.33203125" customWidth="1"/>
-    <col min="37" max="37" width="43.6640625" customWidth="1"/>
-    <col min="38" max="38" width="36.109375" customWidth="1"/>
-    <col min="39" max="39" width="43.88671875" customWidth="1"/>
+    <col min="13" max="16" width="25.5546875" customWidth="1"/>
+    <col min="17" max="17" width="31.77734375" customWidth="1"/>
+    <col min="18" max="23" width="25.5546875" customWidth="1"/>
+    <col min="24" max="24" width="22.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" customWidth="1"/>
+    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" customWidth="1"/>
+    <col min="32" max="32" width="23.5546875" customWidth="1"/>
+    <col min="33" max="33" width="23.33203125" customWidth="1"/>
+    <col min="35" max="35" width="31.5546875" customWidth="1"/>
+    <col min="36" max="36" width="19.6640625" customWidth="1"/>
+    <col min="37" max="37" width="28.44140625" customWidth="1"/>
+    <col min="38" max="38" width="33" customWidth="1"/>
+    <col min="39" max="39" width="35.44140625" customWidth="1"/>
+    <col min="40" max="40" width="31.33203125" customWidth="1"/>
+    <col min="41" max="41" width="43.6640625" customWidth="1"/>
+    <col min="42" max="42" width="36.109375" customWidth="1"/>
+    <col min="43" max="43" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10440,82 +10454,94 @@
         <v>398</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -10549,7 +10575,19 @@
       <c r="L2" t="s">
         <v>651</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="N2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>655</v>
+      </c>
+      <c r="W2" s="25" t="s">
         <v>650</v>
       </c>
     </row>
@@ -11366,7 +11404,7 @@
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant - Sanity Testing\clone_Merchant_sanity_27_12_2022\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18FAF7-9040-4E9F-A833-494E470412E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC107C2-57A3-476E-9E91-0CACE66DB398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="659">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2009,6 +2009,15 @@
   </si>
   <si>
     <t>2-Step Authentication</t>
+  </si>
+  <si>
+    <t>transactionHeading</t>
+  </si>
+  <si>
+    <t>payOutHistoryHeading</t>
+  </si>
+  <si>
+    <t>reserveHistoryHeading</t>
   </si>
 </sst>
 </file>
@@ -2586,33 +2595,33 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="12" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" customWidth="1"/>
-    <col min="26" max="26" width="15.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>358</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>359</v>
       </c>
@@ -3027,28 +3036,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B794F90B-B775-49C2-A1ED-1F487FA3454C}">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="18" width="20.44140625" customWidth="1"/>
-    <col min="19" max="20" width="19.88671875" customWidth="1"/>
-    <col min="21" max="28" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="21" width="20.42578125" customWidth="1"/>
+    <col min="22" max="23" width="19.85546875" customWidth="1"/>
+    <col min="24" max="31" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3089,52 +3098,61 @@
         <v>420</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>423</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>426</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>428</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -3305,29 +3323,29 @@
       <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="W6" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>219</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>116</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>25</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -3368,8 +3386,11 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -3410,8 +3431,11 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -3452,8 +3476,11 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -3494,8 +3521,11 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -3536,8 +3566,11 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -3573,21 +3606,24 @@
         <v>433</v>
       </c>
       <c r="M12" s="8"/>
-      <c r="N12" s="24">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="24">
         <v>1</v>
       </c>
-      <c r="O12" s="24">
+      <c r="R12" s="24">
         <v>10</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="S12" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="T12" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U12" s="24"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -3623,21 +3659,24 @@
         <v>436</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="24">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="24">
         <v>1</v>
       </c>
-      <c r="O13" s="24">
+      <c r="R13" s="24">
         <v>10</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="S13" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="T13" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="R13" s="24"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -3673,21 +3712,24 @@
         <v>239</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="N14" s="24">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="24">
         <v>1</v>
       </c>
-      <c r="O14" s="24">
+      <c r="R14" s="24">
         <v>10</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="S14" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="T14" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U14" s="24"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -3723,21 +3765,24 @@
         <v>440</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="24">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="24">
         <v>1</v>
       </c>
-      <c r="O15" s="24">
+      <c r="R15" s="24">
         <v>10</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="S15" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="T15" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U15" s="24"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -3773,21 +3818,24 @@
         <v>433</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="24">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="24">
         <v>1</v>
       </c>
-      <c r="O16" s="24">
+      <c r="R16" s="24">
         <v>10</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="S16" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="T16" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16" s="24"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -3823,21 +3871,24 @@
         <v>436</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="24">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="24">
         <v>1</v>
       </c>
-      <c r="O17" s="24">
+      <c r="R17" s="24">
         <v>10</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="S17" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="T17" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U17" s="24"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -3873,21 +3924,24 @@
         <v>239</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="24">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="24">
         <v>1</v>
       </c>
-      <c r="O18" s="24">
+      <c r="R18" s="24">
         <v>10</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="S18" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="T18" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="U18" s="24"/>
+    </row>
+    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -3923,21 +3977,24 @@
         <v>440</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="24">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="24">
         <v>1</v>
       </c>
-      <c r="O19" s="24">
+      <c r="R19" s="24">
         <v>10</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="S19" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="T19" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U19" s="24"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>444</v>
       </c>
@@ -3978,8 +4035,11 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>447</v>
       </c>
@@ -4020,8 +4080,11 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>450</v>
       </c>
@@ -4062,8 +4125,11 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -4104,8 +4170,11 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -4145,11 +4214,14 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-      <c r="R24" s="24" t="s">
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>457</v>
       </c>
@@ -4184,7 +4256,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>459</v>
       </c>
@@ -4224,8 +4296,11 @@
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>461</v>
       </c>
@@ -4265,8 +4340,11 @@
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>463</v>
       </c>
@@ -4306,8 +4384,11 @@
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -4347,8 +4428,11 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -4388,8 +4472,11 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>469</v>
       </c>
@@ -4429,11 +4516,14 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" t="s">
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>472</v>
       </c>
@@ -4473,8 +4563,11 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>474</v>
       </c>
@@ -4514,8 +4607,11 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>476</v>
       </c>
@@ -4553,8 +4649,11 @@
         <v>239</v>
       </c>
       <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>479</v>
       </c>
@@ -4592,7 +4691,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>481</v>
       </c>
@@ -4630,7 +4729,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>483</v>
       </c>
@@ -4668,7 +4767,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>485</v>
       </c>
@@ -4703,7 +4802,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>487</v>
       </c>
@@ -4744,7 +4843,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>489</v>
       </c>
@@ -4785,7 +4884,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>490</v>
       </c>
@@ -4818,6 +4917,15 @@
       </c>
       <c r="K41" t="s">
         <v>425</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4889,6 +4997,7 @@
     <hyperlink ref="E41" r:id="rId65" xr:uid="{FE6F8951-114D-4293-A9CE-C709981D9AF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -4900,35 +5009,35 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="77.88671875" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="10" width="35.88671875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" customWidth="1"/>
-    <col min="12" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="49.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="10" width="35.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="49.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.88671875" customWidth="1"/>
-    <col min="22" max="22" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="19.109375" customWidth="1"/>
-    <col min="26" max="26" width="29.109375" customWidth="1"/>
-    <col min="27" max="27" width="19.109375" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" customWidth="1"/>
-    <col min="29" max="29" width="24.33203125" customWidth="1"/>
-    <col min="30" max="30" width="23.88671875" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" customWidth="1"/>
+    <col min="30" max="30" width="23.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5023,7 +5132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>149</v>
       </c>
@@ -5064,7 +5173,7 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>207</v>
       </c>
@@ -5134,7 +5243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>206</v>
       </c>
@@ -5175,7 +5284,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>205</v>
       </c>
@@ -5225,7 +5334,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>205</v>
       </c>
@@ -5273,7 +5382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>205</v>
       </c>
@@ -5322,7 +5431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>205</v>
       </c>
@@ -5371,7 +5480,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>205</v>
       </c>
@@ -5420,7 +5529,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>205</v>
       </c>
@@ -5471,7 +5580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>205</v>
       </c>
@@ -5517,7 +5626,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>205</v>
       </c>
@@ -5565,7 +5674,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>205</v>
       </c>
@@ -5613,7 +5722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>205</v>
       </c>
@@ -5661,7 +5770,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>205</v>
       </c>
@@ -5709,7 +5818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>205</v>
       </c>
@@ -5757,7 +5866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>205</v>
       </c>
@@ -5805,7 +5914,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>205</v>
       </c>
@@ -5853,7 +5962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>205</v>
       </c>
@@ -5899,7 +6008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>205</v>
       </c>
@@ -5945,7 +6054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>205</v>
       </c>
@@ -5993,7 +6102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>274</v>
       </c>
@@ -6026,7 +6135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>289</v>
       </c>
@@ -6062,7 +6171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>292</v>
       </c>
@@ -6098,7 +6207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>294</v>
       </c>
@@ -6134,7 +6243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>296</v>
       </c>
@@ -6170,7 +6279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>298</v>
       </c>
@@ -6203,7 +6312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>205</v>
       </c>
@@ -6221,7 +6330,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>319</v>
       </c>
@@ -6278,7 +6387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>327</v>
       </c>
@@ -6296,7 +6405,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>329</v>
       </c>
@@ -6347,7 +6456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>347</v>
       </c>
@@ -6474,45 +6583,45 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
-    <col min="18" max="18" width="29.44140625" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
     <col min="20" max="20" width="41" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" customWidth="1"/>
-    <col min="24" max="24" width="22.6640625" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" customWidth="1"/>
-    <col min="27" max="27" width="19.44140625" customWidth="1"/>
-    <col min="28" max="29" width="20.44140625" customWidth="1"/>
-    <col min="30" max="30" width="17.5546875" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" customWidth="1"/>
+    <col min="28" max="29" width="20.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1"/>
     <col min="31" max="31" width="20" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" customWidth="1"/>
+    <col min="33" max="33" width="30.7109375" customWidth="1"/>
     <col min="34" max="34" width="14" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="16.88671875" customWidth="1"/>
-    <col min="38" max="38" width="33.33203125" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6737,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>550</v>
       </c>
@@ -6696,7 +6805,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>557</v>
       </c>
@@ -6758,7 +6867,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>557</v>
       </c>
@@ -6817,7 +6926,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>557</v>
       </c>
@@ -6876,7 +6985,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>562</v>
       </c>
@@ -6935,7 +7044,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>564</v>
       </c>
@@ -7009,7 +7118,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>573</v>
       </c>
@@ -7083,7 +7192,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>579</v>
       </c>
@@ -7127,7 +7236,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>582</v>
       </c>
@@ -7196,7 +7305,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>582</v>
       </c>
@@ -7252,7 +7361,7 @@
       <c r="AJ11" s="20"/>
       <c r="AK11" s="20"/>
     </row>
-    <row r="12" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>582</v>
       </c>
@@ -7311,7 +7420,7 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
     </row>
-    <row r="13" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>582</v>
       </c>
@@ -7376,7 +7485,7 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
     </row>
-    <row r="14" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>582</v>
       </c>
@@ -7432,7 +7541,7 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
     </row>
-    <row r="15" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>582</v>
       </c>
@@ -7491,7 +7600,7 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
     </row>
-    <row r="16" spans="1:38" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>582</v>
       </c>
@@ -7559,7 +7668,7 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
     </row>
-    <row r="17" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>582</v>
       </c>
@@ -7634,7 +7743,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>582</v>
       </c>
@@ -7709,7 +7818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>619</v>
       </c>
@@ -7768,7 +7877,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>619</v>
       </c>
@@ -7827,7 +7936,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>619</v>
       </c>
@@ -7886,7 +7995,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>619</v>
       </c>
@@ -7945,7 +8054,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>621</v>
       </c>
@@ -8028,7 +8137,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>621</v>
       </c>
@@ -8111,7 +8220,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>621</v>
       </c>
@@ -8194,7 +8303,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>621</v>
       </c>
@@ -8274,7 +8383,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>621</v>
       </c>
@@ -8354,7 +8463,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>621</v>
       </c>
@@ -8434,7 +8543,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>621</v>
       </c>
@@ -8514,7 +8623,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>621</v>
       </c>
@@ -8594,7 +8703,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>621</v>
       </c>
@@ -8674,7 +8783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>621</v>
       </c>
@@ -8754,7 +8863,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>621</v>
       </c>
@@ -8834,7 +8943,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>621</v>
       </c>
@@ -8914,7 +9023,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>621</v>
       </c>
@@ -9018,28 +9127,28 @@
       <selection pane="topRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="9" width="63.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="9" width="63.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="14" width="33.88671875" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" customWidth="1"/>
-    <col min="16" max="16" width="26.44140625" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="31.88671875" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" customWidth="1"/>
+    <col min="12" max="14" width="33.85546875" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9119,7 +9228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>209</v>
       </c>
@@ -9157,7 +9266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>364</v>
       </c>
@@ -9193,7 +9302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -9226,7 +9335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -9259,7 +9368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -9294,7 +9403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -9329,7 +9438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -9367,7 +9476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9391,7 +9500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -9429,7 +9538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -9461,7 +9570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -9493,7 +9602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -9525,7 +9634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -9557,7 +9666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -9586,7 +9695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -9620,7 +9729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -9652,7 +9761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -9681,7 +9790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -9710,7 +9819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -9739,7 +9848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -9771,7 +9880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>314</v>
       </c>
@@ -9803,7 +9912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>325</v>
       </c>
@@ -9838,7 +9947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -9873,7 +9982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -9960,40 +10069,40 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5546875" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.44140625" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.42578125" customWidth="1"/>
     <col min="27" max="27" width="34" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="42" customWidth="1"/>
-    <col min="29" max="29" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="70.88671875" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="70.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10091,7 +10200,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>395</v>
       </c>
@@ -10177,27 +10286,27 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="18" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" customWidth="1"/>
+    <col min="16" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>532</v>
       </c>
@@ -10324,7 +10433,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>541</v>
       </c>
@@ -10375,45 +10484,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD80F779-3731-469C-B080-C0C15FEDCBB1}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" customWidth="1"/>
-    <col min="13" max="16" width="25.5546875" customWidth="1"/>
-    <col min="17" max="17" width="31.77734375" customWidth="1"/>
-    <col min="18" max="23" width="25.5546875" customWidth="1"/>
-    <col min="24" max="24" width="22.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" customWidth="1"/>
-    <col min="26" max="26" width="17.5546875" customWidth="1"/>
-    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" customWidth="1"/>
+    <col min="18" max="23" width="25.5703125" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
     <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" customWidth="1"/>
-    <col min="32" max="32" width="23.5546875" customWidth="1"/>
-    <col min="33" max="33" width="23.33203125" customWidth="1"/>
-    <col min="35" max="35" width="31.5546875" customWidth="1"/>
-    <col min="36" max="36" width="19.6640625" customWidth="1"/>
-    <col min="37" max="37" width="28.44140625" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" customWidth="1"/>
+    <col min="35" max="35" width="31.5703125" customWidth="1"/>
+    <col min="36" max="36" width="19.7109375" customWidth="1"/>
+    <col min="37" max="37" width="28.42578125" customWidth="1"/>
     <col min="38" max="38" width="33" customWidth="1"/>
-    <col min="39" max="39" width="35.44140625" customWidth="1"/>
-    <col min="40" max="40" width="31.33203125" customWidth="1"/>
-    <col min="41" max="41" width="43.6640625" customWidth="1"/>
-    <col min="42" max="42" width="36.109375" customWidth="1"/>
-    <col min="43" max="43" width="43.88671875" customWidth="1"/>
+    <col min="39" max="39" width="35.42578125" customWidth="1"/>
+    <col min="40" max="40" width="31.28515625" customWidth="1"/>
+    <col min="41" max="41" width="43.7109375" customWidth="1"/>
+    <col min="42" max="42" width="36.140625" customWidth="1"/>
+    <col min="43" max="43" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10541,7 +10650,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -10608,52 +10717,52 @@
       <selection activeCell="BO3" sqref="BO3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="19.88671875" customWidth="1"/>
-    <col min="22" max="26" width="30.109375" customWidth="1"/>
-    <col min="27" max="38" width="28.44140625" customWidth="1"/>
-    <col min="39" max="39" width="19.88671875" customWidth="1"/>
-    <col min="40" max="40" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="26" width="30.140625" customWidth="1"/>
+    <col min="27" max="38" width="28.42578125" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" customWidth="1"/>
+    <col min="40" max="40" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="26.109375" customWidth="1"/>
+    <col min="46" max="46" width="26.140625" customWidth="1"/>
     <col min="47" max="47" width="28" customWidth="1"/>
-    <col min="48" max="48" width="18.109375" customWidth="1"/>
+    <col min="48" max="48" width="18.140625" customWidth="1"/>
     <col min="49" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="50" max="50" width="17.42578125" customWidth="1"/>
     <col min="51" max="51" width="15" customWidth="1"/>
-    <col min="52" max="52" width="22.44140625" customWidth="1"/>
-    <col min="53" max="53" width="20.109375" customWidth="1"/>
-    <col min="54" max="54" width="12.88671875" customWidth="1"/>
-    <col min="55" max="55" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.6640625" customWidth="1"/>
-    <col min="61" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" customWidth="1"/>
+    <col min="53" max="53" width="20.140625" customWidth="1"/>
+    <col min="54" max="54" width="12.85546875" customWidth="1"/>
+    <col min="55" max="55" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.7109375" customWidth="1"/>
+    <col min="61" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10853,7 +10962,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -10885,7 +10994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -10927,7 +11036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -10969,7 +11078,7 @@
       </c>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -11011,7 +11120,7 @@
       </c>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -11052,7 +11161,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>257</v>
       </c>
@@ -11093,7 +11202,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -11135,7 +11244,7 @@
       </c>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>261</v>
       </c>
@@ -11176,7 +11285,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -11220,7 +11329,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -11264,7 +11373,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -11299,7 +11408,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -11337,7 +11446,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>269</v>
       </c>
@@ -11407,43 +11516,43 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="22" width="30.109375" customWidth="1"/>
-    <col min="23" max="30" width="28.44140625" customWidth="1"/>
-    <col min="31" max="33" width="22.109375" customWidth="1"/>
-    <col min="34" max="38" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="22" width="30.140625" customWidth="1"/>
+    <col min="23" max="30" width="28.42578125" customWidth="1"/>
+    <col min="31" max="33" width="22.140625" customWidth="1"/>
+    <col min="34" max="38" width="19.85546875" customWidth="1"/>
     <col min="39" max="39" width="50" customWidth="1"/>
-    <col min="40" max="40" width="22.44140625" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" customWidth="1"/>
     <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="21.44140625" customWidth="1"/>
-    <col min="47" max="47" width="17.88671875" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" customWidth="1"/>
     <col min="48" max="48" width="23" customWidth="1"/>
-    <col min="49" max="49" width="16.44140625" customWidth="1"/>
-    <col min="50" max="50" width="26.109375" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" customWidth="1"/>
+    <col min="50" max="50" width="26.140625" customWidth="1"/>
     <col min="51" max="52" width="28" customWidth="1"/>
-    <col min="53" max="53" width="18.109375" customWidth="1"/>
+    <col min="53" max="53" width="18.140625" customWidth="1"/>
     <col min="54" max="54" width="17" customWidth="1"/>
-    <col min="55" max="55" width="17.44140625" customWidth="1"/>
+    <col min="55" max="55" width="17.42578125" customWidth="1"/>
     <col min="56" max="56" width="15" customWidth="1"/>
-    <col min="57" max="57" width="22.44140625" customWidth="1"/>
-    <col min="58" max="58" width="20.109375" customWidth="1"/>
-    <col min="59" max="59" width="12.88671875" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" customWidth="1"/>
+    <col min="58" max="58" width="20.140625" customWidth="1"/>
+    <col min="59" max="59" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11628,7 +11737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>519</v>
       </c>
@@ -11663,7 +11772,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>521</v>
       </c>
@@ -11698,7 +11807,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>523</v>
       </c>

--- a/Web/coyni/resources/testdata-merchant.xlsx
+++ b/Web/coyni/resources/testdata-merchant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_2.3_24_04_2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni_web_2.3\clone_Merchant_01_05_2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D6372-0AC0-4E24-8BBC-BCB8BE590432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75AE4F5-2162-45AF-9D11-FA56D0B45968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="890" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="890" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withdrawToUSDCogent" sheetId="37" r:id="rId1"/>
@@ -39,7 +39,6 @@
     <sheet name="homePage" sheetId="9" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5182,7 +5181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6133,10 +6132,10 @@
   <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -6175,7 +6174,7 @@
     <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6186,10 +6185,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -6300,7 +6299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1375</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1673</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1376</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1377</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="51">
+    <row r="6" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1377</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1377</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="14.25">
+    <row r="8" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1378</v>
       </c>
@@ -6791,10 +6790,10 @@
   <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -6844,7 +6843,7 @@
     <col min="50" max="50" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6855,10 +6854,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -6999,7 +6998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1675</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="25.5">
+    <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>376</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="25.5">
+    <row r="5" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>376</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="25.5">
+    <row r="6" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>376</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>380</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="14.25">
+    <row r="8" spans="1:51" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>382</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>387</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>391</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="242.25">
+    <row r="11" spans="1:51" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>393</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="25.5">
+    <row r="12" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>393</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="25.5">
+    <row r="13" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>393</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="25.5">
+    <row r="14" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>393</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="25.5">
+    <row r="15" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>393</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="25.5">
+    <row r="16" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>393</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="25.5">
+    <row r="17" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>393</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="25.5">
+    <row r="18" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>393</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="25.5">
+    <row r="19" spans="1:51" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>393</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>401</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>401</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>401</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>401</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>513</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>513</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>513</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>513</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>513</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>513</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>513</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>513</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>513</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>513</v>
       </c>
@@ -9447,7 +9446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>513</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>513</v>
       </c>
@@ -9639,11 +9638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A72D1-1752-4CB4-AA8D-637F185E5DFE}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
@@ -9665,7 +9664,7 @@
     <col min="20" max="20" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9676,10 +9675,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -9733,7 +9732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="98" customFormat="1" ht="15">
+    <row r="2" spans="1:22" s="98" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>831</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="98" customFormat="1" ht="15">
+    <row r="3" spans="1:22" s="98" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>880</v>
       </c>
@@ -9812,7 +9811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="98" customFormat="1" ht="15">
+    <row r="4" spans="1:22" s="98" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>882</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="98" customFormat="1" ht="15">
+    <row r="5" spans="1:22" s="98" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>888</v>
       </c>
@@ -9926,11 +9925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC5AE11-4DF4-4C38-8C02-13A278D78357}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="98" bestFit="1" customWidth="1"/>
@@ -9951,7 +9950,7 @@
     <col min="18" max="16384" width="8.85546875" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
@@ -9962,10 +9961,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="105" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="105" t="s">
         <v>12</v>
@@ -10010,7 +10009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>894</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>896</v>
       </c>
@@ -10140,11 +10139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061F3E79-A515-499D-B659-774015444ED3}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -10164,7 +10163,7 @@
     <col min="21" max="21" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10175,10 +10174,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -10232,7 +10231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -10351,11 +10350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547949FE-1284-41CA-BCEC-F84FA9C871D7}">
   <dimension ref="A1:CK178"/>
   <sheetViews>
-    <sheetView topLeftCell="BX1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1:CI1"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD9" sqref="CD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -10415,7 +10414,7 @@
     <col min="88" max="88" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:89">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:89" ht="76.5">
+    <row r="3" spans="1:89" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>834</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="25.5">
+    <row r="4" spans="1:89" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>989</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:89" ht="76.5">
+    <row r="5" spans="1:89" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>180</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:89" ht="76.5">
+    <row r="7" spans="1:89" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -11091,7 +11090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>184</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:89" ht="76.5">
+    <row r="9" spans="1:89" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:89">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:89">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1464</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:89">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1006</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1007</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:89">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1008</v>
       </c>
@@ -11469,7 +11468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:89">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1009</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:89">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1631</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:89" ht="89.25">
+    <row r="17" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1036</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:89" ht="89.25">
+    <row r="18" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1036</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:89" ht="89.25">
+    <row r="19" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1036</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:89" ht="89.25">
+    <row r="20" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1036</v>
       </c>
@@ -11847,7 +11846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:89" ht="89.25">
+    <row r="21" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1036</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:89" ht="89.25">
+    <row r="22" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1036</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:89" ht="89.25">
+    <row r="23" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1036</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:89" ht="89.25">
+    <row r="24" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1036</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:89" ht="89.25">
+    <row r="25" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1036</v>
       </c>
@@ -12182,7 +12181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:89" ht="89.25">
+    <row r="26" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1036</v>
       </c>
@@ -12249,7 +12248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:89" ht="89.25">
+    <row r="27" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1036</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:89" ht="89.25">
+    <row r="28" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1036</v>
       </c>
@@ -12383,7 +12382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:89" ht="89.25">
+    <row r="29" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1036</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:89" ht="89.25">
+    <row r="30" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1036</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:89" ht="89.25">
+    <row r="31" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1036</v>
       </c>
@@ -12584,7 +12583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:89" ht="89.25">
+    <row r="32" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1036</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:89" ht="89.25">
+    <row r="33" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1036</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:89" ht="89.25">
+    <row r="34" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1036</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:89" ht="89.25">
+    <row r="35" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1036</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:89" ht="89.25">
+    <row r="36" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1036</v>
       </c>
@@ -12919,7 +12918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:89" ht="89.25">
+    <row r="37" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1036</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:89" ht="89.25">
+    <row r="38" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1036</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:89" ht="89.25">
+    <row r="39" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1036</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:89" ht="89.25">
+    <row r="40" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1036</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:89" ht="89.25">
+    <row r="41" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1036</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:89" ht="89.25">
+    <row r="42" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1036</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:89" ht="89.25">
+    <row r="43" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1036</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:89" ht="89.25">
+    <row r="44" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1036</v>
       </c>
@@ -13455,7 +13454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:89" ht="89.25">
+    <row r="45" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1036</v>
       </c>
@@ -13522,7 +13521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:89" ht="89.25">
+    <row r="46" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1036</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:89" ht="89.25">
+    <row r="47" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1036</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:89" ht="89.25">
+    <row r="48" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1036</v>
       </c>
@@ -13727,7 +13726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:89" ht="89.25">
+    <row r="49" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1036</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:89" ht="89.25">
+    <row r="50" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1036</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:89" ht="89.25">
+    <row r="51" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1036</v>
       </c>
@@ -13934,7 +13933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:89" ht="89.25">
+    <row r="52" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1036</v>
       </c>
@@ -14003,7 +14002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:89" ht="89.25">
+    <row r="53" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1036</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:89" ht="89.25">
+    <row r="54" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1036</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:89" ht="89.25">
+    <row r="55" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1036</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:89" ht="89.25">
+    <row r="56" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1036</v>
       </c>
@@ -14279,7 +14278,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:89" ht="89.25">
+    <row r="57" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1036</v>
       </c>
@@ -14348,7 +14347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:89" ht="89.25">
+    <row r="58" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1036</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:89" ht="89.25">
+    <row r="59" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1036</v>
       </c>
@@ -14486,7 +14485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:89" ht="89.25">
+    <row r="60" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1036</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:89" ht="89.25">
+    <row r="61" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1036</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:89" ht="89.25">
+    <row r="62" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1036</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:89" ht="89.25">
+    <row r="63" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1036</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:89" ht="89.25">
+    <row r="64" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1036</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:89" ht="89.25">
+    <row r="65" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1036</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:89" ht="89.25">
+    <row r="66" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1036</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:89" ht="89.25">
+    <row r="67" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1036</v>
       </c>
@@ -15038,7 +15037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:89" ht="89.25">
+    <row r="68" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1036</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:89" ht="89.25">
+    <row r="69" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1036</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:89" ht="89.25">
+    <row r="70" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1036</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:89" ht="89.25">
+    <row r="71" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1036</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:89" ht="89.25">
+    <row r="72" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1036</v>
       </c>
@@ -15383,7 +15382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:89" ht="89.25">
+    <row r="73" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1036</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:89" ht="89.25">
+    <row r="74" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1036</v>
       </c>
@@ -15521,7 +15520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:89" ht="89.25">
+    <row r="75" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1036</v>
       </c>
@@ -15590,7 +15589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:89" ht="89.25">
+    <row r="76" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1036</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:89" ht="89.25">
+    <row r="77" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1036</v>
       </c>
@@ -15728,7 +15727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:89" ht="89.25">
+    <row r="78" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1036</v>
       </c>
@@ -15797,7 +15796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:89" ht="89.25">
+    <row r="79" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1036</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:89" ht="89.25">
+    <row r="80" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1036</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:89" ht="89.25">
+    <row r="81" spans="1:89" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1036</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:89">
+    <row r="82" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1093</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:89">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1093</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:89">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1093</v>
       </c>
@@ -16199,7 +16198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:89">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1093</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:89">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1093</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="87" spans="1:89">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1093</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="88" spans="1:89">
+    <row r="88" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1093</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="89" spans="1:89">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1093</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="90" spans="1:89">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1093</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="91" spans="1:89">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1093</v>
       </c>
@@ -16636,7 +16635,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="92" spans="1:89">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1093</v>
       </c>
@@ -16698,7 +16697,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="93" spans="1:89">
+    <row r="93" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1093</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="94" spans="1:89">
+    <row r="94" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1093</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="95" spans="1:89">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1093</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="96" spans="1:89">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1093</v>
       </c>
@@ -16946,7 +16945,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1093</v>
       </c>
@@ -17008,7 +17007,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1093</v>
       </c>
@@ -17070,7 +17069,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1093</v>
       </c>
@@ -17132,7 +17131,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1093</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1093</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1093</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1093</v>
       </c>
@@ -17380,7 +17379,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1093</v>
       </c>
@@ -17442,7 +17441,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1093</v>
       </c>
@@ -17504,7 +17503,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1093</v>
       </c>
@@ -17566,7 +17565,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1093</v>
       </c>
@@ -17628,7 +17627,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1093</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1093</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1093</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1093</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1093</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1093</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1093</v>
       </c>
@@ -18068,7 +18067,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1093</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1093</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1093</v>
       </c>
@@ -18260,7 +18259,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1093</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1093</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1093</v>
       </c>
@@ -18452,7 +18451,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1093</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1093</v>
       </c>
@@ -18580,7 +18579,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1093</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1093</v>
       </c>
@@ -18708,7 +18707,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1093</v>
       </c>
@@ -18772,7 +18771,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1093</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1093</v>
       </c>
@@ -18900,7 +18899,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1093</v>
       </c>
@@ -18964,7 +18963,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="129" spans="1:89">
+    <row r="129" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1093</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="130" spans="1:89">
+    <row r="130" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1093</v>
       </c>
@@ -19092,7 +19091,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="131" spans="1:89">
+    <row r="131" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1093</v>
       </c>
@@ -19156,7 +19155,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="132" spans="1:89">
+    <row r="132" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1093</v>
       </c>
@@ -19220,7 +19219,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="133" spans="1:89">
+    <row r="133" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1093</v>
       </c>
@@ -19284,7 +19283,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="134" spans="1:89">
+    <row r="134" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1093</v>
       </c>
@@ -19348,7 +19347,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="135" spans="1:89">
+    <row r="135" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1093</v>
       </c>
@@ -19412,7 +19411,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="136" spans="1:89">
+    <row r="136" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1093</v>
       </c>
@@ -19476,7 +19475,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="137" spans="1:89">
+    <row r="137" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1093</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="138" spans="1:89">
+    <row r="138" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1093</v>
       </c>
@@ -19604,7 +19603,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="139" spans="1:89">
+    <row r="139" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1093</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="140" spans="1:89">
+    <row r="140" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1093</v>
       </c>
@@ -19732,7 +19731,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="141" spans="1:89">
+    <row r="141" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1093</v>
       </c>
@@ -19796,7 +19795,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="142" spans="1:89">
+    <row r="142" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -19831,7 +19830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:89">
+    <row r="143" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>438</v>
       </c>
@@ -19883,7 +19882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:89">
+    <row r="144" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1197</v>
       </c>
@@ -19964,7 +19963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:89">
+    <row r="145" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1687</v>
       </c>
@@ -20045,7 +20044,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="146" spans="1:89" ht="25.5">
+    <row r="146" spans="1:89" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1694</v>
       </c>
@@ -20126,7 +20125,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="147" spans="1:89">
+    <row r="147" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1671</v>
       </c>
@@ -20207,7 +20206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:89">
+    <row r="148" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1199</v>
       </c>
@@ -20249,7 +20248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:89">
+    <row r="149" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1199</v>
       </c>
@@ -20294,7 +20293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:89">
+    <row r="150" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1199</v>
       </c>
@@ -20339,7 +20338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:89">
+    <row r="151" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1202</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:89">
+    <row r="152" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1205</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:89">
+    <row r="153" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1207</v>
       </c>
@@ -20473,7 +20472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:89">
+    <row r="154" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1208</v>
       </c>
@@ -20511,7 +20510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:89">
+    <row r="155" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1208</v>
       </c>
@@ -20552,7 +20551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:89">
+    <row r="156" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1208</v>
       </c>
@@ -20593,7 +20592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:89">
+    <row r="157" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1209</v>
       </c>
@@ -20633,7 +20632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:89" ht="15">
+    <row r="158" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1211</v>
       </c>
@@ -20709,7 +20708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:89">
+    <row r="159" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>515</v>
       </c>
@@ -20784,7 +20783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:89">
+    <row r="160" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1111</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:89">
+    <row r="161" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1113</v>
       </c>
@@ -20881,7 +20880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:89">
+    <row r="162" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1115</v>
       </c>
@@ -20934,7 +20933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:89">
+    <row r="163" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>1663</v>
       </c>
@@ -20987,7 +20986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:89">
+    <row r="164" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1118</v>
       </c>
@@ -21040,7 +21039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:89">
+    <row r="165" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1120</v>
       </c>
@@ -21093,7 +21092,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="166" spans="1:89">
+    <row r="166" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1130</v>
       </c>
@@ -21146,7 +21145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:89">
+    <row r="167" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1139</v>
       </c>
@@ -21199,7 +21198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:89">
+    <row r="168" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1563</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="169" spans="1:89">
+    <row r="169" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1563</v>
       </c>
@@ -21299,7 +21298,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="170" spans="1:89">
+    <row r="170" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1132</v>
       </c>
@@ -21347,7 +21346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:89">
+    <row r="171" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1135</v>
       </c>
@@ -21388,7 +21387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="172" spans="1:89">
+    <row r="172" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1137</v>
       </c>
@@ -21429,7 +21428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:89" ht="15">
+    <row r="173" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="106" t="s">
         <v>1185</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:89">
+    <row r="174" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1181</v>
       </c>
@@ -21546,7 +21545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:89" ht="15">
+    <row r="175" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="106" t="s">
         <v>1186</v>
       </c>
@@ -21610,7 +21609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:89">
+    <row r="176" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>315</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:89">
+    <row r="177" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>315</v>
       </c>
@@ -21722,7 +21721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:89" ht="15">
+    <row r="178" spans="1:89" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="106" t="s">
         <v>1194</v>
       </c>
@@ -22062,11 +22061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E6D146-E099-4108-A009-E9075451700D}">
   <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -22081,7 +22080,7 @@
     <col min="31" max="38" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22092,10 +22091,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -22200,7 +22199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1039</v>
       </c>
@@ -22238,7 +22237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1041</v>
       </c>
@@ -22276,7 +22275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1043</v>
       </c>
@@ -22314,7 +22313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1056</v>
       </c>
@@ -22352,7 +22351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="63.75">
+    <row r="6" spans="1:39" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -22408,7 +22407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1004</v>
       </c>
@@ -22463,7 +22462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1006</v>
       </c>
@@ -22518,7 +22517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1007</v>
       </c>
@@ -22573,7 +22572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1008</v>
       </c>
@@ -22628,7 +22627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1009</v>
       </c>
@@ -22683,7 +22682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1442</v>
       </c>
@@ -22738,7 +22737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18.75">
+    <row r="13" spans="1:39" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1445</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="45.75">
+    <row r="14" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1036</v>
       </c>
@@ -22872,7 +22871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="45.75">
+    <row r="15" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1036</v>
       </c>
@@ -22943,7 +22942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="45.75">
+    <row r="16" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1036</v>
       </c>
@@ -23014,7 +23013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="45.75">
+    <row r="17" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1036</v>
       </c>
@@ -23085,7 +23084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="45.75">
+    <row r="18" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1036</v>
       </c>
@@ -23156,7 +23155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="45.75">
+    <row r="19" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1036</v>
       </c>
@@ -23222,7 +23221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="45.75">
+    <row r="20" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1036</v>
       </c>
@@ -23288,7 +23287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="45.75">
+    <row r="21" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1036</v>
       </c>
@@ -23354,7 +23353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="45.75">
+    <row r="22" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1036</v>
       </c>
@@ -23420,7 +23419,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="45.75">
+    <row r="23" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1036</v>
       </c>
@@ -23486,7 +23485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="45.75">
+    <row r="24" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1036</v>
       </c>
@@ -23552,7 +23551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="45.75">
+    <row r="25" spans="1:39" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1036</v>
       </c>
@@ -23618,7 +23617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="54.75">
+    <row r="26" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1036</v>
       </c>
@@ -23686,7 +23685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="54.75">
+    <row r="27" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1036</v>
       </c>
@@ -23754,7 +23753,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="54.75">
+    <row r="28" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1036</v>
       </c>
@@ -23822,7 +23821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="54.75">
+    <row r="29" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1036</v>
       </c>
@@ -23892,7 +23891,7 @@
       </c>
       <c r="AB29" s="59"/>
     </row>
-    <row r="30" spans="1:39" ht="54.75">
+    <row r="30" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1036</v>
       </c>
@@ -23962,7 +23961,7 @@
       </c>
       <c r="AB30" s="59"/>
     </row>
-    <row r="31" spans="1:39" ht="54.75">
+    <row r="31" spans="1:39" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1036</v>
       </c>
@@ -24032,7 +24031,7 @@
       </c>
       <c r="AB31" s="59"/>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1093</v>
       </c>
@@ -24088,7 +24087,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1093</v>
       </c>
@@ -24127,7 +24126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1093</v>
       </c>
@@ -24166,7 +24165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1060</v>
       </c>
@@ -24207,7 +24206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1047</v>
       </c>
@@ -24250,7 +24249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1049</v>
       </c>
@@ -24305,7 +24304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1051</v>
       </c>
@@ -24360,7 +24359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1053</v>
       </c>
@@ -24417,7 +24416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1058</v>
       </c>
@@ -24455,7 +24454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1045</v>
       </c>
@@ -24507,7 +24506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1062</v>
       </c>
@@ -24561,7 +24560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1064</v>
       </c>
@@ -24615,7 +24614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1066</v>
       </c>
@@ -24669,7 +24668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1068</v>
       </c>
@@ -24723,7 +24722,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1070</v>
       </c>
@@ -24780,7 +24779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1072</v>
       </c>
@@ -24834,7 +24833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1074</v>
       </c>
@@ -24888,7 +24887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1122</v>
       </c>
@@ -24939,7 +24938,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1123</v>
       </c>
@@ -24980,7 +24979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1126</v>
       </c>
@@ -25021,7 +25020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1128</v>
       </c>
@@ -25062,7 +25061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1169</v>
       </c>
@@ -25100,7 +25099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1171</v>
       </c>
@@ -25144,7 +25143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1172</v>
       </c>
@@ -25296,10 +25295,10 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -25328,7 +25327,7 @@
     <col min="25" max="25" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25339,10 +25338,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -25408,7 +25407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>864</v>
       </c>
@@ -25447,7 +25446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>191</v>
       </c>
@@ -25488,7 +25487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -25523,7 +25522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>868</v>
       </c>
@@ -25565,7 +25564,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="51.75">
+    <row r="6" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>160</v>
       </c>
@@ -25609,7 +25608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="102" t="s">
         <v>992</v>
       </c>
@@ -25644,7 +25643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>994</v>
       </c>
@@ -25679,7 +25678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1002</v>
       </c>
@@ -25717,7 +25716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1166</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1237</v>
       </c>
@@ -25800,7 +25799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1239</v>
       </c>
@@ -25871,10 +25870,10 @@
   <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
@@ -25911,7 +25910,7 @@
     <col min="41" max="41" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25922,10 +25921,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -26039,7 +26038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -26100,7 +26099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="38.25">
+    <row r="3" spans="1:42" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>315</v>
       </c>
@@ -26157,7 +26156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -26214,7 +26213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15">
+    <row r="5" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="106" t="s">
         <v>1185</v>
       </c>
@@ -26264,7 +26263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1181</v>
       </c>
@@ -26321,7 +26320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15">
+    <row r="7" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
         <v>1186</v>
       </c>
@@ -26413,7 +26412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15">
+    <row r="8" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
         <v>1679</v>
       </c>
@@ -26505,7 +26504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15">
+    <row r="9" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>1194</v>
       </c>
@@ -26585,11 +26584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BFD00C-4C77-4061-96F5-9E8A25C83776}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
@@ -26625,7 +26624,7 @@
     <col min="33" max="33" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26636,10 +26635,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -26729,7 +26728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>278</v>
       </c>
@@ -26827,7 +26826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1677</v>
       </c>
@@ -26925,7 +26924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>284</v>
       </c>
@@ -26984,7 +26983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>286</v>
       </c>
@@ -27040,7 +27039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -27087,7 +27086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -27137,7 +27136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -27187,7 +27186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -27240,7 +27239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -27290,7 +27289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -27346,7 +27345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="25.5">
+    <row r="12" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -27400,7 +27399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>304</v>
       </c>
@@ -27447,7 +27446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -27497,7 +27496,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -27547,7 +27546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -27600,7 +27599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -27650,7 +27649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -27706,7 +27705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>304</v>
       </c>
@@ -27821,10 +27820,10 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -27847,7 +27846,7 @@
     <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27858,10 +27857,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -27912,7 +27911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="34.5" customHeight="1">
+    <row r="2" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>866</v>
       </c>
@@ -27968,7 +27967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="34.5" customHeight="1">
+    <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>866</v>
       </c>
@@ -28015,7 +28014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="34.5" customHeight="1">
+    <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>1685</v>
       </c>
@@ -28071,7 +28070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="34.5" customHeight="1">
+    <row r="5" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>1685</v>
       </c>
@@ -28118,7 +28117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>867</v>
       </c>
@@ -28174,7 +28173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30">
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>867</v>
       </c>
@@ -28228,7 +28227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>867</v>
       </c>
@@ -28280,7 +28279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>867</v>
       </c>
@@ -28334,7 +28333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="38.25">
+    <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>867</v>
       </c>
@@ -28386,7 +28385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30">
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>867</v>
       </c>
@@ -28440,7 +28439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="30">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>867</v>
       </c>
@@ -28553,7 +28552,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
@@ -28581,7 +28580,7 @@
     <col min="33" max="33" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -28682,7 +28681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>322</v>
       </c>
@@ -28725,7 +28724,7 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>549</v>
       </c>
@@ -28797,7 +28796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="134.44999999999999" customHeight="1">
+    <row r="4" spans="1:33" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>548</v>
       </c>
@@ -28838,7 +28837,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>547</v>
       </c>
@@ -28890,7 +28889,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>547</v>
       </c>
@@ -28940,7 +28939,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="38.25">
+    <row r="7" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>547</v>
       </c>
@@ -28991,7 +28990,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>547</v>
       </c>
@@ -29042,7 +29041,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="38.25">
+    <row r="9" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>547</v>
       </c>
@@ -29093,7 +29092,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>547</v>
       </c>
@@ -29146,7 +29145,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>547</v>
       </c>
@@ -29192,7 +29191,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>547</v>
       </c>
@@ -29240,7 +29239,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>547</v>
       </c>
@@ -29288,7 +29287,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="25.5">
+    <row r="14" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>547</v>
       </c>
@@ -29336,7 +29335,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>547</v>
       </c>
@@ -29384,7 +29383,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>547</v>
       </c>
@@ -29432,7 +29431,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>547</v>
       </c>
@@ -29480,7 +29479,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>547</v>
       </c>
@@ -29530,7 +29529,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>547</v>
       </c>
@@ -29578,7 +29577,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>547</v>
       </c>
@@ -29626,7 +29625,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>547</v>
       </c>
@@ -29676,7 +29675,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15">
+    <row r="22" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>1174</v>
       </c>
@@ -29714,7 +29713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15">
+    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>1214</v>
       </c>
@@ -29755,7 +29754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15">
+    <row r="24" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>1217</v>
       </c>
@@ -29796,7 +29795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15">
+    <row r="25" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>1219</v>
       </c>
@@ -29837,7 +29836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15">
+    <row r="26" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>1221</v>
       </c>
@@ -29882,7 +29881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>1223</v>
       </c>
@@ -29920,7 +29919,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>547</v>
       </c>
@@ -29941,7 +29940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>1268</v>
       </c>
@@ -30001,7 +30000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>1284</v>
       </c>
@@ -30022,7 +30021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>1290</v>
       </c>
@@ -30076,7 +30075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>1352</v>
       </c>
@@ -30204,11 +30203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A9CEA3-68AE-4585-A730-C93A32C211CE}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -30222,7 +30221,7 @@
     <col min="13" max="13" width="19.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30233,10 +30232,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -30263,7 +30262,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1015</v>
       </c>
@@ -30301,7 +30300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1016</v>
       </c>
@@ -30339,7 +30338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1018</v>
       </c>
@@ -30394,11 +30393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58374333-3631-4DA5-880E-890CC1BDE13B}">
   <dimension ref="A1:BI76"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" customWidth="1"/>
@@ -30452,7 +30451,7 @@
     <col min="62" max="62" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30463,10 +30462,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -30637,7 +30636,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="105">
+    <row r="2" spans="1:61" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1323</v>
       </c>
@@ -30801,7 +30800,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="105">
+    <row r="3" spans="1:61" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>612</v>
       </c>
@@ -30911,7 +30910,7 @@
       <c r="AW3" s="40"/>
       <c r="AX3" s="40"/>
     </row>
-    <row r="4" spans="1:61" ht="15">
+    <row r="4" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>626</v>
       </c>
@@ -31017,7 +31016,7 @@
       <c r="AW4" s="40"/>
       <c r="AX4" s="40"/>
     </row>
-    <row r="5" spans="1:61" ht="15">
+    <row r="5" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>626</v>
       </c>
@@ -31125,7 +31124,7 @@
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
     </row>
-    <row r="6" spans="1:61" ht="15">
+    <row r="6" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>626</v>
       </c>
@@ -31233,7 +31232,7 @@
       <c r="AW6" s="40"/>
       <c r="AX6" s="40"/>
     </row>
-    <row r="7" spans="1:61" ht="15">
+    <row r="7" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>626</v>
       </c>
@@ -31339,7 +31338,7 @@
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
     </row>
-    <row r="8" spans="1:61" ht="15">
+    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>626</v>
       </c>
@@ -31447,7 +31446,7 @@
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
     </row>
-    <row r="9" spans="1:61" ht="15">
+    <row r="9" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>626</v>
       </c>
@@ -31553,7 +31552,7 @@
       <c r="AW9" s="40"/>
       <c r="AX9" s="40"/>
     </row>
-    <row r="10" spans="1:61" ht="15">
+    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>626</v>
       </c>
@@ -31661,7 +31660,7 @@
       <c r="AW10" s="40"/>
       <c r="AX10" s="40"/>
     </row>
-    <row r="11" spans="1:61" ht="15">
+    <row r="11" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>626</v>
       </c>
@@ -31767,7 +31766,7 @@
       <c r="AW11" s="40"/>
       <c r="AX11" s="40"/>
     </row>
-    <row r="12" spans="1:61" ht="15">
+    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>626</v>
       </c>
@@ -31875,7 +31874,7 @@
       <c r="AW12" s="40"/>
       <c r="AX12" s="40"/>
     </row>
-    <row r="13" spans="1:61" ht="15">
+    <row r="13" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>626</v>
       </c>
@@ -31981,7 +31980,7 @@
       <c r="AW13" s="40"/>
       <c r="AX13" s="40"/>
     </row>
-    <row r="14" spans="1:61" ht="15">
+    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>626</v>
       </c>
@@ -32089,7 +32088,7 @@
       <c r="AW14" s="40"/>
       <c r="AX14" s="40"/>
     </row>
-    <row r="15" spans="1:61" ht="15">
+    <row r="15" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>626</v>
       </c>
@@ -32197,7 +32196,7 @@
       <c r="AW15" s="40"/>
       <c r="AX15" s="40"/>
     </row>
-    <row r="16" spans="1:61" ht="15">
+    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>626</v>
       </c>
@@ -32303,7 +32302,7 @@
       <c r="AW16" s="40"/>
       <c r="AX16" s="40"/>
     </row>
-    <row r="17" spans="1:50" ht="15">
+    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>626</v>
       </c>
@@ -32409,7 +32408,7 @@
       <c r="AW17" s="40"/>
       <c r="AX17" s="40"/>
     </row>
-    <row r="18" spans="1:50" ht="15">
+    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>626</v>
       </c>
@@ -32517,7 +32516,7 @@
       <c r="AW18" s="40"/>
       <c r="AX18" s="40"/>
     </row>
-    <row r="19" spans="1:50" ht="15">
+    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>626</v>
       </c>
@@ -32625,7 +32624,7 @@
       <c r="AW19" s="40"/>
       <c r="AX19" s="40"/>
     </row>
-    <row r="20" spans="1:50" ht="15">
+    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>626</v>
       </c>
@@ -32733,7 +32732,7 @@
       <c r="AW20" s="40"/>
       <c r="AX20" s="40"/>
     </row>
-    <row r="21" spans="1:50" ht="45">
+    <row r="21" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>660</v>
       </c>
@@ -32835,7 +32834,7 @@
       <c r="AW21" s="40"/>
       <c r="AX21" s="40"/>
     </row>
-    <row r="22" spans="1:50" ht="90">
+    <row r="22" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>666</v>
       </c>
@@ -32945,7 +32944,7 @@
       <c r="AW22" s="40"/>
       <c r="AX22" s="40"/>
     </row>
-    <row r="23" spans="1:50" ht="60">
+    <row r="23" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>670</v>
       </c>
@@ -33035,7 +33034,7 @@
       <c r="AW23" s="40"/>
       <c r="AX23" s="40"/>
     </row>
-    <row r="24" spans="1:50" ht="45">
+    <row r="24" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>678</v>
       </c>
@@ -33145,7 +33144,7 @@
       </c>
       <c r="AX24" s="40"/>
     </row>
-    <row r="25" spans="1:50" ht="45">
+    <row r="25" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>681</v>
       </c>
@@ -33259,7 +33258,7 @@
       </c>
       <c r="AX25" s="40"/>
     </row>
-    <row r="26" spans="1:50" ht="45">
+    <row r="26" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>681</v>
       </c>
@@ -33375,7 +33374,7 @@
       </c>
       <c r="AX26" s="40"/>
     </row>
-    <row r="27" spans="1:50" ht="45">
+    <row r="27" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>681</v>
       </c>
@@ -33491,7 +33490,7 @@
       </c>
       <c r="AX27" s="40"/>
     </row>
-    <row r="28" spans="1:50" ht="45">
+    <row r="28" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>681</v>
       </c>
@@ -33605,7 +33604,7 @@
       </c>
       <c r="AX28" s="40"/>
     </row>
-    <row r="29" spans="1:50" ht="45">
+    <row r="29" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>681</v>
       </c>
@@ -33721,7 +33720,7 @@
       </c>
       <c r="AX29" s="40"/>
     </row>
-    <row r="30" spans="1:50" ht="45">
+    <row r="30" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>681</v>
       </c>
@@ -33837,7 +33836,7 @@
       </c>
       <c r="AX30" s="40"/>
     </row>
-    <row r="31" spans="1:50" ht="45">
+    <row r="31" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>681</v>
       </c>
@@ -33953,7 +33952,7 @@
       </c>
       <c r="AX31" s="40"/>
     </row>
-    <row r="32" spans="1:50" ht="45">
+    <row r="32" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>681</v>
       </c>
@@ -34067,7 +34066,7 @@
       </c>
       <c r="AX32" s="40"/>
     </row>
-    <row r="33" spans="1:53" ht="45">
+    <row r="33" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>681</v>
       </c>
@@ -34183,7 +34182,7 @@
       </c>
       <c r="AX33" s="40"/>
     </row>
-    <row r="34" spans="1:53" ht="45">
+    <row r="34" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>681</v>
       </c>
@@ -34297,7 +34296,7 @@
       <c r="AW34" s="40"/>
       <c r="AX34" s="40"/>
     </row>
-    <row r="35" spans="1:53" ht="45">
+    <row r="35" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>681</v>
       </c>
@@ -34411,7 +34410,7 @@
       </c>
       <c r="AX35" s="40"/>
     </row>
-    <row r="36" spans="1:53" ht="45">
+    <row r="36" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>681</v>
       </c>
@@ -34525,7 +34524,7 @@
       </c>
       <c r="AX36" s="40"/>
     </row>
-    <row r="37" spans="1:53" ht="45">
+    <row r="37" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>681</v>
       </c>
@@ -34639,7 +34638,7 @@
       </c>
       <c r="AX37" s="40"/>
     </row>
-    <row r="38" spans="1:53" ht="45">
+    <row r="38" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>681</v>
       </c>
@@ -34755,7 +34754,7 @@
       </c>
       <c r="AX38" s="40"/>
     </row>
-    <row r="39" spans="1:53" ht="45">
+    <row r="39" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>681</v>
       </c>
@@ -34871,7 +34870,7 @@
       </c>
       <c r="AX39" s="40"/>
     </row>
-    <row r="40" spans="1:53" ht="15">
+    <row r="40" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>681</v>
       </c>
@@ -34985,7 +34984,7 @@
       </c>
       <c r="AX40" s="40"/>
     </row>
-    <row r="41" spans="1:53" ht="45">
+    <row r="41" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>681</v>
       </c>
@@ -35099,7 +35098,7 @@
       </c>
       <c r="AX41" s="40"/>
     </row>
-    <row r="42" spans="1:53" ht="45">
+    <row r="42" spans="1:53" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>681</v>
       </c>
@@ -35213,7 +35212,7 @@
       </c>
       <c r="AX42" s="40"/>
     </row>
-    <row r="43" spans="1:53" ht="225">
+    <row r="43" spans="1:53" ht="225" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
         <v>703</v>
       </c>
@@ -35327,7 +35326,7 @@
       </c>
       <c r="AX43" s="40"/>
     </row>
-    <row r="44" spans="1:53" ht="15">
+    <row r="44" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>705</v>
       </c>
@@ -35441,7 +35440,7 @@
       </c>
       <c r="AX44" s="40"/>
     </row>
-    <row r="45" spans="1:53" ht="15">
+    <row r="45" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>706</v>
       </c>
@@ -35547,7 +35546,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="46" spans="1:53" ht="15">
+    <row r="46" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>706</v>
       </c>
@@ -35628,7 +35627,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="47" spans="1:53" ht="26.25">
+    <row r="47" spans="1:53" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>706</v>
       </c>
@@ -35709,7 +35708,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="1:53" ht="15">
+    <row r="48" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>706</v>
       </c>
@@ -35790,7 +35789,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="49" spans="1:53" ht="15">
+    <row r="49" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>706</v>
       </c>
@@ -35871,7 +35870,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="50" spans="1:53" ht="15">
+    <row r="50" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>706</v>
       </c>
@@ -35950,7 +35949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:53" ht="15">
+    <row r="51" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>706</v>
       </c>
@@ -36031,7 +36030,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="52" spans="1:53" ht="15">
+    <row r="52" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>706</v>
       </c>
@@ -36112,7 +36111,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="53" spans="1:53" ht="15">
+    <row r="53" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>706</v>
       </c>
@@ -36193,7 +36192,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="54" spans="1:53" ht="15">
+    <row r="54" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>706</v>
       </c>
@@ -36274,7 +36273,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="55" spans="1:53" ht="15">
+    <row r="55" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>706</v>
       </c>
@@ -36352,7 +36351,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:53" ht="15">
+    <row r="56" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>706</v>
       </c>
@@ -36430,7 +36429,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="57" spans="1:53" ht="15">
+    <row r="57" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>706</v>
       </c>
@@ -36508,7 +36507,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="58" spans="1:53" ht="15">
+    <row r="58" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>706</v>
       </c>
@@ -36586,7 +36585,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="59" spans="1:53" ht="15">
+    <row r="59" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -36665,7 +36664,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:53" ht="15">
+    <row r="60" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>706</v>
       </c>
@@ -36743,7 +36742,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="61" spans="1:53" ht="15">
+    <row r="61" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>706</v>
       </c>
@@ -36821,7 +36820,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="62" spans="1:53" ht="15">
+    <row r="62" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>706</v>
       </c>
@@ -36899,7 +36898,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>706</v>
       </c>
@@ -36978,7 +36977,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="64" spans="1:53" ht="166.5">
+    <row r="64" spans="1:53" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>763</v>
       </c>
@@ -37050,7 +37049,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="72.75">
+    <row r="65" spans="1:61" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>769</v>
       </c>
@@ -37150,7 +37149,7 @@
       </c>
       <c r="BI65" s="58"/>
     </row>
-    <row r="66" spans="1:61">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>779</v>
       </c>
@@ -37192,7 +37191,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:61" ht="25.5">
+    <row r="67" spans="1:61" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>781</v>
       </c>
@@ -37237,7 +37236,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="68" spans="1:61" ht="15">
+    <row r="68" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>838</v>
       </c>
@@ -37279,7 +37278,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="69" spans="1:61" ht="15">
+    <row r="69" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>840</v>
       </c>
@@ -37321,7 +37320,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="70" spans="1:61" ht="15">
+    <row r="70" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>842</v>
       </c>
@@ -37363,7 +37362,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="71" spans="1:61">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>854</v>
       </c>
@@ -37406,7 +37405,7 @@
       </c>
       <c r="P71" s="59"/>
     </row>
-    <row r="72" spans="1:61" ht="15">
+    <row r="72" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>953</v>
       </c>
@@ -37455,7 +37454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:61" ht="15">
+    <row r="73" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>955</v>
       </c>
@@ -37503,7 +37502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:61" ht="15">
+    <row r="74" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>956</v>
       </c>
@@ -37551,7 +37550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:61" ht="15">
+    <row r="75" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>958</v>
       </c>
@@ -37602,7 +37601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:61" ht="15">
+    <row r="76" spans="1:61" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>961</v>
       </c>
@@ -37696,11 +37695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314EA259-36BC-4FE7-B46E-E4DB3C2E73B4}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
@@ -37716,7 +37715,7 @@
     <col min="18" max="18" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37727,10 +37726,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -37775,7 +37774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -37825,7 +37824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -37866,7 +37865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -37904,7 +37903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1028</v>
       </c>
@@ -37951,7 +37950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1029</v>
       </c>
@@ -37992,7 +37991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1029</v>
       </c>
@@ -38036,7 +38035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1029</v>
       </c>
@@ -38077,7 +38076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1029</v>
       </c>
@@ -38121,7 +38120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1037</v>
       </c>
@@ -38159,7 +38158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1275</v>
       </c>
@@ -38234,10 +38233,10 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -38263,7 +38262,7 @@
     <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38274,10 +38273,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -38349,7 +38348,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1246</v>
       </c>
@@ -38407,7 +38406,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1249</v>
       </c>
@@ -38451,7 +38450,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1251</v>
       </c>
@@ -38496,7 +38495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="51">
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1251</v>
       </c>
@@ -38550,7 +38549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1251</v>
       </c>
@@ -38604,7 +38603,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.25">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1252</v>
       </c>
@@ -38684,7 +38683,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
@@ -38695,7 +38694,7 @@
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -38721,7 +38720,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>562</v>
       </c>
@@ -38738,7 +38737,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>568</v>
       </c>
@@ -38755,7 +38754,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>571</v>
       </c>
@@ -38772,7 +38771,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>574</v>
       </c>
@@ -38799,12 +38798,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
@@ -38826,7 +38825,7 @@
     <col min="21" max="21" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38837,10 +38836,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -38900,7 +38899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>551</v>
       </c>
@@ -38941,7 +38940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1390</v>
       </c>
@@ -38977,7 +38976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -39010,7 +39009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>552</v>
       </c>
@@ -39043,7 +39042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>552</v>
       </c>
@@ -39078,7 +39077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>552</v>
       </c>
@@ -39113,7 +39112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>552</v>
       </c>
@@ -39151,7 +39150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>552</v>
       </c>
@@ -39183,7 +39182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>551</v>
       </c>
@@ -39218,7 +39217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>552</v>
       </c>
@@ -39250,7 +39249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>552</v>
       </c>
@@ -39282,7 +39281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="116" t="s">
         <v>552</v>
       </c>
@@ -39311,7 +39310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -39343,7 +39342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>553</v>
       </c>
@@ -39381,7 +39380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>553</v>
       </c>
@@ -39413,7 +39412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>553</v>
       </c>
@@ -39445,7 +39444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>553</v>
       </c>
@@ -39477,7 +39476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>553</v>
       </c>
@@ -39509,7 +39508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -39538,7 +39537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -39572,7 +39571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -39604,7 +39603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -39633,7 +39632,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -39662,7 +39661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -39691,7 +39690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -39723,7 +39722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1260</v>
       </c>
@@ -39755,7 +39754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1282</v>
       </c>
@@ -39790,7 +39789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1294</v>
       </c>
@@ -39887,7 +39886,7 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
@@ -39912,7 +39911,7 @@
     <col min="22" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39983,7 +39982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -40028,7 +40027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -40058,7 +40057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -40091,7 +40090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -40124,7 +40123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -40157,7 +40156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -40190,7 +40189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -40223,7 +40222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -40262,7 +40261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -40298,7 +40297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -40338,7 +40337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -40378,7 +40377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>229</v>
       </c>
@@ -40418,7 +40417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -40451,7 +40450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -40484,7 +40483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -40517,7 +40516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -40550,7 +40549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -40589,7 +40588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -40628,7 +40627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -40667,7 +40666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -40712,7 +40711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -40754,7 +40753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -40796,7 +40795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -40838,7 +40837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="38.25">
+    <row r="25" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>248</v>
       </c>
@@ -40861,7 +40860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="76.5">
+    <row r="26" spans="1:23" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>249</v>
       </c>
@@ -40890,7 +40889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1262</v>
       </c>
@@ -40940,10 +40939,10 @@
   <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
@@ -40977,7 +40976,7 @@
     <col min="41" max="41" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40988,10 +40987,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -41102,7 +41101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -41179,7 +41178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>472</v>
       </c>
@@ -41256,7 +41255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1683</v>
       </c>
@@ -41333,7 +41332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1683</v>
       </c>
@@ -41410,7 +41409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>479</v>
       </c>
@@ -41481,7 +41480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -41531,7 +41530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -41590,7 +41589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>481</v>
       </c>
@@ -41643,7 +41642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -41696,7 +41695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>481</v>
       </c>
@@ -41755,7 +41754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>481</v>
       </c>
@@ -41814,7 +41813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -41873,7 +41872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>481</v>
       </c>
@@ -41926,7 +41925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>481</v>
       </c>
@@ -41979,7 +41978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>494</v>
       </c>
@@ -42029,7 +42028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>494</v>
       </c>
@@ -42076,7 +42075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>494</v>
       </c>
@@ -42123,7 +42122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>494</v>
       </c>
@@ -42170,7 +42169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>494</v>
       </c>
@@ -42217,7 +42216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>532</v>
       </c>
@@ -42270,7 +42269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>532</v>
       </c>
@@ -42323,7 +42322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1681</v>
       </c>
@@ -42376,7 +42375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1155</v>
       </c>
@@ -42426,7 +42425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1157</v>
       </c>
@@ -42479,7 +42478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1157</v>
       </c>
@@ -42532,7 +42531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1157</v>
       </c>
@@ -42585,7 +42584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1157</v>
       </c>
@@ -42638,7 +42637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1157</v>
       </c>
@@ -42691,7 +42690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1157</v>
       </c>
@@ -42744,7 +42743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1157</v>
       </c>
@@ -42797,7 +42796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="25.5">
+    <row r="32" spans="1:41" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1157</v>
       </c>
@@ -42859,7 +42858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>542</v>
       </c>
@@ -42924,7 +42923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>542</v>
       </c>
@@ -42986,7 +42985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>542</v>
       </c>
@@ -43048,7 +43047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>542</v>
       </c>
@@ -43110,7 +43109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>542</v>
       </c>
@@ -43172,7 +43171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1100</v>
       </c>
@@ -43210,7 +43209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1103</v>
       </c>
@@ -43248,7 +43247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1105</v>
       </c>
@@ -43295,7 +43294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1519</v>
       </c>
@@ -43348,7 +43347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1519</v>
       </c>
@@ -43401,7 +43400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1107</v>
       </c>
@@ -43445,7 +43444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1109</v>
       </c>
@@ -43486,7 +43485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1255</v>
       </c>
@@ -43524,7 +43523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1257</v>
       </c>
@@ -43672,11 +43671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA1337-2558-455D-ADA8-7075ECA2C604}">
   <dimension ref="A1:AW52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
@@ -43715,7 +43714,7 @@
     <col min="47" max="47" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43726,10 +43725,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1690</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -43864,7 +43863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="15">
+    <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>898</v>
       </c>
@@ -43916,7 +43915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="15">
+    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>900</v>
       </c>
@@ -44001,7 +44000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="26.25">
+    <row r="4" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>917</v>
       </c>
@@ -44068,7 +44067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="15">
+    <row r="5" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>919</v>
       </c>
@@ -44126,7 +44125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="15">
+    <row r="6" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
         <v>920</v>
       </c>
@@ -44185,7 +44184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="15">
+    <row r="7" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>923</v>
       </c>
@@ -44243,7 +44242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="15">
+    <row r="8" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>925</v>
       </c>
@@ -44304,7 +44303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="15">
+    <row r="9" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>925</v>
       </c>
@@ -44362,7 +44361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="229.5">
+    <row r="10" spans="1:49" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>932</v>
       </c>
@@ -44420,7 +44419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="33.6" customHeight="1">
+    <row r="11" spans="1:49" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>935</v>
       </c>
@@ -44481,7 +44480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15">
+    <row r="12" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>935</v>
       </c>
@@ -44540,7 +44539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="26.25">
+    <row r="13" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>939</v>
       </c>
@@ -44607,7 +44606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="26.25">
+    <row r="14" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>939</v>
       </c>
@@ -44674,7 +44673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="15">
+    <row r="15" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>941</v>
       </c>
@@ -44736,7 +44735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="15">
+    <row r="16" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>943</v>
       </c>
@@ -44794,7 +44793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="15">
+    <row r="17" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>945</v>
       </c>
@@ -44855,7 +44854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="15">
+    <row r="18" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>945</v>
       </c>
@@ -44913,7 +44912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="15">
+    <row r="19" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>947</v>
       </c>
@@ -44971,7 +44970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="140.25">
+    <row r="20" spans="1:49" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>949</v>
       </c>
@@ -45029,7 +45028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="15">
+    <row r="21" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>950</v>
       </c>
@@ -45090,7 +45089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="15">
+    <row r="22" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>950</v>
       </c>
@@ -45148,7 +45147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="26.25">
+    <row r="23" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>965</v>
       </c>
@@ -45214,7 +45213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="15">
+    <row r="24" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>864</v>
       </c>
@@ -45271,7 +45270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="15">
+    <row r="25" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>864</v>
       </c>
@@ -45328,7 +45327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="15">
+    <row r="26" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>864</v>
       </c>
@@ -45385,7 +45384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="15">
+    <row r="27" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>864</v>
       </c>
@@ -45442,7 +45441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="15">
+    <row r="28" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>864</v>
       </c>
@@ -45499,7 +45498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="15">
+    <row r="29" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>864</v>
       </c>
@@ -45556,7 +45555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="26.25">
+    <row r="30" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>952</v>
       </c>
@@ -45624,7 +45623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="26.25">
+    <row r="31" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>964</v>
       </c>
@@ -45688,7 +45687,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="26.25">
+    <row r="32" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>781</v>
       </c>
@@ -45758,7 +45757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="26.25">
+    <row r="33" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>964</v>
       </c>
@@ -45822,7 +45821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="26.25">
+    <row r="34" spans="1:49" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1525</v>
       </c>
@@ -45887,7 +45886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1274</v>
       </c>
@@ -45945,7 +45944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1274</v>
       </c>
@@ -46003,7 +46002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1274</v>
       </c>
@@ -46061,7 +46060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1274</v>
       </c>
@@ -46119,7 +46118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1274</v>
       </c>
@@ -46177,7 +46176,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1556</v>
       </c>
@@ -46227,7 +46226,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1558</v>
       </c>
@@ -46279,7 +46278,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1560</v>
       </c>
@@ -46329,7 +46328,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1286</v>
       </c>
@@ -46382,7 +46381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="25.5">
+    <row r="44" spans="1:49" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1288</v>
       </c>
@@ -46437,7 +46436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1526</v>
       </c>
@@ -46487,7 +46486,7 @@
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1530</v>
       </c>
@@ -46525,7 +46524,7 @@
       <c r="M46" s="33"/>
       <c r="N46" s="33"/>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1532</v>
       </c>
@@ -46575,7 +46574,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="15">
+    <row r="48" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1534</v>
       </c>
@@ -46625,7 +46624,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15">
+    <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1536</v>
       </c>
@@ -46675,7 +46674,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1538</v>
       </c>
@@ -46716,7 +46715,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1538</v>
       </c>
@@ -46757,7 +46756,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1539</v>
       </c>
@@ -46880,11 +46879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381DD47B-996A-4351-977B-0DF8E48FD9AE}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="6" width="37.85546875" customWidth="1"/>
@@ -46893,7 +46892,7 @@
     <col min="24" max="24" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -46979,7 +46978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>967</v>
       </c>
@@ -47026,7 +47025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15">
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>969</v>
       </c>
@@ -47073,7 +47072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="26.25">
+    <row r="4" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>973</v>
       </c>
@@ -47133,7 +47132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="39">
+    <row r="5" spans="1:28" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>977</v>
       </c>
@@ -47186,7 +47185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15">
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>979</v>
       </c>
@@ -47230,7 +47229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26.25">
+    <row r="7" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>973</v>
       </c>
@@ -47290,7 +47289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15">
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>981</v>
       </c>
@@ -47334,7 +47333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15">
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
         <v>1308</v>
       </c>
@@ -47380,7 +47379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15">
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
         <v>1308</v>
       </c>
@@ -47426,7 +47425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15">
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
         <v>1308</v>
       </c>
@@ -47472,7 +47471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15">
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
         <v>1309</v>
       </c>
@@ -47518,7 +47517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>1309</v>
       </c>
@@ -47564,7 +47563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="100" t="s">
         <v>1309</v>
       </c>
@@ -47610,7 +47609,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>997</v>
       </c>
@@ -47666,7 +47665,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>997</v>
       </c>
@@ -47722,7 +47721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="51">
+    <row r="17" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>997</v>
       </c>
@@ -47777,7 +47776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>997</v>
       </c>
@@ -47834,7 +47833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="38.25">
+    <row r="19" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>997</v>
       </c>
@@ -47889,7 +47888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>997</v>
       </c>
@@ -47948,7 +47947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>997</v>
       </c>
@@ -48003,7 +48002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>997</v>
       </c>
@@ -48060,7 +48059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>997</v>
       </c>
@@ -48117,7 +48116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>997</v>
       </c>
@@ -48165,7 +48164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>997</v>
       </c>
@@ -48216,7 +48215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>997</v>
       </c>
@@ -48273,7 +48272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="25.5">
+    <row r="27" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>1296</v>
       </c>
@@ -48327,7 +48326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="100" t="s">
         <v>1304</v>
       </c>
@@ -48368,7 +48367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>1314</v>
       </c>
@@ -48412,7 +48411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>1315</v>
       </c>
@@ -48456,7 +48455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>1332</v>
       </c>
@@ -48562,10 +48561,10 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="61.140625" customWidth="1"/>
@@ -48587,7 +48586,7 @@
     <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -48598,7 +48597,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1689</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -48646,7 +48645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -48696,7 +48695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -48722,7 +48721,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -48751,7 +48750,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -48780,7 +48779,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>455</v>
       </c>
@@ -48818,7 +48817,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -48847,7 +48846,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>459</v>
       </c>
@@ -48889,7 +48888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -48930,7 +48929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -48974,7 +48973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>459</v>
       </c>
@@ -49018,7 +49017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -49062,7 +49061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="25.5">
+    <row r="13" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>459</v>
       </c>
@@ -49106,7 +49105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>459</v>
       </c>
@@ -49150,7 +49149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>459</v>
       </c>
@@ -49194,7 +49193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>459</v>
       </c>
@@ -49238,7 +49237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -49282,7 +49281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>459</v>
       </c>
@@ -49326,7 +49325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1264</v>
       </c>
@@ -49401,11 +49400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9BF369-EF46-4776-A5B8-F0472DEC4D29}">
   <dimension ref="A1:BR43"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="2" width="65.85546875" customWidth="1"/>
@@ -49452,7 +49451,7 @@
     <col min="69" max="69" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="15">
+    <row r="1" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -49664,7 +49663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:70" ht="15">
+    <row r="2" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>792</v>
       </c>
@@ -49768,7 +49767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:70" ht="15">
+    <row r="3" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>792</v>
       </c>
@@ -49870,7 +49869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="15">
+    <row r="4" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>792</v>
       </c>
@@ -49972,7 +49971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:70" ht="15">
+    <row r="5" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>792</v>
       </c>
@@ -50074,7 +50073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="15">
+    <row r="6" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>1371</v>
       </c>
@@ -50174,7 +50173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:70" ht="15">
+    <row r="7" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>1371</v>
       </c>
@@ -50274,7 +50273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:70" ht="15">
+    <row r="8" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>1371</v>
       </c>
@@ -50374,7 +50373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:70" ht="15">
+    <row r="9" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>1371</v>
       </c>
@@ -50474,7 +50473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:70" ht="15">
+    <row r="10" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>1393</v>
       </c>
@@ -50574,7 +50573,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:70" ht="15">
+    <row r="11" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>1393</v>
       </c>
@@ -50674,7 +50673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="15">
+    <row r="12" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>1393</v>
       </c>
@@ -50774,7 +50773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:70" ht="15">
+    <row r="13" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>1393</v>
       </c>
@@ -50874,7 +50873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="15">
+    <row r="14" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>805</v>
       </c>
@@ -50948,7 +50947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="15">
+    <row r="15" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>805</v>
       </c>
@@ -51034,7 +51033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:70" ht="15">
+    <row r="16" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>805</v>
       </c>
@@ -51118,7 +51117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:70" ht="15">
+    <row r="17" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>805</v>
       </c>
@@ -51202,7 +51201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:70" ht="15">
+    <row r="18" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>807</v>
       </c>
@@ -51277,7 +51276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:70" ht="15">
+    <row r="19" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>810</v>
       </c>
@@ -51350,7 +51349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:70" ht="15">
+    <row r="20" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>813</v>
       </c>
@@ -51448,7 +51447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:70" ht="15">
+    <row r="21" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>815</v>
       </c>
@@ -51551,7 +51550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:70" ht="15">
+    <row r="22" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>1372</v>
       </c>
@@ -51615,7 +51614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:70" ht="15">
+    <row r="23" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>1394</v>
       </c>
@@ -51679,7 +51678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:70" ht="15">
+    <row r="24" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>820</v>
       </c>
@@ -51783,7 +51782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:70" ht="15">
+    <row r="25" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>820</v>
       </c>
@@ -51887,7 +51886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="15">
+    <row r="26" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>820</v>
       </c>
@@ -51991,7 +51990,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:70" ht="15">
+    <row r="27" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>820</v>
       </c>
@@ -52092,7 +52091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:70" ht="15">
+    <row r="28" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>820</v>
       </c>
@@ -52196,7 +52195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:70" ht="45">
+    <row r="29" spans="1:70" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>820</v>
       </c>
@@ -52272,7 +52271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:70" ht="102.75">
+    <row r="30" spans="1:70" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>820</v>
       </c>
@@ -52370,7 +52369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:70" ht="15">
+    <row r="31" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>820</v>
       </c>
@@ -52471,7 +52470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:70" ht="15">
+    <row r="32" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>820</v>
       </c>
@@ -52572,7 +52571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:70" ht="15">
+    <row r="33" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>820</v>
       </c>
@@ -52673,7 +52672,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:70" ht="15">
+    <row r="34" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>820</v>
       </c>
@@ -52774,7 +52773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:70" ht="15">
+    <row r="35" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>820</v>
       </c>
@@ -52870,7 +52869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:70" ht="15">
+    <row r="36" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>820</v>
       </c>
@@ -52965,7 +52964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:70" ht="15">
+    <row r="37" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>820</v>
       </c>
@@ -53066,7 +53065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:70" ht="15">
+    <row r="38" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>820</v>
       </c>
@@ -53167,7 +53166,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:70" ht="15">
+    <row r="39" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>820</v>
       </c>
@@ -53268,7 +53267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:70" ht="15">
+    <row r="40" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>820</v>
       </c>
@@ -53372,7 +53371,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:70" ht="15">
+    <row r="41" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>820</v>
       </c>
@@ -53476,7 +53475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:70" ht="153.75">
+    <row r="42" spans="1:70" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>827</v>
       </c>
@@ -53566,7 +53565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:70" ht="15">
+    <row r="43" spans="1:70" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1696</v>
       </c>
